--- a/fluxo_caixa.xlsx
+++ b/fluxo_caixa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandremoreira/Documents/py_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40F33C11-A466-C84A-947A-974CF2C5C54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B84C02-6F4F-BC48-B969-42D6A42A9B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="59">
   <si>
     <t>Data</t>
   </si>
@@ -207,6 +207,15 @@
   </si>
   <si>
     <t>Transporte</t>
+  </si>
+  <si>
+    <t>Reserva de Emergência</t>
+  </si>
+  <si>
+    <t>Reserva</t>
+  </si>
+  <si>
+    <t>Savings</t>
   </si>
 </sst>
 </file>
@@ -561,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2864,6 +2873,354 @@
         <v>1</v>
       </c>
       <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>45818</v>
+      </c>
+      <c r="B80" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80" s="4">
+        <v>500</v>
+      </c>
+      <c r="E80" t="s">
+        <v>58</v>
+      </c>
+      <c r="F80" t="s">
+        <v>34</v>
+      </c>
+      <c r="G80" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81" s="4">
+        <v>500</v>
+      </c>
+      <c r="E81" t="s">
+        <v>58</v>
+      </c>
+      <c r="F81" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>45879</v>
+      </c>
+      <c r="B82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82" s="4">
+        <v>500</v>
+      </c>
+      <c r="E82" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82" t="s">
+        <v>34</v>
+      </c>
+      <c r="G82" t="s">
+        <v>31</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>45910</v>
+      </c>
+      <c r="B83" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" t="s">
+        <v>57</v>
+      </c>
+      <c r="D83" s="4">
+        <v>500</v>
+      </c>
+      <c r="E83" t="s">
+        <v>58</v>
+      </c>
+      <c r="F83" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B84" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" t="s">
+        <v>57</v>
+      </c>
+      <c r="D84" s="4">
+        <v>500</v>
+      </c>
+      <c r="E84" t="s">
+        <v>58</v>
+      </c>
+      <c r="F84" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>45971</v>
+      </c>
+      <c r="B85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" t="s">
+        <v>57</v>
+      </c>
+      <c r="D85" s="4">
+        <v>500</v>
+      </c>
+      <c r="E85" t="s">
+        <v>58</v>
+      </c>
+      <c r="F85" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>46001</v>
+      </c>
+      <c r="B86" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86" s="4">
+        <v>500</v>
+      </c>
+      <c r="E86" t="s">
+        <v>58</v>
+      </c>
+      <c r="F86" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>46032</v>
+      </c>
+      <c r="B87" t="s">
+        <v>56</v>
+      </c>
+      <c r="C87" t="s">
+        <v>57</v>
+      </c>
+      <c r="D87" s="4">
+        <v>500</v>
+      </c>
+      <c r="E87" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>46063</v>
+      </c>
+      <c r="B88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88" t="s">
+        <v>57</v>
+      </c>
+      <c r="D88" s="4">
+        <v>500</v>
+      </c>
+      <c r="E88" t="s">
+        <v>58</v>
+      </c>
+      <c r="F88" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>46091</v>
+      </c>
+      <c r="B89" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" t="s">
+        <v>57</v>
+      </c>
+      <c r="D89" s="4">
+        <v>500</v>
+      </c>
+      <c r="E89" t="s">
+        <v>58</v>
+      </c>
+      <c r="F89" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>46122</v>
+      </c>
+      <c r="B90" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90" t="s">
+        <v>57</v>
+      </c>
+      <c r="D90" s="4">
+        <v>500</v>
+      </c>
+      <c r="E90" t="s">
+        <v>58</v>
+      </c>
+      <c r="F90" t="s">
+        <v>34</v>
+      </c>
+      <c r="G90" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>46152</v>
+      </c>
+      <c r="B91" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91" s="4">
+        <v>500</v>
+      </c>
+      <c r="E91" t="s">
+        <v>58</v>
+      </c>
+      <c r="F91" t="s">
+        <v>34</v>
+      </c>
+      <c r="G91" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
         <v>1</v>
       </c>
     </row>

--- a/fluxo_caixa.xlsx
+++ b/fluxo_caixa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandremoreira/Documents/py_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B84C02-6F4F-BC48-B969-42D6A42A9B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AEAD08-6D20-1E49-9D7B-6A8889C32985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="50060" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LANCAMENTOS" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="57">
   <si>
     <t>Data</t>
   </si>
@@ -170,9 +170,6 @@
     <t xml:space="preserve">n </t>
   </si>
   <si>
-    <t>Única</t>
-  </si>
-  <si>
     <t>Fatura C6</t>
   </si>
   <si>
@@ -209,13 +206,10 @@
     <t>Transporte</t>
   </si>
   <si>
-    <t>Reserva de Emergência</t>
-  </si>
-  <si>
-    <t>Reserva</t>
-  </si>
-  <si>
-    <t>Savings</t>
+    <t xml:space="preserve">Presente Mari </t>
+  </si>
+  <si>
+    <t>Aluguel Carro</t>
   </si>
 </sst>
 </file>
@@ -570,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2635,7 +2629,7 @@
         <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -2649,10 +2643,10 @@
         <v>45818</v>
       </c>
       <c r="B72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" t="s">
         <v>44</v>
-      </c>
-      <c r="C72" t="s">
-        <v>45</v>
       </c>
       <c r="D72" s="4">
         <v>746.6</v>
@@ -2664,7 +2658,7 @@
         <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -2678,10 +2672,10 @@
         <v>45812</v>
       </c>
       <c r="B73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" t="s">
         <v>46</v>
-      </c>
-      <c r="C73" t="s">
-        <v>47</v>
       </c>
       <c r="D73" s="4">
         <v>290</v>
@@ -2693,7 +2687,7 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -2707,10 +2701,10 @@
         <v>45812</v>
       </c>
       <c r="B74" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" t="s">
         <v>48</v>
-      </c>
-      <c r="C74" t="s">
-        <v>49</v>
       </c>
       <c r="D74" s="4">
         <v>179.81</v>
@@ -2722,7 +2716,7 @@
         <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -2736,10 +2730,10 @@
         <v>45826</v>
       </c>
       <c r="B75" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" t="s">
         <v>46</v>
-      </c>
-      <c r="C75" t="s">
-        <v>47</v>
       </c>
       <c r="D75" s="4">
         <v>500</v>
@@ -2765,10 +2759,10 @@
         <v>45826</v>
       </c>
       <c r="B76" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" t="s">
         <v>48</v>
-      </c>
-      <c r="C76" t="s">
-        <v>49</v>
       </c>
       <c r="D76" s="4">
         <v>179.81</v>
@@ -2780,7 +2774,7 @@
         <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -2794,10 +2788,10 @@
         <v>45813</v>
       </c>
       <c r="B77" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" t="s">
         <v>50</v>
-      </c>
-      <c r="C77" t="s">
-        <v>51</v>
       </c>
       <c r="D77" s="4">
         <v>20</v>
@@ -2809,7 +2803,7 @@
         <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -2823,10 +2817,10 @@
         <v>45814</v>
       </c>
       <c r="B78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" t="s">
         <v>52</v>
-      </c>
-      <c r="C78" t="s">
-        <v>53</v>
       </c>
       <c r="D78" s="4">
         <v>8.99</v>
@@ -2852,10 +2846,10 @@
         <v>45814</v>
       </c>
       <c r="B79" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79" t="s">
         <v>54</v>
-      </c>
-      <c r="C79" t="s">
-        <v>55</v>
       </c>
       <c r="D79" s="4">
         <v>6</v>
@@ -2881,16 +2875,16 @@
         <v>45818</v>
       </c>
       <c r="B80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C80" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D80" s="4">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E80" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="F80" t="s">
         <v>34</v>
@@ -2907,19 +2901,19 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>45848</v>
+        <v>45821</v>
       </c>
       <c r="B81" t="s">
         <v>56</v>
       </c>
       <c r="C81" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D81" s="4">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E81" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="F81" t="s">
         <v>34</v>
@@ -2931,296 +2925,6 @@
         <v>1</v>
       </c>
       <c r="I81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
-        <v>45879</v>
-      </c>
-      <c r="B82" t="s">
-        <v>56</v>
-      </c>
-      <c r="C82" t="s">
-        <v>57</v>
-      </c>
-      <c r="D82" s="4">
-        <v>500</v>
-      </c>
-      <c r="E82" t="s">
-        <v>58</v>
-      </c>
-      <c r="F82" t="s">
-        <v>34</v>
-      </c>
-      <c r="G82" t="s">
-        <v>31</v>
-      </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
-        <v>45910</v>
-      </c>
-      <c r="B83" t="s">
-        <v>56</v>
-      </c>
-      <c r="C83" t="s">
-        <v>57</v>
-      </c>
-      <c r="D83" s="4">
-        <v>500</v>
-      </c>
-      <c r="E83" t="s">
-        <v>58</v>
-      </c>
-      <c r="F83" t="s">
-        <v>34</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
-      </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
-        <v>45940</v>
-      </c>
-      <c r="B84" t="s">
-        <v>56</v>
-      </c>
-      <c r="C84" t="s">
-        <v>57</v>
-      </c>
-      <c r="D84" s="4">
-        <v>500</v>
-      </c>
-      <c r="E84" t="s">
-        <v>58</v>
-      </c>
-      <c r="F84" t="s">
-        <v>34</v>
-      </c>
-      <c r="G84" t="s">
-        <v>31</v>
-      </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
-        <v>45971</v>
-      </c>
-      <c r="B85" t="s">
-        <v>56</v>
-      </c>
-      <c r="C85" t="s">
-        <v>57</v>
-      </c>
-      <c r="D85" s="4">
-        <v>500</v>
-      </c>
-      <c r="E85" t="s">
-        <v>58</v>
-      </c>
-      <c r="F85" t="s">
-        <v>34</v>
-      </c>
-      <c r="G85" t="s">
-        <v>31</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
-        <v>46001</v>
-      </c>
-      <c r="B86" t="s">
-        <v>56</v>
-      </c>
-      <c r="C86" t="s">
-        <v>57</v>
-      </c>
-      <c r="D86" s="4">
-        <v>500</v>
-      </c>
-      <c r="E86" t="s">
-        <v>58</v>
-      </c>
-      <c r="F86" t="s">
-        <v>34</v>
-      </c>
-      <c r="G86" t="s">
-        <v>31</v>
-      </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
-        <v>46032</v>
-      </c>
-      <c r="B87" t="s">
-        <v>56</v>
-      </c>
-      <c r="C87" t="s">
-        <v>57</v>
-      </c>
-      <c r="D87" s="4">
-        <v>500</v>
-      </c>
-      <c r="E87" t="s">
-        <v>58</v>
-      </c>
-      <c r="F87" t="s">
-        <v>34</v>
-      </c>
-      <c r="G87" t="s">
-        <v>31</v>
-      </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
-        <v>46063</v>
-      </c>
-      <c r="B88" t="s">
-        <v>56</v>
-      </c>
-      <c r="C88" t="s">
-        <v>57</v>
-      </c>
-      <c r="D88" s="4">
-        <v>500</v>
-      </c>
-      <c r="E88" t="s">
-        <v>58</v>
-      </c>
-      <c r="F88" t="s">
-        <v>34</v>
-      </c>
-      <c r="G88" t="s">
-        <v>31</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
-        <v>46091</v>
-      </c>
-      <c r="B89" t="s">
-        <v>56</v>
-      </c>
-      <c r="C89" t="s">
-        <v>57</v>
-      </c>
-      <c r="D89" s="4">
-        <v>500</v>
-      </c>
-      <c r="E89" t="s">
-        <v>58</v>
-      </c>
-      <c r="F89" t="s">
-        <v>34</v>
-      </c>
-      <c r="G89" t="s">
-        <v>31</v>
-      </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
-        <v>46122</v>
-      </c>
-      <c r="B90" t="s">
-        <v>56</v>
-      </c>
-      <c r="C90" t="s">
-        <v>57</v>
-      </c>
-      <c r="D90" s="4">
-        <v>500</v>
-      </c>
-      <c r="E90" t="s">
-        <v>58</v>
-      </c>
-      <c r="F90" t="s">
-        <v>34</v>
-      </c>
-      <c r="G90" t="s">
-        <v>31</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
-        <v>46152</v>
-      </c>
-      <c r="B91" t="s">
-        <v>56</v>
-      </c>
-      <c r="C91" t="s">
-        <v>57</v>
-      </c>
-      <c r="D91" s="4">
-        <v>500</v>
-      </c>
-      <c r="E91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F91" t="s">
-        <v>34</v>
-      </c>
-      <c r="G91" t="s">
-        <v>31</v>
-      </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
-      <c r="I91">
         <v>1</v>
       </c>
     </row>
@@ -3278,8 +2982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="143" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3311,20 +3015,20 @@
         <v>45838</v>
       </c>
       <c r="B2" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$999="Income")*(LANCAMENTOS!$D$2:$D$999))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
         <v>6890.25</v>
       </c>
       <c r="C2" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$999="Expense")*(LANCAMENTOS!$D$2:$D$999))</f>
-        <v>4420.8100000000004</v>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <v>5020.8100000000004</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D13" si="0">B2-C2</f>
-        <v>2469.4399999999996</v>
+        <v>1869.4399999999996</v>
       </c>
       <c r="E2" s="4">
         <f>PARAMS!$B$1+D2</f>
-        <v>2469.4399999999996</v>
+        <v>1869.4399999999996</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3333,11 +3037,11 @@
         <v>45869</v>
       </c>
       <c r="B3" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$999="Income")*(LANCAMENTOS!$D$2:$D$999))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
         <v>6100.25</v>
       </c>
       <c r="C3" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$999="Expense")*(LANCAMENTOS!$D$2:$D$999))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
         <v>3159.6</v>
       </c>
       <c r="D3" s="4">
@@ -3346,7 +3050,7 @@
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E13" si="1">E2+D3</f>
-        <v>5410.09</v>
+        <v>4810.09</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3355,11 +3059,11 @@
         <v>45900</v>
       </c>
       <c r="B4" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$999="Income")*(LANCAMENTOS!$D$2:$D$999))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
         <v>6100.25</v>
       </c>
       <c r="C4" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$999="Expense")*(LANCAMENTOS!$D$2:$D$999))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
         <v>5637.6</v>
       </c>
       <c r="D4" s="4">
@@ -3368,7 +3072,7 @@
       </c>
       <c r="E4" s="4">
         <f t="shared" si="1"/>
-        <v>5872.74</v>
+        <v>5272.74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3377,11 +3081,11 @@
         <v>45930</v>
       </c>
       <c r="B5" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$999="Income")*(LANCAMENTOS!$D$2:$D$999))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
         <v>6100.25</v>
       </c>
       <c r="C5" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$999="Expense")*(LANCAMENTOS!$D$2:$D$999))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
         <v>2409.6</v>
       </c>
       <c r="D5" s="4">
@@ -3390,7 +3094,7 @@
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>9563.39</v>
+        <v>8963.39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3399,11 +3103,11 @@
         <v>45961</v>
       </c>
       <c r="B6" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A6,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A6,0))*(LANCAMENTOS!$E$2:$E$999="Income")*(LANCAMENTOS!$D$2:$D$999))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A6,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A6,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
         <v>6100.25</v>
       </c>
       <c r="C6" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A6,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A6,0))*(LANCAMENTOS!$E$2:$E$999="Expense")*(LANCAMENTOS!$D$2:$D$999))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A6,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A6,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
         <v>2409.6</v>
       </c>
       <c r="D6" s="4">
@@ -3412,7 +3116,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>13254.039999999999</v>
+        <v>12654.039999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3421,11 +3125,11 @@
         <v>45991</v>
       </c>
       <c r="B7" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A7,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A7,0))*(LANCAMENTOS!$E$2:$E$999="Income")*(LANCAMENTOS!$D$2:$D$999))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A7,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A7,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
         <v>6100.25</v>
       </c>
       <c r="C7" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A7,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A7,0))*(LANCAMENTOS!$E$2:$E$999="Expense")*(LANCAMENTOS!$D$2:$D$999))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A7,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A7,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
         <v>2409.6</v>
       </c>
       <c r="D7" s="4">
@@ -3434,7 +3138,7 @@
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>16944.689999999999</v>
+        <v>16344.689999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3443,11 +3147,11 @@
         <v>46022</v>
       </c>
       <c r="B8" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A8,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A8,0))*(LANCAMENTOS!$E$2:$E$999="Income")*(LANCAMENTOS!$D$2:$D$999))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A8,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A8,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
         <v>6100.25</v>
       </c>
       <c r="C8" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A8,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A8,0))*(LANCAMENTOS!$E$2:$E$999="Expense")*(LANCAMENTOS!$D$2:$D$999))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A8,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A8,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
         <v>2260</v>
       </c>
       <c r="D8" s="4">
@@ -3456,7 +3160,7 @@
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>20784.939999999999</v>
+        <v>20184.939999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3465,11 +3169,11 @@
         <v>46053</v>
       </c>
       <c r="B9" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A9,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A9,0))*(LANCAMENTOS!$E$2:$E$999="Income")*(LANCAMENTOS!$D$2:$D$999))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A9,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A9,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
         <v>6100.25</v>
       </c>
       <c r="C9" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A9,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A9,0))*(LANCAMENTOS!$E$2:$E$999="Expense")*(LANCAMENTOS!$D$2:$D$999))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A9,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A9,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
         <v>2260</v>
       </c>
       <c r="D9" s="4">
@@ -3478,7 +3182,7 @@
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>24625.19</v>
+        <v>24025.19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3487,11 +3191,11 @@
         <v>46081</v>
       </c>
       <c r="B10" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A10,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A10,0))*(LANCAMENTOS!$E$2:$E$999="Income")*(LANCAMENTOS!$D$2:$D$999))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A10,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A10,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
         <v>6100.25</v>
       </c>
       <c r="C10" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A10,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A10,0))*(LANCAMENTOS!$E$2:$E$999="Expense")*(LANCAMENTOS!$D$2:$D$999))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A10,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A10,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
         <v>2260</v>
       </c>
       <c r="D10" s="4">
@@ -3500,7 +3204,7 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>28465.439999999999</v>
+        <v>27865.439999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3509,11 +3213,11 @@
         <v>46112</v>
       </c>
       <c r="B11" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A11,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A11,0))*(LANCAMENTOS!$E$2:$E$999="Income")*(LANCAMENTOS!$D$2:$D$999))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A11,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A11,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
         <v>6100.25</v>
       </c>
       <c r="C11" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A11,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A11,0))*(LANCAMENTOS!$E$2:$E$999="Expense")*(LANCAMENTOS!$D$2:$D$999))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A11,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A11,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
         <v>2260</v>
       </c>
       <c r="D11" s="4">
@@ -3522,7 +3226,7 @@
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>32305.69</v>
+        <v>31705.69</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3531,11 +3235,11 @@
         <v>46142</v>
       </c>
       <c r="B12" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A12,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A12,0))*(LANCAMENTOS!$E$2:$E$999="Income")*(LANCAMENTOS!$D$2:$D$999))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A12,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A12,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
         <v>6100.25</v>
       </c>
       <c r="C12" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A12,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A12,0))*(LANCAMENTOS!$E$2:$E$999="Expense")*(LANCAMENTOS!$D$2:$D$999))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A12,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A12,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
         <v>2260</v>
       </c>
       <c r="D12" s="4">
@@ -3544,7 +3248,7 @@
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>36145.94</v>
+        <v>35545.94</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3553,11 +3257,11 @@
         <v>46173</v>
       </c>
       <c r="B13" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A13,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A13,0))*(LANCAMENTOS!$E$2:$E$999="Income")*(LANCAMENTOS!$D$2:$D$999))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A13,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A13,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
         <v>6100.25</v>
       </c>
       <c r="C13" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$999&gt;=EOMONTH($A13,-1)+1)*(LANCAMENTOS!$A$2:$A$999&lt;=EOMONTH($A13,0))*(LANCAMENTOS!$E$2:$E$999="Expense")*(LANCAMENTOS!$D$2:$D$999))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A13,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A13,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
         <v>2260</v>
       </c>
       <c r="D13" s="4">
@@ -3566,7 +3270,7 @@
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>39986.19</v>
+        <v>39386.19</v>
       </c>
     </row>
   </sheetData>

--- a/fluxo_caixa.xlsx
+++ b/fluxo_caixa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandremoreira/Documents/py_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AEAD08-6D20-1E49-9D7B-6A8889C32985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F982CE-0913-1549-99FB-B7A92D824EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="50060" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LANCAMENTOS" sheetId="2" r:id="rId1"/>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1315,7 +1315,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="4">
-        <v>6100.25</v>
+        <v>6569.5</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
@@ -1344,7 +1344,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="4">
-        <v>6100.25</v>
+        <v>6569.5</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
@@ -1373,7 +1373,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="4">
-        <v>6100.25</v>
+        <v>6569.5</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="4">
-        <v>6100.25</v>
+        <v>6569.5</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
@@ -1431,7 +1431,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="4">
-        <v>6100.25</v>
+        <v>6569.5</v>
       </c>
       <c r="E30" t="s">
         <v>26</v>
@@ -1460,7 +1460,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="4">
-        <v>6100.25</v>
+        <v>6569.5</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
@@ -1489,7 +1489,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="4">
-        <v>6100.25</v>
+        <v>6569.5</v>
       </c>
       <c r="E32" t="s">
         <v>26</v>
@@ -1518,7 +1518,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="4">
-        <v>6100.25</v>
+        <v>6569.5</v>
       </c>
       <c r="E33" t="s">
         <v>26</v>
@@ -1547,7 +1547,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="4">
-        <v>6100.25</v>
+        <v>6569.5</v>
       </c>
       <c r="E34" t="s">
         <v>26</v>
@@ -1576,7 +1576,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="4">
-        <v>6100.25</v>
+        <v>6569.5</v>
       </c>
       <c r="E35" t="s">
         <v>26</v>
@@ -1605,7 +1605,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="4">
-        <v>6100.25</v>
+        <v>6569.5</v>
       </c>
       <c r="E36" t="s">
         <v>26</v>
@@ -1634,7 +1634,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="4">
-        <v>6100.25</v>
+        <v>6569.5</v>
       </c>
       <c r="E37" t="s">
         <v>26</v>
@@ -2982,7 +2982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="143" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
-        <v>6890.25</v>
+        <v>7359.5</v>
       </c>
       <c r="C2" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
@@ -3024,11 +3024,11 @@
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D13" si="0">B2-C2</f>
-        <v>1869.4399999999996</v>
+        <v>2338.6899999999996</v>
       </c>
       <c r="E2" s="4">
         <f>PARAMS!$B$1+D2</f>
-        <v>1869.4399999999996</v>
+        <v>2338.6899999999996</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="B3" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
-        <v>6100.25</v>
+        <v>6569.5</v>
       </c>
       <c r="C3" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
@@ -3046,11 +3046,11 @@
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>2940.65</v>
+        <v>3409.9</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E13" si="1">E2+D3</f>
-        <v>4810.09</v>
+        <v>5748.59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B4" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
-        <v>6100.25</v>
+        <v>6569.5</v>
       </c>
       <c r="C4" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
@@ -3068,11 +3068,11 @@
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>462.64999999999964</v>
+        <v>931.89999999999964</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="1"/>
-        <v>5272.74</v>
+        <v>6680.49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="B5" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
-        <v>6100.25</v>
+        <v>6569.5</v>
       </c>
       <c r="C5" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
@@ -3090,11 +3090,11 @@
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>3690.65</v>
+        <v>4159.8999999999996</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>8963.39</v>
+        <v>10840.39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="B6" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A6,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A6,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
-        <v>6100.25</v>
+        <v>6569.5</v>
       </c>
       <c r="C6" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A6,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A6,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
@@ -3112,11 +3112,11 @@
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>3690.65</v>
+        <v>4159.8999999999996</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>12654.039999999999</v>
+        <v>15000.289999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A7,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A7,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
-        <v>6100.25</v>
+        <v>6569.5</v>
       </c>
       <c r="C7" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A7,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A7,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
@@ -3134,11 +3134,11 @@
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>3690.65</v>
+        <v>4159.8999999999996</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>16344.689999999999</v>
+        <v>19160.189999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="B8" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A8,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A8,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
-        <v>6100.25</v>
+        <v>6569.5</v>
       </c>
       <c r="C8" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A8,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A8,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
@@ -3156,11 +3156,11 @@
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>3840.25</v>
+        <v>4309.5</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>20184.939999999999</v>
+        <v>23469.69</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="B9" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A9,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A9,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
-        <v>6100.25</v>
+        <v>6569.5</v>
       </c>
       <c r="C9" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A9,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A9,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
@@ -3178,11 +3178,11 @@
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>3840.25</v>
+        <v>4309.5</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>24025.19</v>
+        <v>27779.19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="B10" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A10,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A10,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
-        <v>6100.25</v>
+        <v>6569.5</v>
       </c>
       <c r="C10" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A10,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A10,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
@@ -3200,11 +3200,11 @@
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>3840.25</v>
+        <v>4309.5</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>27865.439999999999</v>
+        <v>32088.69</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="B11" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A11,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A11,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
-        <v>6100.25</v>
+        <v>6569.5</v>
       </c>
       <c r="C11" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A11,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A11,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
@@ -3222,11 +3222,11 @@
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>3840.25</v>
+        <v>4309.5</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>31705.69</v>
+        <v>36398.19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="B12" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A12,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A12,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
-        <v>6100.25</v>
+        <v>6569.5</v>
       </c>
       <c r="C12" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A12,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A12,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
@@ -3244,11 +3244,11 @@
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>3840.25</v>
+        <v>4309.5</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>35545.94</v>
+        <v>40707.69</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3258,7 +3258,7 @@
       </c>
       <c r="B13" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A13,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A13,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
-        <v>6100.25</v>
+        <v>6569.5</v>
       </c>
       <c r="C13" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A13,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A13,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
@@ -3266,11 +3266,11 @@
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>3840.25</v>
+        <v>4309.5</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>39386.19</v>
+        <v>45017.19</v>
       </c>
     </row>
   </sheetData>

--- a/fluxo_caixa.xlsx
+++ b/fluxo_caixa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandremoreira/Documents/py_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F982CE-0913-1549-99FB-B7A92D824EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31217A00-7DC8-5F4C-A27B-FF92FD8F70C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/fluxo_caixa.xlsx
+++ b/fluxo_caixa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandremoreira/Documents/py_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31217A00-7DC8-5F4C-A27B-FF92FD8F70C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77126AE-A398-1549-8E52-6F86C1DBEF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="SUMMARY" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANCAMENTOS!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANCAMENTOS!$A$1:$I$83</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="61">
   <si>
     <t>Data</t>
   </si>
@@ -210,6 +210,18 @@
   </si>
   <si>
     <t>Aluguel Carro</t>
+  </si>
+  <si>
+    <t>Faculdade Mari</t>
+  </si>
+  <si>
+    <t>Devolução</t>
+  </si>
+  <si>
+    <t>Reembolso Faculdade</t>
+  </si>
+  <si>
+    <t>Reembolso</t>
   </si>
 </sst>
 </file>
@@ -219,7 +231,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +244,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -254,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -262,6 +281,9 @@
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="40" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -609,31 +631,31 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>45818</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="4">
-        <v>270</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>12</v>
-      </c>
-      <c r="I2">
+      <c r="A2" s="7">
+        <v>45812</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="9">
+        <v>290</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
         <v>1</v>
       </c>
     </row>
@@ -957,31 +979,31 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>45826</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1800</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14">
-        <v>12</v>
-      </c>
-      <c r="I14">
+      <c r="A14" s="7">
+        <v>45812</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="9">
+        <v>179.81</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1305,31 +1327,31 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>45818</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="4">
-        <v>6569.5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26">
-        <v>12</v>
-      </c>
-      <c r="I26">
+      <c r="A26" s="7">
+        <v>45813</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="9">
+        <v>20</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1</v>
+      </c>
+      <c r="I26" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1653,31 +1675,31 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="A38" s="7">
         <v>45814</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="9">
         <v>55</v>
       </c>
-      <c r="E38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38">
-        <v>12</v>
-      </c>
-      <c r="I38">
+      <c r="E38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="8">
+        <v>12</v>
+      </c>
+      <c r="I38" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2001,31 +2023,31 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>45818</v>
-      </c>
-      <c r="B50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="4">
-        <v>135</v>
-      </c>
-      <c r="E50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50">
-        <v>12</v>
-      </c>
-      <c r="I50">
+      <c r="A50" s="7">
+        <v>45814</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="9">
+        <v>8.99</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="8">
+        <v>1</v>
+      </c>
+      <c r="I50" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2349,31 +2371,31 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>45821</v>
-      </c>
-      <c r="B62" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="4">
-        <v>600</v>
-      </c>
-      <c r="E62" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="A62" s="7">
+        <v>45814</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="9">
+        <v>6</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62">
+      <c r="H62" s="8">
+        <v>1</v>
+      </c>
+      <c r="I62" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2436,31 +2458,31 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
+      <c r="A65" s="7">
         <v>45818</v>
       </c>
-      <c r="B65" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" s="4">
-        <v>149.6</v>
-      </c>
-      <c r="E65" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" t="s">
-        <v>34</v>
-      </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65">
-        <v>6</v>
-      </c>
-      <c r="I65">
+      <c r="B65" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="9">
+        <v>270</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="8">
+        <v>12</v>
+      </c>
+      <c r="I65" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2610,162 +2632,162 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
+      <c r="A71" s="7">
         <v>45818</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="9">
+        <v>6569.5</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="8">
+        <v>12</v>
+      </c>
+      <c r="I71" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="7">
+        <v>45818</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="9">
+        <v>277.33999999999997</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="8">
+        <v>12</v>
+      </c>
+      <c r="I72" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="7">
+        <v>45818</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="9">
+        <v>149.6</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="8">
+        <v>6</v>
+      </c>
+      <c r="I73" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="7">
+        <v>45818</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C74" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D74" s="9">
         <v>270</v>
       </c>
-      <c r="E71" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="E74" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G74" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
+      <c r="H74" s="8">
+        <v>1</v>
+      </c>
+      <c r="I74" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="7">
         <v>45818</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B75" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C75" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D72" s="4">
-        <v>746.6</v>
-      </c>
-      <c r="E72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="D75" s="9">
+        <v>735.01</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G75" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
-        <v>45812</v>
-      </c>
-      <c r="B73" t="s">
-        <v>45</v>
-      </c>
-      <c r="C73" t="s">
-        <v>46</v>
-      </c>
-      <c r="D73" s="4">
-        <v>290</v>
-      </c>
-      <c r="E73" t="s">
-        <v>26</v>
-      </c>
-      <c r="F73" t="s">
-        <v>34</v>
-      </c>
-      <c r="G73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
-        <v>45812</v>
-      </c>
-      <c r="B74" t="s">
-        <v>47</v>
-      </c>
-      <c r="C74" t="s">
-        <v>48</v>
-      </c>
-      <c r="D74" s="4">
-        <v>179.81</v>
-      </c>
-      <c r="E74" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" t="s">
-        <v>34</v>
-      </c>
-      <c r="G74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
-        <v>45826</v>
-      </c>
-      <c r="B75" t="s">
-        <v>45</v>
-      </c>
-      <c r="C75" t="s">
-        <v>46</v>
-      </c>
-      <c r="D75" s="4">
-        <v>500</v>
-      </c>
-      <c r="E75" t="s">
-        <v>26</v>
-      </c>
-      <c r="F75" t="s">
-        <v>34</v>
-      </c>
-      <c r="G75" t="s">
-        <v>31</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75">
+      <c r="H75" s="8">
+        <v>1</v>
+      </c>
+      <c r="I75" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>45826</v>
+        <v>45818</v>
       </c>
       <c r="B76" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D76" s="4">
-        <v>179.81</v>
+        <v>279</v>
       </c>
       <c r="E76" t="s">
         <v>19</v>
@@ -2785,16 +2807,16 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>45813</v>
+        <v>45821</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D77" s="4">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="E77" t="s">
         <v>19</v>
@@ -2814,16 +2836,16 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="B78" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C78" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D78" s="4">
-        <v>8.99</v>
+        <v>200</v>
       </c>
       <c r="E78" t="s">
         <v>19</v>
@@ -2843,28 +2865,28 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>45814</v>
+        <v>45826</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C79" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D79" s="4">
-        <v>6</v>
+        <v>1800</v>
       </c>
       <c r="E79" t="s">
         <v>19</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -2872,19 +2894,19 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>45818</v>
+        <v>45826</v>
       </c>
       <c r="B80" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C80" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D80" s="4">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E80" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F80" t="s">
         <v>34</v>
@@ -2901,16 +2923,16 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>45821</v>
+        <v>45826</v>
       </c>
       <c r="B81" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C81" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D81" s="4">
-        <v>200</v>
+        <v>179.81</v>
       </c>
       <c r="E81" t="s">
         <v>19</v>
@@ -2928,8 +2950,66 @@
         <v>1</v>
       </c>
     </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="7">
+        <v>45818</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82" s="9">
+        <v>813.65</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H82" s="8">
+        <v>1</v>
+      </c>
+      <c r="I82" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>45821</v>
+      </c>
+      <c r="B83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" s="4">
+        <v>240</v>
+      </c>
+      <c r="E83" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:I83" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3016,19 +3096,19 @@
       </c>
       <c r="B2" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
-        <v>7359.5</v>
+        <v>7599.5</v>
       </c>
       <c r="C2" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
-        <v>5020.8100000000004</v>
+        <v>5844.21</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D13" si="0">B2-C2</f>
-        <v>2338.6899999999996</v>
+        <v>1755.29</v>
       </c>
       <c r="E2" s="4">
         <f>PARAMS!$B$1+D2</f>
-        <v>2338.6899999999996</v>
+        <v>1755.29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3050,7 +3130,7 @@
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E13" si="1">E2+D3</f>
-        <v>5748.59</v>
+        <v>5165.1900000000005</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3072,7 +3152,7 @@
       </c>
       <c r="E4" s="4">
         <f t="shared" si="1"/>
-        <v>6680.49</v>
+        <v>6097.09</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3094,7 +3174,7 @@
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>10840.39</v>
+        <v>10256.99</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3116,7 +3196,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>15000.289999999999</v>
+        <v>14416.89</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3138,7 +3218,7 @@
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>19160.189999999999</v>
+        <v>18576.79</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3160,7 +3240,7 @@
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>23469.69</v>
+        <v>22886.29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3182,7 +3262,7 @@
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>27779.19</v>
+        <v>27195.79</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3204,7 +3284,7 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>32088.69</v>
+        <v>31505.29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3226,7 +3306,7 @@
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>36398.19</v>
+        <v>35814.79</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3248,7 +3328,7 @@
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>40707.69</v>
+        <v>40124.29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3270,7 +3350,7 @@
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>45017.19</v>
+        <v>44433.79</v>
       </c>
     </row>
   </sheetData>

--- a/fluxo_caixa.xlsx
+++ b/fluxo_caixa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandremoreira/Documents/py_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77126AE-A398-1549-8E52-6F86C1DBEF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12E1E17-329A-4441-81AE-19B809303819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="64">
   <si>
     <t>Data</t>
   </si>
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t>Reembolso</t>
+  </si>
+  <si>
+    <t>Secagem Roupas</t>
+  </si>
+  <si>
+    <t>Serviços</t>
+  </si>
+  <si>
+    <t>Acessórios Deacthlon</t>
   </si>
 </sst>
 </file>
@@ -586,10 +595,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I83"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -659,7 +669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45848</v>
       </c>
@@ -688,7 +698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45879</v>
       </c>
@@ -717,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45910</v>
       </c>
@@ -746,7 +756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45940</v>
       </c>
@@ -775,7 +785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45971</v>
       </c>
@@ -804,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>46001</v>
       </c>
@@ -833,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>46032</v>
       </c>
@@ -862,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>46063</v>
       </c>
@@ -891,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>46091</v>
       </c>
@@ -920,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>46122</v>
       </c>
@@ -949,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>46152</v>
       </c>
@@ -1007,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45856</v>
       </c>
@@ -1036,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45887</v>
       </c>
@@ -1065,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45918</v>
       </c>
@@ -1094,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45948</v>
       </c>
@@ -1123,7 +1133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45979</v>
       </c>
@@ -1152,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>46009</v>
       </c>
@@ -1181,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>46040</v>
       </c>
@@ -1210,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>46071</v>
       </c>
@@ -1239,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>46099</v>
       </c>
@@ -1268,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>46130</v>
       </c>
@@ -1297,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>46160</v>
       </c>
@@ -1355,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>45848</v>
       </c>
@@ -1384,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>45879</v>
       </c>
@@ -1413,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>45910</v>
       </c>
@@ -1442,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>45940</v>
       </c>
@@ -1471,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>45971</v>
       </c>
@@ -1500,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>46001</v>
       </c>
@@ -1529,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>46032</v>
       </c>
@@ -1558,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>46063</v>
       </c>
@@ -1587,7 +1597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>46091</v>
       </c>
@@ -1616,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>46122</v>
       </c>
@@ -1645,7 +1655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>46152</v>
       </c>
@@ -1703,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>45848</v>
       </c>
@@ -1732,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>45879</v>
       </c>
@@ -1761,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>45910</v>
       </c>
@@ -1790,7 +1800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>45940</v>
       </c>
@@ -1819,7 +1829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>45971</v>
       </c>
@@ -1848,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>46001</v>
       </c>
@@ -1877,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>46032</v>
       </c>
@@ -1906,7 +1916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>46063</v>
       </c>
@@ -1935,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46091</v>
       </c>
@@ -1964,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>46122</v>
       </c>
@@ -1993,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>46152</v>
       </c>
@@ -2051,7 +2061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>45848</v>
       </c>
@@ -2080,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>45879</v>
       </c>
@@ -2109,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>45910</v>
       </c>
@@ -2138,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>45940</v>
       </c>
@@ -2167,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>45971</v>
       </c>
@@ -2196,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>46001</v>
       </c>
@@ -2225,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>46032</v>
       </c>
@@ -2254,7 +2264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>46063</v>
       </c>
@@ -2283,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>46091</v>
       </c>
@@ -2312,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>46122</v>
       </c>
@@ -2341,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>46152</v>
       </c>
@@ -2399,7 +2409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>45882</v>
       </c>
@@ -2428,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>45848</v>
       </c>
@@ -2486,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>45848</v>
       </c>
@@ -2515,7 +2525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>45879</v>
       </c>
@@ -2544,7 +2554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>45910</v>
       </c>
@@ -2573,7 +2583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>45940</v>
       </c>
@@ -2602,7 +2612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>45971</v>
       </c>
@@ -2865,7 +2875,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>45826</v>
+        <v>45818</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
@@ -2874,7 +2884,7 @@
         <v>23</v>
       </c>
       <c r="D79" s="4">
-        <v>1800</v>
+        <v>1910</v>
       </c>
       <c r="E79" t="s">
         <v>19</v>
@@ -3008,8 +3018,72 @@
         <v>1</v>
       </c>
     </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>45818</v>
+      </c>
+      <c r="B84" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84" t="s">
+        <v>62</v>
+      </c>
+      <c r="D84" s="4">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="E84" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>45818</v>
+      </c>
+      <c r="B85" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85" s="4">
+        <v>119.98</v>
+      </c>
+      <c r="E85" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I83" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:I83" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2025" month="6" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3100,15 +3174,15 @@
       </c>
       <c r="C2" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
-        <v>5844.21</v>
+        <v>6113.99</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D13" si="0">B2-C2</f>
-        <v>1755.29</v>
+        <v>1485.5100000000002</v>
       </c>
       <c r="E2" s="4">
         <f>PARAMS!$B$1+D2</f>
-        <v>1755.29</v>
+        <v>1485.5100000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3130,7 +3204,7 @@
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E13" si="1">E2+D3</f>
-        <v>5165.1900000000005</v>
+        <v>4895.41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3152,7 +3226,7 @@
       </c>
       <c r="E4" s="4">
         <f t="shared" si="1"/>
-        <v>6097.09</v>
+        <v>5827.3099999999995</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3174,7 +3248,7 @@
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>10256.99</v>
+        <v>9987.2099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3196,7 +3270,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>14416.89</v>
+        <v>14147.109999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3218,7 +3292,7 @@
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>18576.79</v>
+        <v>18307.009999999998</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3240,7 +3314,7 @@
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>22886.29</v>
+        <v>22616.51</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3262,7 +3336,7 @@
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>27195.79</v>
+        <v>26926.01</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3284,7 +3358,7 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>31505.29</v>
+        <v>31235.51</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3306,7 +3380,7 @@
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>35814.79</v>
+        <v>35545.009999999995</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3328,7 +3402,7 @@
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>40124.29</v>
+        <v>39854.509999999995</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3350,7 +3424,7 @@
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>44433.79</v>
+        <v>44164.009999999995</v>
       </c>
     </row>
   </sheetData>

--- a/fluxo_caixa.xlsx
+++ b/fluxo_caixa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandremoreira/Documents/py_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12E1E17-329A-4441-81AE-19B809303819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5920C7A3-426F-4A40-8011-3C9F9D877AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,10 +18,9 @@
     <sheet name="SUMMARY" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANCAMENTOS!$A$1:$I$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANCAMENTOS!$A$1:$I$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="74">
   <si>
     <t>Data</t>
   </si>
@@ -209,9 +208,6 @@
     <t xml:space="preserve">Presente Mari </t>
   </si>
   <si>
-    <t>Aluguel Carro</t>
-  </si>
-  <si>
     <t>Faculdade Mari</t>
   </si>
   <si>
@@ -231,6 +227,39 @@
   </si>
   <si>
     <t>Acessórios Deacthlon</t>
+  </si>
+  <si>
+    <t>Gasolina Celta</t>
+  </si>
+  <si>
+    <t>Pix 99</t>
+  </si>
+  <si>
+    <t>Cartão Mãe</t>
+  </si>
+  <si>
+    <t>Convênio</t>
+  </si>
+  <si>
+    <t>Sáude</t>
+  </si>
+  <si>
+    <t>Flores Mari</t>
+  </si>
+  <si>
+    <t>The Coffee</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t>Estacionamento</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>Vinho Ifood</t>
   </si>
 </sst>
 </file>
@@ -596,10 +625,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2787,191 +2816,191 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
+      <c r="A76" s="7">
         <v>45818</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="9">
         <v>279</v>
       </c>
-      <c r="E76" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="E76" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-      <c r="I76">
+      <c r="H76" s="8">
+        <v>1</v>
+      </c>
+      <c r="I76" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
-        <v>45821</v>
-      </c>
-      <c r="B77" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D77" s="4">
-        <v>600</v>
-      </c>
-      <c r="E77" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="A77" s="7">
+        <v>45818</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="9">
+        <v>1910</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="8">
+        <v>12</v>
+      </c>
+      <c r="I77" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="7">
+        <v>45818</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78" s="9">
+        <v>813.65</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G78" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
-        <v>45821</v>
-      </c>
-      <c r="B78" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="H78" s="8">
+        <v>1</v>
+      </c>
+      <c r="I78" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="7">
+        <v>45818</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" s="9">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H79" s="8">
+        <v>1</v>
+      </c>
+      <c r="I79" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="7">
+        <v>45818</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D80" s="9">
+        <v>119.98</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" s="8">
+        <v>1</v>
+      </c>
+      <c r="I80" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="7">
+        <v>45818</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D78" s="4">
-        <v>200</v>
-      </c>
-      <c r="E78" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="D81" s="9">
+        <v>50</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G81" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
-        <v>45818</v>
-      </c>
-      <c r="B79" t="s">
-        <v>22</v>
-      </c>
-      <c r="C79" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" s="4">
-        <v>1910</v>
-      </c>
-      <c r="E79" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79">
-        <v>12</v>
-      </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
-        <v>45826</v>
-      </c>
-      <c r="B80" t="s">
-        <v>45</v>
-      </c>
-      <c r="C80" t="s">
-        <v>46</v>
-      </c>
-      <c r="D80" s="4">
-        <v>500</v>
-      </c>
-      <c r="E80" t="s">
-        <v>26</v>
-      </c>
-      <c r="F80" t="s">
-        <v>34</v>
-      </c>
-      <c r="G80" t="s">
-        <v>31</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
-        <v>45826</v>
-      </c>
-      <c r="B81" t="s">
-        <v>47</v>
-      </c>
-      <c r="C81" t="s">
-        <v>48</v>
-      </c>
-      <c r="D81" s="4">
-        <v>179.81</v>
-      </c>
-      <c r="E81" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" t="s">
-        <v>34</v>
-      </c>
-      <c r="G81" t="s">
-        <v>31</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-      <c r="I81">
+      <c r="H81" s="8">
+        <v>1</v>
+      </c>
+      <c r="I81" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D82" s="9">
-        <v>813.65</v>
+        <v>5</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>19</v>
@@ -2990,99 +3019,421 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
+      <c r="A83" s="7">
+        <v>45819</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D83" s="9">
+        <v>165</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" s="8">
+        <v>1</v>
+      </c>
+      <c r="I83" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="7">
+        <v>45819</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D84" s="9">
+        <v>185</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" s="8">
+        <v>1</v>
+      </c>
+      <c r="I84" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="7">
+        <v>45820</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85" s="9">
+        <v>65</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" s="8">
+        <v>1</v>
+      </c>
+      <c r="I85" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="7">
+        <v>45820</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D86" s="9">
+        <v>19.8</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" s="8">
+        <v>1</v>
+      </c>
+      <c r="I86" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="7">
         <v>45821</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B87" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" s="9">
+        <v>561.79</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" s="8">
+        <v>1</v>
+      </c>
+      <c r="I87" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="7">
+        <v>45821</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C83" t="s">
-        <v>60</v>
-      </c>
-      <c r="D83" s="4">
+      <c r="D88" s="9">
         <v>240</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E88" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F88" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G88" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
-        <v>45818</v>
-      </c>
-      <c r="B84" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84" t="s">
-        <v>62</v>
-      </c>
-      <c r="D84" s="4">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="E84" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="H88" s="8">
+        <v>1</v>
+      </c>
+      <c r="I88" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="7">
+        <v>45821</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" s="9">
+        <v>10</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G89" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
-        <v>45818</v>
-      </c>
-      <c r="B85" t="s">
-        <v>63</v>
-      </c>
-      <c r="C85" t="s">
-        <v>38</v>
-      </c>
-      <c r="D85" s="4">
-        <v>119.98</v>
-      </c>
-      <c r="E85" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="H89" s="8">
+        <v>1</v>
+      </c>
+      <c r="I89" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="7">
+        <v>45821</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" s="9">
+        <v>109.28</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G90" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="I85">
+      <c r="H90" s="8">
+        <v>1</v>
+      </c>
+      <c r="I90" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="7">
+        <v>45821</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" s="9">
+        <v>66.28</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" s="8">
+        <v>1</v>
+      </c>
+      <c r="I91" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="7">
+        <v>45821</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="9">
+        <v>110.99</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" s="8">
+        <v>1</v>
+      </c>
+      <c r="I92" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="7">
+        <v>45822</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D93" s="9">
+        <v>15.98</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H93" s="8">
+        <v>1</v>
+      </c>
+      <c r="I93" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="7">
+        <v>45822</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D94" s="9">
+        <v>18.98</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" s="8">
+        <v>1</v>
+      </c>
+      <c r="I94" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>45826</v>
+      </c>
+      <c r="B95" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" t="s">
+        <v>46</v>
+      </c>
+      <c r="D95" s="4">
+        <v>500</v>
+      </c>
+      <c r="E95" t="s">
+        <v>26</v>
+      </c>
+      <c r="F95" t="s">
+        <v>34</v>
+      </c>
+      <c r="G95" t="s">
+        <v>31</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>45826</v>
+      </c>
+      <c r="B96" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96" s="4">
+        <v>179.81</v>
+      </c>
+      <c r="E96" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96" t="s">
+        <v>31</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I83" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <autoFilter ref="A1:I96" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2025" month="6" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I96">
+      <sortCondition ref="A1:A96"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3137,7 +3488,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="143" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3169,20 +3520,20 @@
         <v>45838</v>
       </c>
       <c r="B2" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
         <v>7599.5</v>
       </c>
       <c r="C2" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
-        <v>6113.99</v>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
+        <v>6697.0899999999983</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D13" si="0">B2-C2</f>
-        <v>1485.5100000000002</v>
+        <v>902.41000000000167</v>
       </c>
       <c r="E2" s="4">
         <f>PARAMS!$B$1+D2</f>
-        <v>1485.5100000000002</v>
+        <v>902.41000000000167</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3191,11 +3542,11 @@
         <v>45869</v>
       </c>
       <c r="B3" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
         <v>6569.5</v>
       </c>
       <c r="C3" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
         <v>3159.6</v>
       </c>
       <c r="D3" s="4">
@@ -3204,7 +3555,7 @@
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E13" si="1">E2+D3</f>
-        <v>4895.41</v>
+        <v>4312.3100000000013</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3213,11 +3564,11 @@
         <v>45900</v>
       </c>
       <c r="B4" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
         <v>6569.5</v>
       </c>
       <c r="C4" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
         <v>5637.6</v>
       </c>
       <c r="D4" s="4">
@@ -3226,7 +3577,7 @@
       </c>
       <c r="E4" s="4">
         <f t="shared" si="1"/>
-        <v>5827.3099999999995</v>
+        <v>5244.2100000000009</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3235,11 +3586,11 @@
         <v>45930</v>
       </c>
       <c r="B5" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
         <v>6569.5</v>
       </c>
       <c r="C5" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
         <v>2409.6</v>
       </c>
       <c r="D5" s="4">
@@ -3248,7 +3599,7 @@
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>9987.2099999999991</v>
+        <v>9404.11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3257,11 +3608,11 @@
         <v>45961</v>
       </c>
       <c r="B6" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A6,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A6,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A6,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A6,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
         <v>6569.5</v>
       </c>
       <c r="C6" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A6,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A6,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A6,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A6,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
         <v>2409.6</v>
       </c>
       <c r="D6" s="4">
@@ -3270,7 +3621,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>14147.109999999999</v>
+        <v>13564.01</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3279,11 +3630,11 @@
         <v>45991</v>
       </c>
       <c r="B7" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A7,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A7,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A7,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A7,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
         <v>6569.5</v>
       </c>
       <c r="C7" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A7,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A7,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A7,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A7,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
         <v>2409.6</v>
       </c>
       <c r="D7" s="4">
@@ -3292,7 +3643,7 @@
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>18307.009999999998</v>
+        <v>17723.91</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3301,11 +3652,11 @@
         <v>46022</v>
       </c>
       <c r="B8" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A8,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A8,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A8,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A8,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
         <v>6569.5</v>
       </c>
       <c r="C8" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A8,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A8,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A8,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A8,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
         <v>2260</v>
       </c>
       <c r="D8" s="4">
@@ -3314,7 +3665,7 @@
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>22616.51</v>
+        <v>22033.41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3323,11 +3674,11 @@
         <v>46053</v>
       </c>
       <c r="B9" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A9,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A9,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A9,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A9,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
         <v>6569.5</v>
       </c>
       <c r="C9" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A9,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A9,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A9,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A9,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
         <v>2260</v>
       </c>
       <c r="D9" s="4">
@@ -3336,7 +3687,7 @@
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>26926.01</v>
+        <v>26342.91</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3345,11 +3696,11 @@
         <v>46081</v>
       </c>
       <c r="B10" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A10,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A10,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A10,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A10,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
         <v>6569.5</v>
       </c>
       <c r="C10" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A10,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A10,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A10,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A10,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
         <v>2260</v>
       </c>
       <c r="D10" s="4">
@@ -3358,7 +3709,7 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>31235.51</v>
+        <v>30652.41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3367,11 +3718,11 @@
         <v>46112</v>
       </c>
       <c r="B11" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A11,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A11,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A11,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A11,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
         <v>6569.5</v>
       </c>
       <c r="C11" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A11,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A11,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A11,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A11,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
         <v>2260</v>
       </c>
       <c r="D11" s="4">
@@ -3380,7 +3731,7 @@
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>35545.009999999995</v>
+        <v>34961.910000000003</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3389,11 +3740,11 @@
         <v>46142</v>
       </c>
       <c r="B12" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A12,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A12,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A12,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A12,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
         <v>6569.5</v>
       </c>
       <c r="C12" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A12,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A12,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A12,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A12,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
         <v>2260</v>
       </c>
       <c r="D12" s="4">
@@ -3402,7 +3753,7 @@
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>39854.509999999995</v>
+        <v>39271.410000000003</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3411,11 +3762,11 @@
         <v>46173</v>
       </c>
       <c r="B13" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A13,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A13,0))*(LANCAMENTOS!$E$2:$E$987="Income")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A13,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A13,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
         <v>6569.5</v>
       </c>
       <c r="C13" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$987&gt;=EOMONTH($A13,-1)+1)*(LANCAMENTOS!$A$2:$A$987&lt;=EOMONTH($A13,0))*(LANCAMENTOS!$E$2:$E$987="Expense")*(LANCAMENTOS!$D$2:$D$987))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A13,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A13,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
         <v>2260</v>
       </c>
       <c r="D13" s="4">
@@ -3424,7 +3775,7 @@
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>44164.009999999995</v>
+        <v>43580.91</v>
       </c>
     </row>
   </sheetData>

--- a/fluxo_caixa.xlsx
+++ b/fluxo_caixa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandremoreira/Documents/py_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FCEDF5-2857-5A43-853A-39895413338B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571A2414-E258-8B47-90BC-FC9DC447FB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10620" yWindow="4100" windowWidth="27780" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LANCAMENTOS" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="SUMMARY" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANCAMENTOS!$A$1:$I$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANCAMENTOS!$A$1:$I$135</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="91">
   <si>
     <t>Data</t>
   </si>
@@ -290,6 +290,27 @@
   </si>
   <si>
     <t>Pgto Fatura</t>
+  </si>
+  <si>
+    <t>Flash Mari</t>
+  </si>
+  <si>
+    <t>Consórcio</t>
+  </si>
+  <si>
+    <t>Investimento</t>
+  </si>
+  <si>
+    <t>Parcela Ano Novo</t>
+  </si>
+  <si>
+    <t>Cartão C6</t>
+  </si>
+  <si>
+    <t>Resgate Investimento</t>
+  </si>
+  <si>
+    <t>Resgate</t>
   </si>
 </sst>
 </file>
@@ -299,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +347,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -347,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -361,6 +389,9 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="40" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="40" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,10 +695,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -708,7 +739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>45812</v>
       </c>
@@ -737,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>45812</v>
       </c>
@@ -766,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>45813</v>
       </c>
@@ -795,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>45814</v>
       </c>
@@ -824,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>45814</v>
       </c>
@@ -853,7 +884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>45814</v>
       </c>
@@ -882,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>45818</v>
       </c>
@@ -911,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>45818</v>
       </c>
@@ -940,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>45818</v>
       </c>
@@ -969,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>45818</v>
       </c>
@@ -998,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>45818</v>
       </c>
@@ -1027,7 +1058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>45818</v>
       </c>
@@ -1056,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>45818</v>
       </c>
@@ -1085,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>45818</v>
       </c>
@@ -1114,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>45818</v>
       </c>
@@ -1143,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>45818</v>
       </c>
@@ -1172,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>45818</v>
       </c>
@@ -1201,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>45818</v>
       </c>
@@ -1230,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>45819</v>
       </c>
@@ -1259,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>45819</v>
       </c>
@@ -1288,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>45819</v>
       </c>
@@ -1317,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>45820</v>
       </c>
@@ -1346,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>45820</v>
       </c>
@@ -1375,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>45821</v>
       </c>
@@ -1404,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>45821</v>
       </c>
@@ -1433,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>45821</v>
       </c>
@@ -1462,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>45821</v>
       </c>
@@ -1491,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>45821</v>
       </c>
@@ -1520,7 +1551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>45822</v>
       </c>
@@ -1549,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>45822</v>
       </c>
@@ -1578,7 +1609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>45822</v>
       </c>
@@ -1607,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>45825</v>
       </c>
@@ -1636,7 +1667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>45827</v>
       </c>
@@ -1665,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>45828</v>
       </c>
@@ -1694,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>45828</v>
       </c>
@@ -1723,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>45828</v>
       </c>
@@ -1752,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>45828</v>
       </c>
@@ -1781,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>45828</v>
       </c>
@@ -1810,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>45828</v>
       </c>
@@ -1839,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>45829</v>
       </c>
@@ -1868,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>45830</v>
       </c>
@@ -1897,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>45835</v>
       </c>
@@ -1926,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>45835</v>
       </c>
@@ -1955,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>45835</v>
       </c>
@@ -1984,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45848</v>
       </c>
@@ -2013,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45848</v>
       </c>
@@ -2042,7 +2073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>45848</v>
       </c>
@@ -2071,7 +2102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>45848</v>
       </c>
@@ -2100,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>45848</v>
       </c>
@@ -2111,7 +2142,7 @@
         <v>38</v>
       </c>
       <c r="D50" s="4">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="E50" t="s">
         <v>19</v>
@@ -2129,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>45848</v>
       </c>
@@ -2158,105 +2189,105 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="4">
+        <v>250</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="4">
+        <v>410</v>
+      </c>
+      <c r="E53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="4">
+        <v>916.02</v>
+      </c>
+      <c r="E54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>45856</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B55" t="s">
         <v>22</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C55" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D55" s="4">
         <v>1800</v>
-      </c>
-      <c r="E52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52">
-        <v>12</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>45879</v>
-      </c>
-      <c r="B53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="4">
-        <v>270</v>
-      </c>
-      <c r="E53" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>20</v>
-      </c>
-      <c r="H53">
-        <v>12</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>45879</v>
-      </c>
-      <c r="B54" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="4">
-        <v>6569.5</v>
-      </c>
-      <c r="E54" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54">
-        <v>12</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>45879</v>
-      </c>
-      <c r="B55" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="4">
-        <v>55</v>
       </c>
       <c r="E55" t="s">
         <v>19</v>
@@ -2279,13 +2310,13 @@
         <v>45879</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D56" s="4">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="E56" t="s">
         <v>19</v>
@@ -2308,42 +2339,42 @@
         <v>45879</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D57" s="4">
-        <v>149.6</v>
+        <v>6569.5</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G57" t="s">
         <v>20</v>
       </c>
       <c r="H57">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>45882</v>
+        <v>45879</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D58" s="4">
-        <v>3228</v>
+        <v>55</v>
       </c>
       <c r="E58" t="s">
         <v>19</v>
@@ -2352,10 +2383,10 @@
         <v>21</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -2363,16 +2394,16 @@
     </row>
     <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>45887</v>
+        <v>45879</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D59" s="4">
-        <v>1800</v>
+        <v>135</v>
       </c>
       <c r="E59" t="s">
         <v>19</v>
@@ -2392,48 +2423,48 @@
     </row>
     <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>45910</v>
+        <v>45879</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D60" s="4">
-        <v>270</v>
+        <v>149.6</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
         <v>20</v>
       </c>
       <c r="H60">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>45910</v>
+        <v>45879</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D61" s="4">
-        <v>6569.5</v>
+        <v>916.02</v>
       </c>
       <c r="E61" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F61" t="s">
         <v>21</v>
@@ -2442,24 +2473,24 @@
         <v>20</v>
       </c>
       <c r="H61">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>45910</v>
+        <v>45879</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="D62" s="4">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="E62" t="s">
         <v>19</v>
@@ -2471,24 +2502,24 @@
         <v>20</v>
       </c>
       <c r="H62">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>45910</v>
+        <v>45879</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D63" s="4">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="E63" t="s">
         <v>19</v>
@@ -2500,44 +2531,44 @@
         <v>20</v>
       </c>
       <c r="H63">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>45910</v>
+        <v>45882</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C64" t="s">
         <v>36</v>
       </c>
       <c r="D64" s="4">
-        <v>149.6</v>
+        <v>3228</v>
       </c>
       <c r="E64" t="s">
         <v>19</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G64" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H64">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>45918</v>
+        <v>45887</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -2566,7 +2597,7 @@
     </row>
     <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>45940</v>
+        <v>45910</v>
       </c>
       <c r="B66" t="s">
         <v>17</v>
@@ -2595,7 +2626,7 @@
     </row>
     <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>45940</v>
+        <v>45910</v>
       </c>
       <c r="B67" t="s">
         <v>24</v>
@@ -2624,7 +2655,7 @@
     </row>
     <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>45940</v>
+        <v>45910</v>
       </c>
       <c r="B68" t="s">
         <v>27</v>
@@ -2653,7 +2684,7 @@
     </row>
     <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>45940</v>
+        <v>45910</v>
       </c>
       <c r="B69" t="s">
         <v>29</v>
@@ -2682,7 +2713,7 @@
     </row>
     <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>45940</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="s">
         <v>40</v>
@@ -2706,21 +2737,21 @@
         <v>6</v>
       </c>
       <c r="I70">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>45948</v>
+        <v>45910</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D71" s="4">
-        <v>1800</v>
+        <v>916.02</v>
       </c>
       <c r="E71" t="s">
         <v>19</v>
@@ -2732,82 +2763,82 @@
         <v>20</v>
       </c>
       <c r="H71">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
-        <v>45971</v>
-      </c>
-      <c r="B72" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="4">
-        <v>270</v>
-      </c>
-      <c r="E72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72">
-        <v>12</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
+      <c r="A72" s="13">
+        <v>45910</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="15">
+        <v>410</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="14">
+        <v>1</v>
+      </c>
+      <c r="I72" s="14">
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
-        <v>45971</v>
-      </c>
-      <c r="B73" t="s">
-        <v>24</v>
-      </c>
-      <c r="C73" t="s">
-        <v>25</v>
-      </c>
-      <c r="D73" s="4">
-        <v>6569.5</v>
-      </c>
-      <c r="E73" t="s">
-        <v>26</v>
-      </c>
-      <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73">
-        <v>12</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
+      <c r="A73" s="13">
+        <v>45910</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" s="15">
+        <v>250</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="14">
+        <v>1</v>
+      </c>
+      <c r="I73" s="14">
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>45971</v>
+        <v>45918</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D74" s="4">
-        <v>55</v>
+        <v>1800</v>
       </c>
       <c r="E74" t="s">
         <v>19</v>
@@ -2827,16 +2858,16 @@
     </row>
     <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>45971</v>
+        <v>45940</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D75" s="4">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="E75" t="s">
         <v>19</v>
@@ -2856,45 +2887,45 @@
     </row>
     <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>45971</v>
+        <v>45940</v>
       </c>
       <c r="B76" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D76" s="4">
-        <v>149.6</v>
+        <v>6569.5</v>
       </c>
       <c r="E76" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G76" t="s">
         <v>20</v>
       </c>
       <c r="H76">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I76">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>45979</v>
+        <v>45940</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D77" s="4">
-        <v>1800</v>
+        <v>55</v>
       </c>
       <c r="E77" t="s">
         <v>19</v>
@@ -2914,16 +2945,16 @@
     </row>
     <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>46001</v>
+        <v>45940</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D78" s="4">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="E78" t="s">
         <v>19</v>
@@ -2943,45 +2974,45 @@
     </row>
     <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>46001</v>
+        <v>45940</v>
       </c>
       <c r="B79" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C79" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D79" s="4">
-        <v>6569.5</v>
+        <v>149.6</v>
       </c>
       <c r="E79" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
         <v>20</v>
       </c>
       <c r="H79">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>46001</v>
+        <v>45940</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D80" s="4">
-        <v>55</v>
+        <v>916.02</v>
       </c>
       <c r="E80" t="s">
         <v>19</v>
@@ -2993,24 +3024,24 @@
         <v>20</v>
       </c>
       <c r="H80">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>46001</v>
+        <v>45940</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="D81" s="4">
-        <v>135</v>
+        <v>410</v>
       </c>
       <c r="E81" t="s">
         <v>19</v>
@@ -3022,24 +3053,24 @@
         <v>20</v>
       </c>
       <c r="H81">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>46009</v>
+        <v>45940</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D82" s="4">
-        <v>1800</v>
+        <v>250</v>
       </c>
       <c r="E82" t="s">
         <v>19</v>
@@ -3051,24 +3082,24 @@
         <v>20</v>
       </c>
       <c r="H82">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>46032</v>
+        <v>45948</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D83" s="4">
-        <v>270</v>
+        <v>1800</v>
       </c>
       <c r="E83" t="s">
         <v>19</v>
@@ -3088,19 +3119,19 @@
     </row>
     <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>46032</v>
+        <v>45971</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D84" s="4">
-        <v>6569.5</v>
+        <v>270</v>
       </c>
       <c r="E84" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
         <v>21</v>
@@ -3117,19 +3148,19 @@
     </row>
     <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>46032</v>
+        <v>45971</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D85" s="4">
-        <v>55</v>
+        <v>6569.5</v>
       </c>
       <c r="E85" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F85" t="s">
         <v>21</v>
@@ -3146,16 +3177,16 @@
     </row>
     <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>46032</v>
+        <v>45971</v>
       </c>
       <c r="B86" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D86" s="4">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="E86" t="s">
         <v>19</v>
@@ -3175,16 +3206,16 @@
     </row>
     <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>46040</v>
+        <v>45971</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D87" s="4">
-        <v>1800</v>
+        <v>135</v>
       </c>
       <c r="E87" t="s">
         <v>19</v>
@@ -3204,48 +3235,48 @@
     </row>
     <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>46063</v>
+        <v>45971</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D88" s="4">
-        <v>270</v>
+        <v>149.6</v>
       </c>
       <c r="E88" t="s">
         <v>19</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
         <v>20</v>
       </c>
       <c r="H88">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>46063</v>
+        <v>45971</v>
       </c>
       <c r="B89" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D89" s="4">
-        <v>6569.5</v>
+        <v>916.02</v>
       </c>
       <c r="E89" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
         <v>21</v>
@@ -3254,73 +3285,73 @@
         <v>20</v>
       </c>
       <c r="H89">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
-        <v>46063</v>
-      </c>
-      <c r="B90" t="s">
-        <v>27</v>
-      </c>
-      <c r="C90" t="s">
-        <v>28</v>
-      </c>
-      <c r="D90" s="4">
-        <v>55</v>
-      </c>
-      <c r="E90" t="s">
-        <v>19</v>
-      </c>
-      <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>20</v>
-      </c>
-      <c r="H90">
-        <v>12</v>
-      </c>
-      <c r="I90">
-        <v>1</v>
+      <c r="A90" s="13">
+        <v>45971</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D90" s="15">
+        <v>410</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" s="14">
+        <v>1</v>
+      </c>
+      <c r="I90" s="14">
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
-        <v>46063</v>
-      </c>
-      <c r="B91" t="s">
-        <v>29</v>
-      </c>
-      <c r="C91" t="s">
-        <v>30</v>
-      </c>
-      <c r="D91" s="4">
-        <v>135</v>
-      </c>
-      <c r="E91" t="s">
-        <v>19</v>
-      </c>
-      <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>20</v>
-      </c>
-      <c r="H91">
-        <v>12</v>
-      </c>
-      <c r="I91">
-        <v>1</v>
+      <c r="A91" s="13">
+        <v>45971</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D91" s="15">
+        <v>250</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" s="14">
+        <v>1</v>
+      </c>
+      <c r="I91" s="14">
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>46071</v>
+        <v>45979</v>
       </c>
       <c r="B92" t="s">
         <v>22</v>
@@ -3349,7 +3380,7 @@
     </row>
     <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>46091</v>
+        <v>46001</v>
       </c>
       <c r="B93" t="s">
         <v>17</v>
@@ -3378,7 +3409,7 @@
     </row>
     <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>46091</v>
+        <v>46001</v>
       </c>
       <c r="B94" t="s">
         <v>24</v>
@@ -3407,7 +3438,7 @@
     </row>
     <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>46091</v>
+        <v>46001</v>
       </c>
       <c r="B95" t="s">
         <v>27</v>
@@ -3436,7 +3467,7 @@
     </row>
     <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>46091</v>
+        <v>46001</v>
       </c>
       <c r="B96" t="s">
         <v>29</v>
@@ -3465,16 +3496,16 @@
     </row>
     <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>46099</v>
+        <v>46001</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D97" s="4">
-        <v>1800</v>
+        <v>916.02</v>
       </c>
       <c r="E97" t="s">
         <v>19</v>
@@ -3486,24 +3517,24 @@
         <v>20</v>
       </c>
       <c r="H97">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>46122</v>
+        <v>46001</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="D98" s="4">
-        <v>270</v>
+        <v>410</v>
       </c>
       <c r="E98" t="s">
         <v>19</v>
@@ -3515,27 +3546,27 @@
         <v>20</v>
       </c>
       <c r="H98">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>46122</v>
+        <v>46001</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C99" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D99" s="4">
-        <v>6569.5</v>
+        <v>250</v>
       </c>
       <c r="E99" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F99" t="s">
         <v>21</v>
@@ -3544,24 +3575,24 @@
         <v>20</v>
       </c>
       <c r="H99">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>46122</v>
+        <v>46009</v>
       </c>
       <c r="B100" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D100" s="4">
-        <v>55</v>
+        <v>1800</v>
       </c>
       <c r="E100" t="s">
         <v>19</v>
@@ -3581,16 +3612,16 @@
     </row>
     <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>46122</v>
+        <v>46032</v>
       </c>
       <c r="B101" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D101" s="4">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="E101" t="s">
         <v>19</v>
@@ -3610,19 +3641,19 @@
     </row>
     <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>46130</v>
+        <v>46032</v>
       </c>
       <c r="B102" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C102" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D102" s="4">
-        <v>1800</v>
+        <v>6569.5</v>
       </c>
       <c r="E102" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F102" t="s">
         <v>21</v>
@@ -3639,16 +3670,16 @@
     </row>
     <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>46152</v>
+        <v>46032</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D103" s="4">
-        <v>270</v>
+        <v>55</v>
       </c>
       <c r="E103" t="s">
         <v>19</v>
@@ -3668,19 +3699,19 @@
     </row>
     <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>46152</v>
+        <v>46032</v>
       </c>
       <c r="B104" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C104" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D104" s="4">
-        <v>6569.5</v>
+        <v>135</v>
       </c>
       <c r="E104" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F104" t="s">
         <v>21</v>
@@ -3696,66 +3727,66 @@
       </c>
     </row>
     <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
-        <v>46152</v>
-      </c>
-      <c r="B105" t="s">
-        <v>27</v>
-      </c>
-      <c r="C105" t="s">
-        <v>28</v>
-      </c>
-      <c r="D105" s="4">
-        <v>55</v>
-      </c>
-      <c r="E105" t="s">
-        <v>19</v>
-      </c>
-      <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>20</v>
-      </c>
-      <c r="H105">
-        <v>12</v>
-      </c>
-      <c r="I105">
-        <v>1</v>
+      <c r="A105" s="13">
+        <v>46032</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D105" s="15">
+        <v>410</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G105" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" s="14">
+        <v>1</v>
+      </c>
+      <c r="I105" s="14">
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="2">
-        <v>46152</v>
-      </c>
-      <c r="B106" t="s">
-        <v>29</v>
-      </c>
-      <c r="C106" t="s">
-        <v>30</v>
-      </c>
-      <c r="D106" s="4">
-        <v>135</v>
-      </c>
-      <c r="E106" t="s">
-        <v>19</v>
-      </c>
-      <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>20</v>
-      </c>
-      <c r="H106">
-        <v>12</v>
-      </c>
-      <c r="I106">
-        <v>1</v>
+      <c r="A106" s="13">
+        <v>46032</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D106" s="15">
+        <v>250</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" s="14">
+        <v>1</v>
+      </c>
+      <c r="I106" s="14">
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>46160</v>
+        <v>46040</v>
       </c>
       <c r="B107" t="s">
         <v>22</v>
@@ -3782,15 +3813,885 @@
         <v>1</v>
       </c>
     </row>
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>46063</v>
+      </c>
+      <c r="B108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" s="4">
+        <v>270</v>
+      </c>
+      <c r="E108" t="s">
+        <v>19</v>
+      </c>
+      <c r="F108" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108">
+        <v>12</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>46063</v>
+      </c>
+      <c r="B109" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="4">
+        <v>6569.5</v>
+      </c>
+      <c r="E109" t="s">
+        <v>26</v>
+      </c>
+      <c r="F109" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109">
+        <v>12</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>46063</v>
+      </c>
+      <c r="B110" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" s="4">
+        <v>55</v>
+      </c>
+      <c r="E110" t="s">
+        <v>19</v>
+      </c>
+      <c r="F110" t="s">
+        <v>21</v>
+      </c>
+      <c r="G110" t="s">
+        <v>20</v>
+      </c>
+      <c r="H110">
+        <v>12</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>46063</v>
+      </c>
+      <c r="B111" t="s">
+        <v>29</v>
+      </c>
+      <c r="C111" t="s">
+        <v>30</v>
+      </c>
+      <c r="D111" s="4">
+        <v>135</v>
+      </c>
+      <c r="E111" t="s">
+        <v>19</v>
+      </c>
+      <c r="F111" t="s">
+        <v>21</v>
+      </c>
+      <c r="G111" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111">
+        <v>12</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>46063</v>
+      </c>
+      <c r="B112" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112" t="s">
+        <v>86</v>
+      </c>
+      <c r="D112" s="4">
+        <v>410</v>
+      </c>
+      <c r="E112" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112" t="s">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>46063</v>
+      </c>
+      <c r="B113" t="s">
+        <v>84</v>
+      </c>
+      <c r="C113" t="s">
+        <v>52</v>
+      </c>
+      <c r="D113" s="4">
+        <v>250</v>
+      </c>
+      <c r="E113" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113" t="s">
+        <v>21</v>
+      </c>
+      <c r="G113" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>46071</v>
+      </c>
+      <c r="B114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E114" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114" t="s">
+        <v>21</v>
+      </c>
+      <c r="G114" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114">
+        <v>12</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>46091</v>
+      </c>
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="4">
+        <v>270</v>
+      </c>
+      <c r="E115" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" t="s">
+        <v>21</v>
+      </c>
+      <c r="G115" t="s">
+        <v>20</v>
+      </c>
+      <c r="H115">
+        <v>12</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>46091</v>
+      </c>
+      <c r="B116" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" s="4">
+        <v>6569.5</v>
+      </c>
+      <c r="E116" t="s">
+        <v>26</v>
+      </c>
+      <c r="F116" t="s">
+        <v>21</v>
+      </c>
+      <c r="G116" t="s">
+        <v>20</v>
+      </c>
+      <c r="H116">
+        <v>12</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>46091</v>
+      </c>
+      <c r="B117" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" s="4">
+        <v>55</v>
+      </c>
+      <c r="E117" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" t="s">
+        <v>21</v>
+      </c>
+      <c r="G117" t="s">
+        <v>20</v>
+      </c>
+      <c r="H117">
+        <v>12</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>46091</v>
+      </c>
+      <c r="B118" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118" s="4">
+        <v>135</v>
+      </c>
+      <c r="E118" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" t="s">
+        <v>21</v>
+      </c>
+      <c r="G118" t="s">
+        <v>20</v>
+      </c>
+      <c r="H118">
+        <v>12</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="13">
+        <v>46091</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D119" s="15">
+        <v>410</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" s="14">
+        <v>1</v>
+      </c>
+      <c r="I119" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="13">
+        <v>46091</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D120" s="15">
+        <v>250</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G120" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H120" s="14">
+        <v>1</v>
+      </c>
+      <c r="I120" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>46099</v>
+      </c>
+      <c r="B121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E121" t="s">
+        <v>19</v>
+      </c>
+      <c r="F121" t="s">
+        <v>21</v>
+      </c>
+      <c r="G121" t="s">
+        <v>20</v>
+      </c>
+      <c r="H121">
+        <v>12</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>46122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" s="4">
+        <v>270</v>
+      </c>
+      <c r="E122" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122" t="s">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>20</v>
+      </c>
+      <c r="H122">
+        <v>12</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>46122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" s="4">
+        <v>6569.5</v>
+      </c>
+      <c r="E123" t="s">
+        <v>26</v>
+      </c>
+      <c r="F123" t="s">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>20</v>
+      </c>
+      <c r="H123">
+        <v>12</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>46122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>27</v>
+      </c>
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" s="4">
+        <v>55</v>
+      </c>
+      <c r="E124" t="s">
+        <v>19</v>
+      </c>
+      <c r="F124" t="s">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>20</v>
+      </c>
+      <c r="H124">
+        <v>12</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>46122</v>
+      </c>
+      <c r="B125" t="s">
+        <v>29</v>
+      </c>
+      <c r="C125" t="s">
+        <v>30</v>
+      </c>
+      <c r="D125" s="4">
+        <v>135</v>
+      </c>
+      <c r="E125" t="s">
+        <v>19</v>
+      </c>
+      <c r="F125" t="s">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>20</v>
+      </c>
+      <c r="H125">
+        <v>12</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>46122</v>
+      </c>
+      <c r="B126" t="s">
+        <v>85</v>
+      </c>
+      <c r="C126" t="s">
+        <v>86</v>
+      </c>
+      <c r="D126" s="4">
+        <v>410</v>
+      </c>
+      <c r="E126" t="s">
+        <v>19</v>
+      </c>
+      <c r="F126" t="s">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>20</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>46122</v>
+      </c>
+      <c r="B127" t="s">
+        <v>84</v>
+      </c>
+      <c r="C127" t="s">
+        <v>52</v>
+      </c>
+      <c r="D127" s="4">
+        <v>250</v>
+      </c>
+      <c r="E127" t="s">
+        <v>19</v>
+      </c>
+      <c r="F127" t="s">
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>20</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>46130</v>
+      </c>
+      <c r="B128" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128" t="s">
+        <v>23</v>
+      </c>
+      <c r="D128" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E128" t="s">
+        <v>19</v>
+      </c>
+      <c r="F128" t="s">
+        <v>21</v>
+      </c>
+      <c r="G128" t="s">
+        <v>20</v>
+      </c>
+      <c r="H128">
+        <v>12</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>46152</v>
+      </c>
+      <c r="B129" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" s="4">
+        <v>270</v>
+      </c>
+      <c r="E129" t="s">
+        <v>19</v>
+      </c>
+      <c r="F129" t="s">
+        <v>21</v>
+      </c>
+      <c r="G129" t="s">
+        <v>20</v>
+      </c>
+      <c r="H129">
+        <v>12</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>46152</v>
+      </c>
+      <c r="B130" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" s="4">
+        <v>6569.5</v>
+      </c>
+      <c r="E130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F130" t="s">
+        <v>21</v>
+      </c>
+      <c r="G130" t="s">
+        <v>20</v>
+      </c>
+      <c r="H130">
+        <v>12</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>46152</v>
+      </c>
+      <c r="B131" t="s">
+        <v>27</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" s="4">
+        <v>55</v>
+      </c>
+      <c r="E131" t="s">
+        <v>19</v>
+      </c>
+      <c r="F131" t="s">
+        <v>21</v>
+      </c>
+      <c r="G131" t="s">
+        <v>20</v>
+      </c>
+      <c r="H131">
+        <v>12</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>46152</v>
+      </c>
+      <c r="B132" t="s">
+        <v>29</v>
+      </c>
+      <c r="C132" t="s">
+        <v>30</v>
+      </c>
+      <c r="D132" s="4">
+        <v>135</v>
+      </c>
+      <c r="E132" t="s">
+        <v>19</v>
+      </c>
+      <c r="F132" t="s">
+        <v>21</v>
+      </c>
+      <c r="G132" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132">
+        <v>12</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="13">
+        <v>46152</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D133" s="15">
+        <v>410</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H133" s="14">
+        <v>1</v>
+      </c>
+      <c r="I133" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="13">
+        <v>46152</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D134" s="15">
+        <v>250</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G134" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H134" s="14">
+        <v>1</v>
+      </c>
+      <c r="I134" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>46160</v>
+      </c>
+      <c r="B135" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" t="s">
+        <v>23</v>
+      </c>
+      <c r="D135" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E135" t="s">
+        <v>19</v>
+      </c>
+      <c r="F135" t="s">
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
+        <v>20</v>
+      </c>
+      <c r="H135">
+        <v>12</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B136" t="s">
+        <v>88</v>
+      </c>
+      <c r="C136" t="s">
+        <v>44</v>
+      </c>
+      <c r="D136" s="4">
+        <v>1247.24</v>
+      </c>
+      <c r="E136" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136" t="s">
+        <v>34</v>
+      </c>
+      <c r="G136" t="s">
+        <v>20</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B137" t="s">
+        <v>89</v>
+      </c>
+      <c r="C137" t="s">
+        <v>90</v>
+      </c>
+      <c r="D137" s="4">
+        <v>500</v>
+      </c>
+      <c r="E137" t="s">
+        <v>26</v>
+      </c>
+      <c r="F137" t="s">
+        <v>34</v>
+      </c>
+      <c r="G137" t="s">
+        <v>31</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I107" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <autoFilter ref="A1:I135" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2025" month="6" dateTimeGrouping="month"/>
+        <dateGroupItem year="2025" month="7" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I107">
-      <sortCondition ref="A1:A107"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I135">
+      <sortCondition ref="A1:A135"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3845,8 +4746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="143" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3901,19 +4802,19 @@
       </c>
       <c r="B3" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
-        <v>6569.5</v>
+        <v>7069.5</v>
       </c>
       <c r="C3" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
-        <v>3159.6</v>
+        <v>6432.86</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>3409.9</v>
+        <v>636.64000000000033</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E13" si="1">E2+D3</f>
-        <v>4115.3700000000008</v>
+        <v>1342.1100000000015</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3927,15 +4828,15 @@
       </c>
       <c r="C4" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
-        <v>5637.6</v>
+        <v>7213.62</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>931.89999999999964</v>
+        <v>-644.11999999999989</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="1"/>
-        <v>5047.2700000000004</v>
+        <v>697.9900000000016</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3949,15 +4850,15 @@
       </c>
       <c r="C5" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
-        <v>2409.6</v>
+        <v>3985.62</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>4159.8999999999996</v>
+        <v>2583.88</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>9207.17</v>
+        <v>3281.8700000000017</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3971,15 +4872,15 @@
       </c>
       <c r="C6" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A6,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A6,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
-        <v>2409.6</v>
+        <v>3985.62</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>4159.8999999999996</v>
+        <v>2583.88</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>13367.07</v>
+        <v>5865.7500000000018</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3993,15 +4894,15 @@
       </c>
       <c r="C7" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A7,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A7,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
-        <v>2409.6</v>
+        <v>3985.62</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>4159.8999999999996</v>
+        <v>2583.88</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>17526.97</v>
+        <v>8449.630000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4015,15 +4916,15 @@
       </c>
       <c r="C8" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A8,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A8,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
-        <v>2260</v>
+        <v>3836.02</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>4309.5</v>
+        <v>2733.48</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>21836.47</v>
+        <v>11183.11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4037,15 +4938,15 @@
       </c>
       <c r="C9" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A9,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A9,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
-        <v>2260</v>
+        <v>2920</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>4309.5</v>
+        <v>3649.5</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>26145.97</v>
+        <v>14832.61</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -4059,15 +4960,15 @@
       </c>
       <c r="C10" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A10,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A10,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
-        <v>2260</v>
+        <v>2920</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>4309.5</v>
+        <v>3649.5</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>30455.47</v>
+        <v>18482.11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -4081,15 +4982,15 @@
       </c>
       <c r="C11" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A11,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A11,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
-        <v>2260</v>
+        <v>2920</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>4309.5</v>
+        <v>3649.5</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>34764.97</v>
+        <v>22131.61</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -4103,15 +5004,15 @@
       </c>
       <c r="C12" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A12,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A12,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
-        <v>2260</v>
+        <v>2920</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>4309.5</v>
+        <v>3649.5</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>39074.47</v>
+        <v>25781.11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -4125,15 +5026,15 @@
       </c>
       <c r="C13" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A13,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A13,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
-        <v>2260</v>
+        <v>2920</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>4309.5</v>
+        <v>3649.5</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>43383.97</v>
+        <v>29430.61</v>
       </c>
     </row>
   </sheetData>

--- a/fluxo_caixa.xlsx
+++ b/fluxo_caixa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandremoreira/Documents/py_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571A2414-E258-8B47-90BC-FC9DC447FB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B70DA12-DA38-014B-9C58-CE14D0028D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="4100" windowWidth="27780" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LANCAMENTOS" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="SUMMARY" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANCAMENTOS!$A$1:$I$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANCAMENTOS!$A$1:$I$137</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -697,8 +697,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1928,9 +1928,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>58</v>
@@ -1957,9 +1957,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>45835</v>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
+        <v>45839</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -1986,9 +1986,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>45835</v>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
+        <v>45839</v>
       </c>
       <c r="B45" t="s">
         <v>47</v>
@@ -2142,7 +2142,7 @@
         <v>38</v>
       </c>
       <c r="D50" s="4">
-        <v>1200</v>
+        <v>568</v>
       </c>
       <c r="E50" t="s">
         <v>19</v>
@@ -4684,7 +4684,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I135" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <autoFilter ref="A1:I137" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2025" month="7" dateTimeGrouping="month"/>
@@ -4746,7 +4746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="143" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -4780,19 +4780,19 @@
       </c>
       <c r="B2" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
-        <v>7649.5</v>
+        <v>6909.5</v>
       </c>
       <c r="C2" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
-        <v>6944.0299999999988</v>
+        <v>6764.2199999999984</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D13" si="0">B2-C2</f>
-        <v>705.47000000000116</v>
+        <v>145.28000000000156</v>
       </c>
       <c r="E2" s="4">
         <f>PARAMS!$B$1+D2</f>
-        <v>705.47000000000116</v>
+        <v>145.28000000000156</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4802,19 +4802,19 @@
       </c>
       <c r="B3" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
-        <v>7069.5</v>
+        <v>7809.5</v>
       </c>
       <c r="C3" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
-        <v>6432.86</v>
+        <v>5980.67</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>636.64000000000033</v>
+        <v>1828.83</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E13" si="1">E2+D3</f>
-        <v>1342.1100000000015</v>
+        <v>1974.1100000000015</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="E4" s="4">
         <f t="shared" si="1"/>
-        <v>697.9900000000016</v>
+        <v>1329.9900000000016</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>3281.8700000000017</v>
+        <v>3913.8700000000017</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>5865.7500000000018</v>
+        <v>6497.7500000000018</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>8449.630000000001</v>
+        <v>9081.630000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>11183.11</v>
+        <v>11815.11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>14832.61</v>
+        <v>15464.61</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -4968,7 +4968,7 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>18482.11</v>
+        <v>19114.11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>22131.61</v>
+        <v>22763.61</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -5012,7 +5012,7 @@
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>25781.11</v>
+        <v>26413.11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -5034,7 +5034,7 @@
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>29430.61</v>
+        <v>30062.61</v>
       </c>
     </row>
   </sheetData>

--- a/fluxo_caixa.xlsx
+++ b/fluxo_caixa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandremoreira/Documents/py_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B70DA12-DA38-014B-9C58-CE14D0028D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773D2FC9-52CB-D949-8A82-F2C7127D5214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LANCAMENTOS" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="SUMMARY" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANCAMENTOS!$A$1:$I$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANCAMENTOS!$A$1:$I$154</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="102">
   <si>
     <t>Data</t>
   </si>
@@ -214,9 +214,6 @@
     <t>Devolução</t>
   </si>
   <si>
-    <t>Reembolso Faculdade</t>
-  </si>
-  <si>
     <t>Reembolso</t>
   </si>
   <si>
@@ -311,6 +308,42 @@
   </si>
   <si>
     <t>Resgate</t>
+  </si>
+  <si>
+    <t>Dr Consulta</t>
+  </si>
+  <si>
+    <t>Exames Mari</t>
+  </si>
+  <si>
+    <t>Reembolso Mari</t>
+  </si>
+  <si>
+    <t>St Marche</t>
+  </si>
+  <si>
+    <t>Farmacia</t>
+  </si>
+  <si>
+    <t>Plinio</t>
+  </si>
+  <si>
+    <t>Bala</t>
+  </si>
+  <si>
+    <t>Agua Oxxo</t>
+  </si>
+  <si>
+    <t>Drogaria</t>
+  </si>
+  <si>
+    <t>ProFarma</t>
+  </si>
+  <si>
+    <t>Empréstimo Pai</t>
+  </si>
+  <si>
+    <t>Zul+</t>
   </si>
 </sst>
 </file>
@@ -375,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -387,8 +420,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="40" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="40" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="40" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -695,10 +726,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1179,10 +1210,10 @@
         <v>45818</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="D17" s="9">
         <v>39.799999999999997</v>
@@ -1208,7 +1239,7 @@
         <v>45818</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>38</v>
@@ -1237,7 +1268,7 @@
         <v>45818</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>54</v>
@@ -1266,7 +1297,7 @@
         <v>45819</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>54</v>
@@ -1295,7 +1326,7 @@
         <v>45819</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>50</v>
@@ -1324,10 +1355,10 @@
         <v>45819</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="D22" s="9">
         <v>185</v>
@@ -1353,7 +1384,7 @@
         <v>45820</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>50</v>
@@ -1382,10 +1413,10 @@
         <v>45820</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="D24" s="9">
         <v>19.8</v>
@@ -1440,7 +1471,7 @@
         <v>45821</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>54</v>
@@ -1469,7 +1500,7 @@
         <v>45821</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>54</v>
@@ -1498,7 +1529,7 @@
         <v>45821</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>54</v>
@@ -1527,7 +1558,7 @@
         <v>45821</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>33</v>
@@ -1556,7 +1587,7 @@
         <v>45822</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>54</v>
@@ -1585,7 +1616,7 @@
         <v>45822</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>54</v>
@@ -1614,7 +1645,7 @@
         <v>45822</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>52</v>
@@ -1643,7 +1674,7 @@
         <v>45825</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>52</v>
@@ -1672,7 +1703,7 @@
         <v>45827</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>52</v>
@@ -1701,7 +1732,7 @@
         <v>45828</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>33</v>
@@ -1730,7 +1761,7 @@
         <v>45828</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>52</v>
@@ -1759,10 +1790,10 @@
         <v>45828</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="D37" s="9">
         <v>2</v>
@@ -1788,7 +1819,7 @@
         <v>45828</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>33</v>
@@ -1817,10 +1848,10 @@
         <v>45828</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="D39" s="9">
         <v>50</v>
@@ -1846,7 +1877,7 @@
         <v>45828</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>44</v>
@@ -1875,7 +1906,7 @@
         <v>45829</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>52</v>
@@ -1904,7 +1935,7 @@
         <v>45830</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>52</v>
@@ -1932,46 +1963,46 @@
       <c r="A43" s="10">
         <v>45839</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="12">
-        <v>240</v>
-      </c>
-      <c r="E43" s="11" t="s">
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="4">
+        <v>500</v>
+      </c>
+      <c r="E43" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" s="11">
-        <v>1</v>
-      </c>
-      <c r="I43" s="11">
+      <c r="F43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="10">
+      <c r="A44" s="2">
         <v>45839</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D44" s="4">
-        <v>500</v>
+        <v>12.78</v>
       </c>
       <c r="E44" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F44" t="s">
         <v>34</v>
@@ -1987,17 +2018,17 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="10">
+      <c r="A45" s="2">
         <v>45839</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D45" s="4">
-        <v>179.81</v>
+        <v>3.99</v>
       </c>
       <c r="E45" t="s">
         <v>19</v>
@@ -2017,28 +2048,28 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>45848</v>
+        <v>45840</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="4">
         <v>18</v>
       </c>
-      <c r="D46" s="4">
-        <v>270</v>
-      </c>
       <c r="E46" t="s">
         <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H46">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -2046,28 +2077,28 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>45848</v>
+        <v>45840</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D47" s="4">
-        <v>6569.5</v>
+        <v>132</v>
       </c>
       <c r="E47" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H47">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -2075,28 +2106,28 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>45848</v>
+        <v>45841</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D48" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E48" t="s">
         <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -2104,28 +2135,28 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>45848</v>
+        <v>45841</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D49" s="4">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="E49" t="s">
         <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H49">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -2133,16 +2164,16 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>45848</v>
+        <v>45842</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D50" s="4">
-        <v>568</v>
+        <v>137.9</v>
       </c>
       <c r="E50" t="s">
         <v>19</v>
@@ -2162,16 +2193,16 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>45848</v>
+        <v>45842</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D51" s="4">
-        <v>149.6</v>
+        <v>18</v>
       </c>
       <c r="E51" t="s">
         <v>19</v>
@@ -2180,114 +2211,114 @@
         <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>45848</v>
+        <v>45839</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D52" s="4">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="E52" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>45848</v>
+        <v>45842</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="D53" s="4">
-        <v>410</v>
+        <v>50.94</v>
       </c>
       <c r="E53" t="s">
         <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>45848</v>
+        <v>45843</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D54" s="4">
-        <v>916.02</v>
+        <v>100</v>
       </c>
       <c r="E54" t="s">
         <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>45856</v>
+        <v>45879</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D55" s="4">
-        <v>1800</v>
+        <v>270</v>
       </c>
       <c r="E55" t="s">
         <v>19</v>
@@ -2310,16 +2341,16 @@
         <v>45879</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D56" s="4">
-        <v>270</v>
+        <v>6569.5</v>
       </c>
       <c r="E56" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F56" t="s">
         <v>21</v>
@@ -2339,16 +2370,16 @@
         <v>45879</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D57" s="4">
-        <v>6569.5</v>
+        <v>55</v>
       </c>
       <c r="E57" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
         <v>21</v>
@@ -2368,13 +2399,13 @@
         <v>45879</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D58" s="4">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E58" t="s">
         <v>19</v>
@@ -2397,28 +2428,28 @@
         <v>45879</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D59" s="4">
-        <v>135</v>
+        <v>149.6</v>
       </c>
       <c r="E59" t="s">
         <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
         <v>20</v>
       </c>
       <c r="H59">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -2426,28 +2457,28 @@
         <v>45879</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
         <v>36</v>
       </c>
       <c r="D60" s="4">
-        <v>149.6</v>
+        <v>916.02</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G60" t="s">
         <v>20</v>
       </c>
       <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
         <v>6</v>
-      </c>
-      <c r="I60">
-        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -2455,13 +2486,13 @@
         <v>45879</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="D61" s="4">
-        <v>916.02</v>
+        <v>410</v>
       </c>
       <c r="E61" t="s">
         <v>19</v>
@@ -2476,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="I61">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -2484,13 +2515,13 @@
         <v>45879</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="D62" s="4">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="E62" t="s">
         <v>19</v>
@@ -2510,16 +2541,16 @@
     </row>
     <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>45879</v>
+        <v>45882</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D63" s="4">
-        <v>250</v>
+        <v>3228</v>
       </c>
       <c r="E63" t="s">
         <v>19</v>
@@ -2528,27 +2559,27 @@
         <v>21</v>
       </c>
       <c r="G63" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D64" s="4">
-        <v>3228</v>
+        <v>1800</v>
       </c>
       <c r="E64" t="s">
         <v>19</v>
@@ -2557,10 +2588,10 @@
         <v>21</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -2568,16 +2599,16 @@
     </row>
     <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>45887</v>
+        <v>45910</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D65" s="4">
-        <v>1800</v>
+        <v>270</v>
       </c>
       <c r="E65" t="s">
         <v>19</v>
@@ -2600,16 +2631,16 @@
         <v>45910</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D66" s="4">
-        <v>270</v>
+        <v>6569.5</v>
       </c>
       <c r="E66" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F66" t="s">
         <v>21</v>
@@ -2629,16 +2660,16 @@
         <v>45910</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D67" s="4">
-        <v>6569.5</v>
+        <v>55</v>
       </c>
       <c r="E67" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
         <v>21</v>
@@ -2658,13 +2689,13 @@
         <v>45910</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D68" s="4">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E68" t="s">
         <v>19</v>
@@ -2687,28 +2718,28 @@
         <v>45910</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D69" s="4">
-        <v>135</v>
+        <v>149.6</v>
       </c>
       <c r="E69" t="s">
         <v>19</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
         <v>20</v>
       </c>
       <c r="H69">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -2716,129 +2747,129 @@
         <v>45910</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
         <v>36</v>
       </c>
       <c r="D70" s="4">
-        <v>149.6</v>
+        <v>916.02</v>
       </c>
       <c r="E70" t="s">
         <v>19</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G70" t="s">
         <v>20</v>
       </c>
       <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
         <v>6</v>
       </c>
-      <c r="I70">
-        <v>4</v>
-      </c>
     </row>
     <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
+      <c r="A71" s="11">
         <v>45910</v>
       </c>
-      <c r="B71" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" t="s">
-        <v>36</v>
-      </c>
-      <c r="D71" s="4">
-        <v>916.02</v>
-      </c>
-      <c r="E71" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <v>6</v>
+      <c r="B71" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" s="13">
+        <v>410</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="12">
+        <v>1</v>
+      </c>
+      <c r="I71" s="12">
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="13">
+      <c r="A72" s="11">
         <v>45910</v>
       </c>
-      <c r="B72" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D72" s="15">
-        <v>410</v>
-      </c>
-      <c r="E72" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="14">
-        <v>1</v>
-      </c>
-      <c r="I72" s="14">
+      <c r="B72" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="13">
+        <v>250</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="12">
+        <v>1</v>
+      </c>
+      <c r="I72" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="13">
-        <v>45910</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D73" s="15">
-        <v>250</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="14">
-        <v>1</v>
-      </c>
-      <c r="I73" s="14">
-        <v>12</v>
+      <c r="A73" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73">
+        <v>12</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>45918</v>
+        <v>45940</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D74" s="4">
-        <v>1800</v>
+        <v>270</v>
       </c>
       <c r="E74" t="s">
         <v>19</v>
@@ -2861,16 +2892,16 @@
         <v>45940</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D75" s="4">
-        <v>270</v>
+        <v>6569.5</v>
       </c>
       <c r="E75" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F75" t="s">
         <v>21</v>
@@ -2890,16 +2921,16 @@
         <v>45940</v>
       </c>
       <c r="B76" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D76" s="4">
-        <v>6569.5</v>
+        <v>55</v>
       </c>
       <c r="E76" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F76" t="s">
         <v>21</v>
@@ -2919,13 +2950,13 @@
         <v>45940</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D77" s="4">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E77" t="s">
         <v>19</v>
@@ -2948,28 +2979,28 @@
         <v>45940</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D78" s="4">
-        <v>135</v>
+        <v>149.6</v>
       </c>
       <c r="E78" t="s">
         <v>19</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
         <v>20</v>
       </c>
       <c r="H78">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -2977,28 +3008,28 @@
         <v>45940</v>
       </c>
       <c r="B79" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s">
         <v>36</v>
       </c>
       <c r="D79" s="4">
-        <v>149.6</v>
+        <v>916.02</v>
       </c>
       <c r="E79" t="s">
         <v>19</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G79" t="s">
         <v>20</v>
       </c>
       <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
         <v>6</v>
-      </c>
-      <c r="I79">
-        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -3006,13 +3037,13 @@
         <v>45940</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="D80" s="4">
-        <v>916.02</v>
+        <v>410</v>
       </c>
       <c r="E80" t="s">
         <v>19</v>
@@ -3027,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="I80">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -3035,13 +3066,13 @@
         <v>45940</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="D81" s="4">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="E81" t="s">
         <v>19</v>
@@ -3061,16 +3092,16 @@
     </row>
     <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>45940</v>
+        <v>45948</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="C82" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D82" s="4">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="E82" t="s">
         <v>19</v>
@@ -3082,24 +3113,24 @@
         <v>20</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I82">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>45948</v>
+        <v>45971</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D83" s="4">
-        <v>1800</v>
+        <v>270</v>
       </c>
       <c r="E83" t="s">
         <v>19</v>
@@ -3122,16 +3153,16 @@
         <v>45971</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D84" s="4">
-        <v>270</v>
+        <v>6569.5</v>
       </c>
       <c r="E84" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F84" t="s">
         <v>21</v>
@@ -3151,16 +3182,16 @@
         <v>45971</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D85" s="4">
-        <v>6569.5</v>
+        <v>55</v>
       </c>
       <c r="E85" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F85" t="s">
         <v>21</v>
@@ -3180,13 +3211,13 @@
         <v>45971</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D86" s="4">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E86" t="s">
         <v>19</v>
@@ -3209,28 +3240,28 @@
         <v>45971</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D87" s="4">
-        <v>135</v>
+        <v>149.6</v>
       </c>
       <c r="E87" t="s">
         <v>19</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
         <v>20</v>
       </c>
       <c r="H87">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -3238,129 +3269,129 @@
         <v>45971</v>
       </c>
       <c r="B88" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C88" t="s">
         <v>36</v>
       </c>
       <c r="D88" s="4">
-        <v>149.6</v>
+        <v>916.02</v>
       </c>
       <c r="E88" t="s">
         <v>19</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G88" t="s">
         <v>20</v>
       </c>
       <c r="H88">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
+      <c r="A89" s="11">
         <v>45971</v>
       </c>
-      <c r="B89" t="s">
-        <v>87</v>
-      </c>
-      <c r="C89" t="s">
-        <v>36</v>
-      </c>
-      <c r="D89" s="4">
-        <v>916.02</v>
-      </c>
-      <c r="E89" t="s">
-        <v>19</v>
-      </c>
-      <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>20</v>
-      </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="I89">
-        <v>6</v>
+      <c r="B89" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D89" s="13">
+        <v>410</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" s="12">
+        <v>1</v>
+      </c>
+      <c r="I89" s="12">
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="13">
+      <c r="A90" s="11">
         <v>45971</v>
       </c>
-      <c r="B90" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D90" s="15">
-        <v>410</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F90" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H90" s="14">
-        <v>1</v>
-      </c>
-      <c r="I90" s="14">
+      <c r="B90" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D90" s="13">
+        <v>250</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" s="12">
+        <v>1</v>
+      </c>
+      <c r="I90" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="13">
-        <v>45971</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D91" s="15">
-        <v>250</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F91" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H91" s="14">
-        <v>1</v>
-      </c>
-      <c r="I91" s="14">
-        <v>12</v>
+      <c r="A91" s="2">
+        <v>45979</v>
+      </c>
+      <c r="B91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E91" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" t="s">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91">
+        <v>12</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>45979</v>
+        <v>46001</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D92" s="4">
-        <v>1800</v>
+        <v>270</v>
       </c>
       <c r="E92" t="s">
         <v>19</v>
@@ -3383,16 +3414,16 @@
         <v>46001</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D93" s="4">
-        <v>270</v>
+        <v>6569.5</v>
       </c>
       <c r="E93" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F93" t="s">
         <v>21</v>
@@ -3412,16 +3443,16 @@
         <v>46001</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D94" s="4">
-        <v>6569.5</v>
+        <v>55</v>
       </c>
       <c r="E94" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F94" t="s">
         <v>21</v>
@@ -3441,13 +3472,13 @@
         <v>46001</v>
       </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D95" s="4">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E95" t="s">
         <v>19</v>
@@ -3470,13 +3501,13 @@
         <v>46001</v>
       </c>
       <c r="B96" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D96" s="4">
-        <v>135</v>
+        <v>916.02</v>
       </c>
       <c r="E96" t="s">
         <v>19</v>
@@ -3488,10 +3519,10 @@
         <v>20</v>
       </c>
       <c r="H96">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -3499,13 +3530,13 @@
         <v>46001</v>
       </c>
       <c r="B97" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="D97" s="4">
-        <v>916.02</v>
+        <v>410</v>
       </c>
       <c r="E97" t="s">
         <v>19</v>
@@ -3520,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="I97">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -3528,13 +3559,13 @@
         <v>46001</v>
       </c>
       <c r="B98" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C98" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="D98" s="4">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="E98" t="s">
         <v>19</v>
@@ -3554,16 +3585,16 @@
     </row>
     <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>46001</v>
+        <v>46009</v>
       </c>
       <c r="B99" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="C99" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D99" s="4">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="E99" t="s">
         <v>19</v>
@@ -3575,24 +3606,24 @@
         <v>20</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I99">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>46009</v>
+        <v>46032</v>
       </c>
       <c r="B100" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C100" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D100" s="4">
-        <v>1800</v>
+        <v>270</v>
       </c>
       <c r="E100" t="s">
         <v>19</v>
@@ -3615,16 +3646,16 @@
         <v>46032</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D101" s="4">
-        <v>270</v>
+        <v>6569.5</v>
       </c>
       <c r="E101" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F101" t="s">
         <v>21</v>
@@ -3644,16 +3675,16 @@
         <v>46032</v>
       </c>
       <c r="B102" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C102" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D102" s="4">
-        <v>6569.5</v>
+        <v>55</v>
       </c>
       <c r="E102" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F102" t="s">
         <v>21</v>
@@ -3673,13 +3704,13 @@
         <v>46032</v>
       </c>
       <c r="B103" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D103" s="4">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E103" t="s">
         <v>19</v>
@@ -3698,104 +3729,104 @@
       </c>
     </row>
     <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
+      <c r="A104" s="11">
         <v>46032</v>
       </c>
-      <c r="B104" t="s">
-        <v>29</v>
-      </c>
-      <c r="C104" t="s">
-        <v>30</v>
-      </c>
-      <c r="D104" s="4">
-        <v>135</v>
-      </c>
-      <c r="E104" t="s">
-        <v>19</v>
-      </c>
-      <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>20</v>
-      </c>
-      <c r="H104">
-        <v>12</v>
-      </c>
-      <c r="I104">
-        <v>1</v>
+      <c r="B104" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D104" s="13">
+        <v>410</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" s="12">
+        <v>1</v>
+      </c>
+      <c r="I104" s="12">
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="13">
+      <c r="A105" s="11">
         <v>46032</v>
       </c>
-      <c r="B105" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D105" s="15">
-        <v>410</v>
-      </c>
-      <c r="E105" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F105" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H105" s="14">
-        <v>1</v>
-      </c>
-      <c r="I105" s="14">
+      <c r="B105" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D105" s="13">
+        <v>250</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" s="12">
+        <v>1</v>
+      </c>
+      <c r="I105" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="13">
-        <v>46032</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D106" s="15">
-        <v>250</v>
-      </c>
-      <c r="E106" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F106" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H106" s="14">
-        <v>1</v>
-      </c>
-      <c r="I106" s="14">
-        <v>12</v>
+      <c r="A106" s="2">
+        <v>46040</v>
+      </c>
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E106" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106" t="s">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106">
+        <v>12</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>46040</v>
+        <v>46063</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C107" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D107" s="4">
-        <v>1800</v>
+        <v>270</v>
       </c>
       <c r="E107" t="s">
         <v>19</v>
@@ -3818,16 +3849,16 @@
         <v>46063</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C108" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D108" s="4">
-        <v>270</v>
+        <v>6569.5</v>
       </c>
       <c r="E108" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F108" t="s">
         <v>21</v>
@@ -3847,16 +3878,16 @@
         <v>46063</v>
       </c>
       <c r="B109" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C109" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D109" s="4">
-        <v>6569.5</v>
+        <v>55</v>
       </c>
       <c r="E109" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F109" t="s">
         <v>21</v>
@@ -3876,13 +3907,13 @@
         <v>46063</v>
       </c>
       <c r="B110" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D110" s="4">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E110" t="s">
         <v>19</v>
@@ -3905,13 +3936,13 @@
         <v>46063</v>
       </c>
       <c r="B111" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="D111" s="4">
-        <v>135</v>
+        <v>410</v>
       </c>
       <c r="E111" t="s">
         <v>19</v>
@@ -3923,10 +3954,10 @@
         <v>20</v>
       </c>
       <c r="H111">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -3934,13 +3965,13 @@
         <v>46063</v>
       </c>
       <c r="B112" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C112" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="D112" s="4">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="E112" t="s">
         <v>19</v>
@@ -3960,16 +3991,16 @@
     </row>
     <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>46063</v>
+        <v>46071</v>
       </c>
       <c r="B113" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="C113" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D113" s="4">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="E113" t="s">
         <v>19</v>
@@ -3981,24 +4012,24 @@
         <v>20</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I113">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>46071</v>
+        <v>46091</v>
       </c>
       <c r="B114" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C114" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D114" s="4">
-        <v>1800</v>
+        <v>270</v>
       </c>
       <c r="E114" t="s">
         <v>19</v>
@@ -4021,16 +4052,16 @@
         <v>46091</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C115" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D115" s="4">
-        <v>270</v>
+        <v>6569.5</v>
       </c>
       <c r="E115" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F115" t="s">
         <v>21</v>
@@ -4050,16 +4081,16 @@
         <v>46091</v>
       </c>
       <c r="B116" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C116" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D116" s="4">
-        <v>6569.5</v>
+        <v>55</v>
       </c>
       <c r="E116" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F116" t="s">
         <v>21</v>
@@ -4079,13 +4110,13 @@
         <v>46091</v>
       </c>
       <c r="B117" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D117" s="4">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E117" t="s">
         <v>19</v>
@@ -4104,104 +4135,104 @@
       </c>
     </row>
     <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="2">
+      <c r="A118" s="11">
         <v>46091</v>
       </c>
-      <c r="B118" t="s">
-        <v>29</v>
-      </c>
-      <c r="C118" t="s">
-        <v>30</v>
-      </c>
-      <c r="D118" s="4">
-        <v>135</v>
-      </c>
-      <c r="E118" t="s">
-        <v>19</v>
-      </c>
-      <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>20</v>
-      </c>
-      <c r="H118">
-        <v>12</v>
-      </c>
-      <c r="I118">
-        <v>1</v>
+      <c r="B118" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D118" s="13">
+        <v>410</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H118" s="12">
+        <v>1</v>
+      </c>
+      <c r="I118" s="12">
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="13">
+      <c r="A119" s="11">
         <v>46091</v>
       </c>
-      <c r="B119" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D119" s="15">
-        <v>410</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F119" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H119" s="14">
-        <v>1</v>
-      </c>
-      <c r="I119" s="14">
+      <c r="B119" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D119" s="13">
+        <v>250</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" s="12">
+        <v>1</v>
+      </c>
+      <c r="I119" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="13">
-        <v>46091</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D120" s="15">
-        <v>250</v>
-      </c>
-      <c r="E120" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F120" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H120" s="14">
-        <v>1</v>
-      </c>
-      <c r="I120" s="14">
-        <v>12</v>
+      <c r="A120" s="2">
+        <v>46099</v>
+      </c>
+      <c r="B120" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E120" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" t="s">
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>20</v>
+      </c>
+      <c r="H120">
+        <v>12</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>46099</v>
+        <v>46122</v>
       </c>
       <c r="B121" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C121" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D121" s="4">
-        <v>1800</v>
+        <v>270</v>
       </c>
       <c r="E121" t="s">
         <v>19</v>
@@ -4224,16 +4255,16 @@
         <v>46122</v>
       </c>
       <c r="B122" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D122" s="4">
-        <v>270</v>
+        <v>6569.5</v>
       </c>
       <c r="E122" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F122" t="s">
         <v>21</v>
@@ -4253,16 +4284,16 @@
         <v>46122</v>
       </c>
       <c r="B123" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C123" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D123" s="4">
-        <v>6569.5</v>
+        <v>55</v>
       </c>
       <c r="E123" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F123" t="s">
         <v>21</v>
@@ -4282,13 +4313,13 @@
         <v>46122</v>
       </c>
       <c r="B124" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D124" s="4">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E124" t="s">
         <v>19</v>
@@ -4311,13 +4342,13 @@
         <v>46122</v>
       </c>
       <c r="B125" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C125" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="D125" s="4">
-        <v>135</v>
+        <v>410</v>
       </c>
       <c r="E125" t="s">
         <v>19</v>
@@ -4329,10 +4360,10 @@
         <v>20</v>
       </c>
       <c r="H125">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4340,13 +4371,13 @@
         <v>46122</v>
       </c>
       <c r="B126" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C126" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="D126" s="4">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="E126" t="s">
         <v>19</v>
@@ -4366,16 +4397,16 @@
     </row>
     <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>46122</v>
+        <v>46130</v>
       </c>
       <c r="B127" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="C127" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D127" s="4">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="E127" t="s">
         <v>19</v>
@@ -4387,24 +4418,24 @@
         <v>20</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I127">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>46130</v>
+        <v>46152</v>
       </c>
       <c r="B128" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C128" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D128" s="4">
-        <v>1800</v>
+        <v>270</v>
       </c>
       <c r="E128" t="s">
         <v>19</v>
@@ -4427,16 +4458,16 @@
         <v>46152</v>
       </c>
       <c r="B129" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C129" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D129" s="4">
-        <v>270</v>
+        <v>6569.5</v>
       </c>
       <c r="E129" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F129" t="s">
         <v>21</v>
@@ -4456,16 +4487,16 @@
         <v>46152</v>
       </c>
       <c r="B130" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C130" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D130" s="4">
-        <v>6569.5</v>
+        <v>55</v>
       </c>
       <c r="E130" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F130" t="s">
         <v>21</v>
@@ -4485,13 +4516,13 @@
         <v>46152</v>
       </c>
       <c r="B131" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D131" s="4">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E131" t="s">
         <v>19</v>
@@ -4510,116 +4541,116 @@
       </c>
     </row>
     <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="2">
+      <c r="A132" s="11">
         <v>46152</v>
       </c>
-      <c r="B132" t="s">
-        <v>29</v>
-      </c>
-      <c r="C132" t="s">
-        <v>30</v>
-      </c>
-      <c r="D132" s="4">
-        <v>135</v>
-      </c>
-      <c r="E132" t="s">
-        <v>19</v>
-      </c>
-      <c r="F132" t="s">
-        <v>21</v>
-      </c>
-      <c r="G132" t="s">
-        <v>20</v>
-      </c>
-      <c r="H132">
-        <v>12</v>
-      </c>
-      <c r="I132">
-        <v>1</v>
+      <c r="B132" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D132" s="13">
+        <v>410</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132" s="12">
+        <v>1</v>
+      </c>
+      <c r="I132" s="12">
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="13">
+      <c r="A133" s="11">
         <v>46152</v>
       </c>
-      <c r="B133" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D133" s="15">
-        <v>410</v>
-      </c>
-      <c r="E133" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F133" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G133" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H133" s="14">
-        <v>1</v>
-      </c>
-      <c r="I133" s="14">
+      <c r="B133" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D133" s="13">
+        <v>250</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H133" s="12">
+        <v>1</v>
+      </c>
+      <c r="I133" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="13">
-        <v>46152</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C134" s="14" t="s">
+      <c r="A134" s="2">
+        <v>46160</v>
+      </c>
+      <c r="B134" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E134" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134" t="s">
+        <v>21</v>
+      </c>
+      <c r="G134" t="s">
+        <v>20</v>
+      </c>
+      <c r="H134">
+        <v>12</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>45843</v>
+      </c>
+      <c r="B135" t="s">
+        <v>96</v>
+      </c>
+      <c r="C135" t="s">
         <v>52</v>
       </c>
-      <c r="D134" s="15">
-        <v>250</v>
-      </c>
-      <c r="E134" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F134" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H134" s="14">
-        <v>1</v>
-      </c>
-      <c r="I134" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="2">
-        <v>46160</v>
-      </c>
-      <c r="B135" t="s">
-        <v>22</v>
-      </c>
-      <c r="C135" t="s">
-        <v>23</v>
-      </c>
       <c r="D135" s="4">
-        <v>1800</v>
+        <v>5</v>
       </c>
       <c r="E135" t="s">
         <v>19</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H135">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -4627,16 +4658,16 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>45853</v>
+        <v>45843</v>
       </c>
       <c r="B136" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C136" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D136" s="4">
-        <v>1247.24</v>
+        <v>2.99</v>
       </c>
       <c r="E136" t="s">
         <v>19</v>
@@ -4645,7 +4676,7 @@
         <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -4656,42 +4687,535 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
+        <v>45843</v>
+      </c>
+      <c r="B137" t="s">
+        <v>98</v>
+      </c>
+      <c r="C137" t="s">
+        <v>94</v>
+      </c>
+      <c r="D137" s="4">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="E137" t="s">
+        <v>19</v>
+      </c>
+      <c r="F137" t="s">
+        <v>34</v>
+      </c>
+      <c r="G137" t="s">
+        <v>31</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="10">
+        <v>45848</v>
+      </c>
+      <c r="B138" t="s">
+        <v>47</v>
+      </c>
+      <c r="C138" t="s">
+        <v>48</v>
+      </c>
+      <c r="D138" s="4">
+        <v>179.81</v>
+      </c>
+      <c r="E138" t="s">
+        <v>19</v>
+      </c>
+      <c r="F138" t="s">
+        <v>34</v>
+      </c>
+      <c r="G138" t="s">
+        <v>31</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B139" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" s="4">
+        <v>270</v>
+      </c>
+      <c r="E139" t="s">
+        <v>19</v>
+      </c>
+      <c r="F139" t="s">
+        <v>21</v>
+      </c>
+      <c r="G139" t="s">
+        <v>20</v>
+      </c>
+      <c r="H139">
+        <v>12</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
+        <v>45842</v>
+      </c>
+      <c r="B140" t="s">
+        <v>92</v>
+      </c>
+      <c r="C140" t="s">
+        <v>58</v>
+      </c>
+      <c r="D140" s="4">
+        <v>100</v>
+      </c>
+      <c r="E140" t="s">
+        <v>26</v>
+      </c>
+      <c r="F140" t="s">
+        <v>34</v>
+      </c>
+      <c r="G140" t="s">
+        <v>31</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B141" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" s="4">
+        <v>55</v>
+      </c>
+      <c r="E141" t="s">
+        <v>19</v>
+      </c>
+      <c r="F141" t="s">
+        <v>21</v>
+      </c>
+      <c r="G141" t="s">
+        <v>20</v>
+      </c>
+      <c r="H141">
+        <v>12</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B142" t="s">
+        <v>29</v>
+      </c>
+      <c r="C142" t="s">
+        <v>30</v>
+      </c>
+      <c r="D142" s="4">
+        <v>135</v>
+      </c>
+      <c r="E142" t="s">
+        <v>19</v>
+      </c>
+      <c r="F142" t="s">
+        <v>21</v>
+      </c>
+      <c r="G142" t="s">
+        <v>20</v>
+      </c>
+      <c r="H142">
+        <v>12</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B143" t="s">
+        <v>37</v>
+      </c>
+      <c r="C143" t="s">
+        <v>38</v>
+      </c>
+      <c r="D143" s="4">
+        <v>568</v>
+      </c>
+      <c r="E143" t="s">
+        <v>19</v>
+      </c>
+      <c r="F143" t="s">
+        <v>34</v>
+      </c>
+      <c r="G143" t="s">
+        <v>31</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B144" t="s">
+        <v>40</v>
+      </c>
+      <c r="C144" t="s">
+        <v>36</v>
+      </c>
+      <c r="D144" s="4">
+        <v>149.6</v>
+      </c>
+      <c r="E144" t="s">
+        <v>19</v>
+      </c>
+      <c r="F144" t="s">
+        <v>34</v>
+      </c>
+      <c r="G144" t="s">
+        <v>20</v>
+      </c>
+      <c r="H144">
+        <v>6</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B145" t="s">
+        <v>83</v>
+      </c>
+      <c r="C145" t="s">
+        <v>52</v>
+      </c>
+      <c r="D145" s="4">
+        <v>250</v>
+      </c>
+      <c r="E145" t="s">
+        <v>19</v>
+      </c>
+      <c r="F145" t="s">
+        <v>21</v>
+      </c>
+      <c r="G145" t="s">
+        <v>20</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B146" t="s">
+        <v>84</v>
+      </c>
+      <c r="C146" t="s">
+        <v>85</v>
+      </c>
+      <c r="D146" s="4">
+        <v>410</v>
+      </c>
+      <c r="E146" t="s">
+        <v>19</v>
+      </c>
+      <c r="F146" t="s">
+        <v>21</v>
+      </c>
+      <c r="G146" t="s">
+        <v>20</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>45842</v>
+      </c>
+      <c r="B147" t="s">
+        <v>99</v>
+      </c>
+      <c r="C147" t="s">
+        <v>94</v>
+      </c>
+      <c r="D147" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="E147" t="s">
+        <v>19</v>
+      </c>
+      <c r="F147" t="s">
+        <v>34</v>
+      </c>
+      <c r="G147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B148" t="s">
+        <v>87</v>
+      </c>
+      <c r="C148" t="s">
+        <v>44</v>
+      </c>
+      <c r="D148" s="4">
+        <v>1247.24</v>
+      </c>
+      <c r="E148" t="s">
+        <v>19</v>
+      </c>
+      <c r="F148" t="s">
+        <v>34</v>
+      </c>
+      <c r="G148" t="s">
+        <v>20</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B149" t="s">
+        <v>24</v>
+      </c>
+      <c r="C149" t="s">
+        <v>25</v>
+      </c>
+      <c r="D149" s="4">
+        <v>6569.5</v>
+      </c>
+      <c r="E149" t="s">
+        <v>26</v>
+      </c>
+      <c r="F149" t="s">
+        <v>21</v>
+      </c>
+      <c r="G149" t="s">
+        <v>20</v>
+      </c>
+      <c r="H149">
+        <v>12</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>45856</v>
+      </c>
+      <c r="B150" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" t="s">
+        <v>23</v>
+      </c>
+      <c r="D150" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E150" t="s">
+        <v>19</v>
+      </c>
+      <c r="F150" t="s">
+        <v>21</v>
+      </c>
+      <c r="G150" t="s">
+        <v>20</v>
+      </c>
+      <c r="H150">
+        <v>12</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
+        <v>45858</v>
+      </c>
+      <c r="B151" t="s">
+        <v>86</v>
+      </c>
+      <c r="C151" t="s">
+        <v>36</v>
+      </c>
+      <c r="D151" s="4">
+        <v>916.02</v>
+      </c>
+      <c r="E151" t="s">
+        <v>19</v>
+      </c>
+      <c r="F151" t="s">
+        <v>21</v>
+      </c>
+      <c r="G151" t="s">
+        <v>20</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
         <v>45854</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B152" t="s">
+        <v>88</v>
+      </c>
+      <c r="C152" t="s">
         <v>89</v>
       </c>
-      <c r="C137" t="s">
-        <v>90</v>
-      </c>
-      <c r="D137" s="4">
+      <c r="D152" s="4">
         <v>500</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E152" t="s">
         <v>26</v>
       </c>
-      <c r="F137" t="s">
-        <v>34</v>
-      </c>
-      <c r="G137" t="s">
-        <v>31</v>
-      </c>
-      <c r="H137">
-        <v>1</v>
-      </c>
-      <c r="I137">
+      <c r="F152" t="s">
+        <v>34</v>
+      </c>
+      <c r="G152" t="s">
+        <v>31</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>45839</v>
+      </c>
+      <c r="B153" t="s">
+        <v>101</v>
+      </c>
+      <c r="C153" t="s">
+        <v>54</v>
+      </c>
+      <c r="D153" s="4">
+        <v>6.67</v>
+      </c>
+      <c r="E153" t="s">
+        <v>19</v>
+      </c>
+      <c r="F153" t="s">
+        <v>34</v>
+      </c>
+      <c r="G153" t="s">
+        <v>31</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>45839</v>
+      </c>
+      <c r="B154" t="s">
+        <v>101</v>
+      </c>
+      <c r="C154" t="s">
+        <v>54</v>
+      </c>
+      <c r="D154" s="4">
+        <v>6.67</v>
+      </c>
+      <c r="E154" t="s">
+        <v>19</v>
+      </c>
+      <c r="F154" t="s">
+        <v>34</v>
+      </c>
+      <c r="G154" t="s">
+        <v>31</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I137" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <autoFilter ref="A1:I154" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2025" month="7" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I135">
-      <sortCondition ref="A1:A135"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:I152">
+      <sortCondition ref="A1:A154"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4779,11 +5303,11 @@
         <v>45838</v>
       </c>
       <c r="B2" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$985="Income")*(LANCAMENTOS!$D$2:$D$985))</f>
         <v>6909.5</v>
       </c>
       <c r="C2" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$985="Expense")*(LANCAMENTOS!$D$2:$D$985))</f>
         <v>6764.2199999999984</v>
       </c>
       <c r="D2" s="4">
@@ -4801,20 +5325,20 @@
         <v>45869</v>
       </c>
       <c r="B3" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
-        <v>7809.5</v>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$985="Income")*(LANCAMENTOS!$D$2:$D$985))</f>
+        <v>7719.5</v>
       </c>
       <c r="C3" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
-        <v>5980.67</v>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$985="Expense")*(LANCAMENTOS!$D$2:$D$985))</f>
+        <v>6581.59</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>1828.83</v>
+        <v>1137.9099999999999</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E13" si="1">E2+D3</f>
-        <v>1974.1100000000015</v>
+        <v>1283.1900000000014</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4823,11 +5347,11 @@
         <v>45900</v>
       </c>
       <c r="B4" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$985="Income")*(LANCAMENTOS!$D$2:$D$985))</f>
         <v>6569.5</v>
       </c>
       <c r="C4" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$985="Expense")*(LANCAMENTOS!$D$2:$D$985))</f>
         <v>7213.62</v>
       </c>
       <c r="D4" s="4">
@@ -4836,7 +5360,7 @@
       </c>
       <c r="E4" s="4">
         <f t="shared" si="1"/>
-        <v>1329.9900000000016</v>
+        <v>639.07000000000153</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4845,11 +5369,11 @@
         <v>45930</v>
       </c>
       <c r="B5" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$985="Income")*(LANCAMENTOS!$D$2:$D$985))</f>
         <v>6569.5</v>
       </c>
       <c r="C5" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$985="Expense")*(LANCAMENTOS!$D$2:$D$985))</f>
         <v>3985.62</v>
       </c>
       <c r="D5" s="4">
@@ -4858,7 +5382,7 @@
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>3913.8700000000017</v>
+        <v>3222.9500000000016</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4867,11 +5391,11 @@
         <v>45961</v>
       </c>
       <c r="B6" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A6,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A6,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A6,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A6,0))*(LANCAMENTOS!$E$2:$E$985="Income")*(LANCAMENTOS!$D$2:$D$985))</f>
         <v>6569.5</v>
       </c>
       <c r="C6" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A6,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A6,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A6,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A6,0))*(LANCAMENTOS!$E$2:$E$985="Expense")*(LANCAMENTOS!$D$2:$D$985))</f>
         <v>3985.62</v>
       </c>
       <c r="D6" s="4">
@@ -4880,7 +5404,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>6497.7500000000018</v>
+        <v>5806.8300000000017</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4889,11 +5413,11 @@
         <v>45991</v>
       </c>
       <c r="B7" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A7,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A7,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A7,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A7,0))*(LANCAMENTOS!$E$2:$E$985="Income")*(LANCAMENTOS!$D$2:$D$985))</f>
         <v>6569.5</v>
       </c>
       <c r="C7" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A7,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A7,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A7,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A7,0))*(LANCAMENTOS!$E$2:$E$985="Expense")*(LANCAMENTOS!$D$2:$D$985))</f>
         <v>3985.62</v>
       </c>
       <c r="D7" s="4">
@@ -4902,7 +5426,7 @@
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>9081.630000000001</v>
+        <v>8390.7100000000028</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4911,11 +5435,11 @@
         <v>46022</v>
       </c>
       <c r="B8" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A8,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A8,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A8,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A8,0))*(LANCAMENTOS!$E$2:$E$985="Income")*(LANCAMENTOS!$D$2:$D$985))</f>
         <v>6569.5</v>
       </c>
       <c r="C8" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A8,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A8,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A8,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A8,0))*(LANCAMENTOS!$E$2:$E$985="Expense")*(LANCAMENTOS!$D$2:$D$985))</f>
         <v>3836.02</v>
       </c>
       <c r="D8" s="4">
@@ -4924,7 +5448,7 @@
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>11815.11</v>
+        <v>11124.190000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4933,11 +5457,11 @@
         <v>46053</v>
       </c>
       <c r="B9" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A9,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A9,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A9,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A9,0))*(LANCAMENTOS!$E$2:$E$985="Income")*(LANCAMENTOS!$D$2:$D$985))</f>
         <v>6569.5</v>
       </c>
       <c r="C9" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A9,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A9,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A9,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A9,0))*(LANCAMENTOS!$E$2:$E$985="Expense")*(LANCAMENTOS!$D$2:$D$985))</f>
         <v>2920</v>
       </c>
       <c r="D9" s="4">
@@ -4946,7 +5470,7 @@
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>15464.61</v>
+        <v>14773.690000000002</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -4955,11 +5479,11 @@
         <v>46081</v>
       </c>
       <c r="B10" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A10,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A10,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A10,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A10,0))*(LANCAMENTOS!$E$2:$E$985="Income")*(LANCAMENTOS!$D$2:$D$985))</f>
         <v>6569.5</v>
       </c>
       <c r="C10" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A10,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A10,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A10,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A10,0))*(LANCAMENTOS!$E$2:$E$985="Expense")*(LANCAMENTOS!$D$2:$D$985))</f>
         <v>2920</v>
       </c>
       <c r="D10" s="4">
@@ -4968,7 +5492,7 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>19114.11</v>
+        <v>18423.190000000002</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -4977,11 +5501,11 @@
         <v>46112</v>
       </c>
       <c r="B11" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A11,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A11,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A11,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A11,0))*(LANCAMENTOS!$E$2:$E$985="Income")*(LANCAMENTOS!$D$2:$D$985))</f>
         <v>6569.5</v>
       </c>
       <c r="C11" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A11,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A11,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A11,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A11,0))*(LANCAMENTOS!$E$2:$E$985="Expense")*(LANCAMENTOS!$D$2:$D$985))</f>
         <v>2920</v>
       </c>
       <c r="D11" s="4">
@@ -4990,7 +5514,7 @@
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>22763.61</v>
+        <v>22072.690000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -4999,11 +5523,11 @@
         <v>46142</v>
       </c>
       <c r="B12" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A12,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A12,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A12,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A12,0))*(LANCAMENTOS!$E$2:$E$985="Income")*(LANCAMENTOS!$D$2:$D$985))</f>
         <v>6569.5</v>
       </c>
       <c r="C12" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A12,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A12,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A12,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A12,0))*(LANCAMENTOS!$E$2:$E$985="Expense")*(LANCAMENTOS!$D$2:$D$985))</f>
         <v>2920</v>
       </c>
       <c r="D12" s="4">
@@ -5012,7 +5536,7 @@
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>26413.11</v>
+        <v>25722.190000000002</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -5021,11 +5545,11 @@
         <v>46173</v>
       </c>
       <c r="B13" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A13,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A13,0))*(LANCAMENTOS!$E$2:$E$986="Income")*(LANCAMENTOS!$D$2:$D$986))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A13,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A13,0))*(LANCAMENTOS!$E$2:$E$985="Income")*(LANCAMENTOS!$D$2:$D$985))</f>
         <v>6569.5</v>
       </c>
       <c r="C13" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$986&gt;=EOMONTH($A13,-1)+1)*(LANCAMENTOS!$A$2:$A$986&lt;=EOMONTH($A13,0))*(LANCAMENTOS!$E$2:$E$986="Expense")*(LANCAMENTOS!$D$2:$D$986))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A13,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A13,0))*(LANCAMENTOS!$E$2:$E$985="Expense")*(LANCAMENTOS!$D$2:$D$985))</f>
         <v>2920</v>
       </c>
       <c r="D13" s="4">
@@ -5034,7 +5558,7 @@
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>30062.61</v>
+        <v>29371.690000000002</v>
       </c>
     </row>
   </sheetData>

--- a/fluxo_caixa.xlsx
+++ b/fluxo_caixa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandremoreira/Documents/py_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773D2FC9-52CB-D949-8A82-F2C7127D5214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09374D6F-0391-F54C-A632-4572AB86A9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LANCAMENTOS" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="SUMMARY" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANCAMENTOS!$A$1:$I$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANCAMENTOS!$A$1:$I$157</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="108">
   <si>
     <t>Data</t>
   </si>
@@ -151,9 +151,6 @@
     <t>Lazer</t>
   </si>
   <si>
-    <t>Roupa Casamento</t>
-  </si>
-  <si>
     <t>Vestuário</t>
   </si>
   <si>
@@ -344,6 +341,27 @@
   </si>
   <si>
     <t>Zul+</t>
+  </si>
+  <si>
+    <t>Festa Junina (CC Dina)</t>
+  </si>
+  <si>
+    <t>Drogaria (CC Dina)</t>
+  </si>
+  <si>
+    <t>Estacionamento (CC Dina)</t>
+  </si>
+  <si>
+    <t>Roupa Casamento (CC Dina)</t>
+  </si>
+  <si>
+    <t>Certificado (CC Dina)</t>
+  </si>
+  <si>
+    <t>Utilidade</t>
+  </si>
+  <si>
+    <t>Baccio (CC Dina)</t>
   </si>
 </sst>
 </file>
@@ -726,16 +744,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="15" style="4" customWidth="1"/>
     <col min="5" max="9" width="15" customWidth="1"/>
@@ -775,10 +793,10 @@
         <v>45812</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="D2" s="9">
         <v>290</v>
@@ -804,10 +822,10 @@
         <v>45812</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="D3" s="9">
         <v>179.81</v>
@@ -833,10 +851,10 @@
         <v>45813</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="D4" s="9">
         <v>20</v>
@@ -891,10 +909,10 @@
         <v>45814</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="D6" s="9">
         <v>8.99</v>
@@ -920,10 +938,10 @@
         <v>45814</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="D7" s="9">
         <v>6</v>
@@ -1036,7 +1054,7 @@
         <v>45818</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>36</v>
@@ -1065,7 +1083,7 @@
         <v>45818</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>18</v>
@@ -1077,7 +1095,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>31</v>
@@ -1094,10 +1112,10 @@
         <v>45818</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="D13" s="9">
         <v>735.01</v>
@@ -1123,10 +1141,10 @@
         <v>45818</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="9">
         <v>279</v>
@@ -1181,10 +1199,10 @@
         <v>45818</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="D16" s="9">
         <v>813.65</v>
@@ -1210,10 +1228,10 @@
         <v>45818</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="D17" s="9">
         <v>39.799999999999997</v>
@@ -1239,10 +1257,10 @@
         <v>45818</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="9">
         <v>119.98</v>
@@ -1268,10 +1286,10 @@
         <v>45818</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="9">
         <v>50</v>
@@ -1297,10 +1315,10 @@
         <v>45819</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="9">
         <v>5</v>
@@ -1326,10 +1344,10 @@
         <v>45819</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="9">
         <v>165</v>
@@ -1338,7 +1356,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>31</v>
@@ -1355,10 +1373,10 @@
         <v>45819</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="D22" s="9">
         <v>185</v>
@@ -1384,10 +1402,10 @@
         <v>45820</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="9">
         <v>65</v>
@@ -1413,10 +1431,10 @@
         <v>45820</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="D24" s="9">
         <v>19.8</v>
@@ -1471,10 +1489,10 @@
         <v>45821</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="9">
         <v>10</v>
@@ -1500,10 +1518,10 @@
         <v>45821</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="9">
         <v>109.28</v>
@@ -1529,10 +1547,10 @@
         <v>45821</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="9">
         <v>66.28</v>
@@ -1558,7 +1576,7 @@
         <v>45821</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>33</v>
@@ -1587,10 +1605,10 @@
         <v>45822</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="9">
         <v>15.98</v>
@@ -1616,10 +1634,10 @@
         <v>45822</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="9">
         <v>18.98</v>
@@ -1645,10 +1663,10 @@
         <v>45822</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="9">
         <v>132.93</v>
@@ -1674,10 +1692,10 @@
         <v>45825</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" s="9">
         <v>3.59</v>
@@ -1703,10 +1721,10 @@
         <v>45827</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" s="9">
         <v>26.09</v>
@@ -1732,7 +1750,7 @@
         <v>45828</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>33</v>
@@ -1761,10 +1779,10 @@
         <v>45828</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="9">
         <v>7.99</v>
@@ -1790,10 +1808,10 @@
         <v>45828</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="D37" s="9">
         <v>2</v>
@@ -1819,7 +1837,7 @@
         <v>45828</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>33</v>
@@ -1848,10 +1866,10 @@
         <v>45828</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="D39" s="9">
         <v>50</v>
@@ -1877,10 +1895,10 @@
         <v>45828</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="9">
         <v>15</v>
@@ -1906,10 +1924,10 @@
         <v>45829</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41" s="9">
         <v>32.97</v>
@@ -1935,10 +1953,10 @@
         <v>45830</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D42" s="9">
         <v>8.99</v>
@@ -1964,10 +1982,10 @@
         <v>45839</v>
       </c>
       <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
         <v>45</v>
-      </c>
-      <c r="C43" t="s">
-        <v>46</v>
       </c>
       <c r="D43" s="4">
         <v>500</v>
@@ -1993,10 +2011,10 @@
         <v>45839</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44" s="4">
         <v>12.78</v>
@@ -2022,10 +2040,10 @@
         <v>45839</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D45" s="4">
         <v>3.99</v>
@@ -2048,19 +2066,19 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>45840</v>
+        <v>45839</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D46" s="4">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F46" t="s">
         <v>34</v>
@@ -2077,16 +2095,16 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>45840</v>
+        <v>45839</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D47" s="4">
-        <v>132</v>
+        <v>6.67</v>
       </c>
       <c r="E47" t="s">
         <v>19</v>
@@ -2106,16 +2124,16 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>45841</v>
+        <v>45839</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D48" s="4">
-        <v>60</v>
+        <v>6.67</v>
       </c>
       <c r="E48" t="s">
         <v>19</v>
@@ -2135,13 +2153,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>45841</v>
+        <v>45840</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D49" s="4">
         <v>18</v>
@@ -2164,16 +2182,16 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>45842</v>
+        <v>45840</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D50" s="4">
-        <v>137.9</v>
+        <v>132</v>
       </c>
       <c r="E50" t="s">
         <v>19</v>
@@ -2193,16 +2211,16 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>45842</v>
+        <v>45841</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D51" s="4">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E51" t="s">
         <v>19</v>
@@ -2222,19 +2240,19 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D52" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
         <v>34</v>
@@ -2254,13 +2272,13 @@
         <v>45842</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D53" s="4">
-        <v>50.94</v>
+        <v>137.9</v>
       </c>
       <c r="E53" t="s">
         <v>19</v>
@@ -2280,16 +2298,16 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>45843</v>
+        <v>45842</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D54" s="4">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="E54" t="s">
         <v>19</v>
@@ -2428,7 +2446,7 @@
         <v>45879</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
         <v>36</v>
@@ -2457,7 +2475,7 @@
         <v>45879</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
         <v>36</v>
@@ -2486,10 +2504,10 @@
         <v>45879</v>
       </c>
       <c r="B61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" t="s">
         <v>84</v>
-      </c>
-      <c r="C61" t="s">
-        <v>85</v>
       </c>
       <c r="D61" s="4">
         <v>410</v>
@@ -2515,10 +2533,10 @@
         <v>45879</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D62" s="4">
         <v>250</v>
@@ -2559,7 +2577,7 @@
         <v>21</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -2718,7 +2736,7 @@
         <v>45910</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C69" t="s">
         <v>36</v>
@@ -2747,7 +2765,7 @@
         <v>45910</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
         <v>36</v>
@@ -2776,10 +2794,10 @@
         <v>45910</v>
       </c>
       <c r="B71" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>85</v>
       </c>
       <c r="D71" s="13">
         <v>410</v>
@@ -2805,10 +2823,10 @@
         <v>45910</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D72" s="13">
         <v>250</v>
@@ -2979,7 +2997,7 @@
         <v>45940</v>
       </c>
       <c r="B78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C78" t="s">
         <v>36</v>
@@ -3008,7 +3026,7 @@
         <v>45940</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C79" t="s">
         <v>36</v>
@@ -3037,10 +3055,10 @@
         <v>45940</v>
       </c>
       <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" t="s">
         <v>84</v>
-      </c>
-      <c r="C80" t="s">
-        <v>85</v>
       </c>
       <c r="D80" s="4">
         <v>410</v>
@@ -3066,10 +3084,10 @@
         <v>45940</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D81" s="4">
         <v>250</v>
@@ -3240,7 +3258,7 @@
         <v>45971</v>
       </c>
       <c r="B87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C87" t="s">
         <v>36</v>
@@ -3269,7 +3287,7 @@
         <v>45971</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" t="s">
         <v>36</v>
@@ -3298,10 +3316,10 @@
         <v>45971</v>
       </c>
       <c r="B89" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>85</v>
       </c>
       <c r="D89" s="13">
         <v>410</v>
@@ -3327,10 +3345,10 @@
         <v>45971</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D90" s="13">
         <v>250</v>
@@ -3501,7 +3519,7 @@
         <v>46001</v>
       </c>
       <c r="B96" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C96" t="s">
         <v>36</v>
@@ -3530,10 +3548,10 @@
         <v>46001</v>
       </c>
       <c r="B97" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" t="s">
         <v>84</v>
-      </c>
-      <c r="C97" t="s">
-        <v>85</v>
       </c>
       <c r="D97" s="4">
         <v>410</v>
@@ -3559,10 +3577,10 @@
         <v>46001</v>
       </c>
       <c r="B98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C98" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D98" s="4">
         <v>250</v>
@@ -3733,10 +3751,10 @@
         <v>46032</v>
       </c>
       <c r="B104" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C104" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>85</v>
       </c>
       <c r="D104" s="13">
         <v>410</v>
@@ -3762,10 +3780,10 @@
         <v>46032</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D105" s="13">
         <v>250</v>
@@ -3936,10 +3954,10 @@
         <v>46063</v>
       </c>
       <c r="B111" t="s">
+        <v>83</v>
+      </c>
+      <c r="C111" t="s">
         <v>84</v>
-      </c>
-      <c r="C111" t="s">
-        <v>85</v>
       </c>
       <c r="D111" s="4">
         <v>410</v>
@@ -3965,10 +3983,10 @@
         <v>46063</v>
       </c>
       <c r="B112" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C112" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D112" s="4">
         <v>250</v>
@@ -4139,10 +4157,10 @@
         <v>46091</v>
       </c>
       <c r="B118" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C118" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>85</v>
       </c>
       <c r="D118" s="13">
         <v>410</v>
@@ -4168,10 +4186,10 @@
         <v>46091</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D119" s="13">
         <v>250</v>
@@ -4342,10 +4360,10 @@
         <v>46122</v>
       </c>
       <c r="B125" t="s">
+        <v>83</v>
+      </c>
+      <c r="C125" t="s">
         <v>84</v>
-      </c>
-      <c r="C125" t="s">
-        <v>85</v>
       </c>
       <c r="D125" s="4">
         <v>410</v>
@@ -4371,10 +4389,10 @@
         <v>46122</v>
       </c>
       <c r="B126" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C126" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D126" s="4">
         <v>250</v>
@@ -4545,10 +4563,10 @@
         <v>46152</v>
       </c>
       <c r="B132" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C132" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>85</v>
       </c>
       <c r="D132" s="13">
         <v>410</v>
@@ -4574,10 +4592,10 @@
         <v>46152</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D133" s="13">
         <v>250</v>
@@ -4629,16 +4647,16 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>45843</v>
+        <v>45842</v>
       </c>
       <c r="B135" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D135" s="4">
-        <v>5</v>
+        <v>50.94</v>
       </c>
       <c r="E135" t="s">
         <v>19</v>
@@ -4658,19 +4676,19 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>45843</v>
+        <v>45842</v>
       </c>
       <c r="B136" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C136" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D136" s="4">
-        <v>2.99</v>
+        <v>100</v>
       </c>
       <c r="E136" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F136" t="s">
         <v>34</v>
@@ -4687,45 +4705,45 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>45843</v>
+        <v>45842</v>
       </c>
       <c r="B137" t="s">
         <v>98</v>
       </c>
       <c r="C137" t="s">
+        <v>93</v>
+      </c>
+      <c r="D137" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="E137" t="s">
+        <v>19</v>
+      </c>
+      <c r="F137" t="s">
+        <v>34</v>
+      </c>
+      <c r="G137" t="s">
+        <v>31</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
+        <v>45843</v>
+      </c>
+      <c r="B138" t="s">
         <v>94</v>
       </c>
-      <c r="D137" s="4">
-        <v>16.579999999999998</v>
-      </c>
-      <c r="E137" t="s">
-        <v>19</v>
-      </c>
-      <c r="F137" t="s">
-        <v>34</v>
-      </c>
-      <c r="G137" t="s">
-        <v>31</v>
-      </c>
-      <c r="H137">
-        <v>1</v>
-      </c>
-      <c r="I137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138" s="10">
-        <v>45848</v>
-      </c>
-      <c r="B138" t="s">
-        <v>47</v>
-      </c>
       <c r="C138" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D138" s="4">
-        <v>179.81</v>
+        <v>100</v>
       </c>
       <c r="E138" t="s">
         <v>19</v>
@@ -4745,28 +4763,28 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>45848</v>
+        <v>45843</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="C139" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D139" s="4">
-        <v>270</v>
+        <v>5</v>
       </c>
       <c r="E139" t="s">
         <v>19</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H139">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -4774,19 +4792,19 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>45842</v>
+        <v>45843</v>
       </c>
       <c r="B140" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C140" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D140" s="4">
-        <v>100</v>
+        <v>2.99</v>
       </c>
       <c r="E140" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
         <v>34</v>
@@ -4803,57 +4821,57 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
+        <v>45843</v>
+      </c>
+      <c r="B141" t="s">
+        <v>97</v>
+      </c>
+      <c r="C141" t="s">
+        <v>93</v>
+      </c>
+      <c r="D141" s="4">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="E141" t="s">
+        <v>19</v>
+      </c>
+      <c r="F141" t="s">
+        <v>34</v>
+      </c>
+      <c r="G141" t="s">
+        <v>31</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="10">
         <v>45848</v>
       </c>
-      <c r="B141" t="s">
-        <v>27</v>
-      </c>
-      <c r="C141" t="s">
-        <v>28</v>
-      </c>
-      <c r="D141" s="4">
-        <v>55</v>
-      </c>
-      <c r="E141" t="s">
-        <v>19</v>
-      </c>
-      <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" t="s">
-        <v>20</v>
-      </c>
-      <c r="H141">
-        <v>12</v>
-      </c>
-      <c r="I141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
-        <v>45848</v>
-      </c>
       <c r="B142" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C142" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D142" s="4">
-        <v>135</v>
+        <v>179.81</v>
       </c>
       <c r="E142" t="s">
         <v>19</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H142">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -4864,25 +4882,25 @@
         <v>45848</v>
       </c>
       <c r="B143" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C143" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D143" s="4">
-        <v>568</v>
+        <v>270</v>
       </c>
       <c r="E143" t="s">
         <v>19</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -4893,28 +4911,28 @@
         <v>45848</v>
       </c>
       <c r="B144" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C144" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D144" s="4">
-        <v>149.6</v>
+        <v>55</v>
       </c>
       <c r="E144" t="s">
         <v>19</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G144" t="s">
         <v>20</v>
       </c>
       <c r="H144">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -4922,13 +4940,13 @@
         <v>45848</v>
       </c>
       <c r="B145" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="C145" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D145" s="4">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="E145" t="s">
         <v>19</v>
@@ -4940,10 +4958,10 @@
         <v>20</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I145">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -4951,42 +4969,42 @@
         <v>45848</v>
       </c>
       <c r="B146" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C146" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="D146" s="4">
-        <v>410</v>
+        <v>568</v>
       </c>
       <c r="E146" t="s">
         <v>19</v>
       </c>
       <c r="F146" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G146" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H146">
         <v>1</v>
       </c>
       <c r="I146">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>45842</v>
+        <v>45848</v>
       </c>
       <c r="B147" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="C147" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="D147" s="4">
-        <v>11.4</v>
+        <v>149.6</v>
       </c>
       <c r="E147" t="s">
         <v>19</v>
@@ -4995,33 +5013,33 @@
         <v>34</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>45853</v>
+        <v>45848</v>
       </c>
       <c r="B148" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C148" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D148" s="4">
-        <v>1247.24</v>
+        <v>250</v>
       </c>
       <c r="E148" t="s">
         <v>19</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G148" t="s">
         <v>20</v>
@@ -5030,7 +5048,7 @@
         <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -5038,16 +5056,16 @@
         <v>45848</v>
       </c>
       <c r="B149" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C149" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="D149" s="4">
-        <v>6569.5</v>
+        <v>410</v>
       </c>
       <c r="E149" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F149" t="s">
         <v>21</v>
@@ -5056,27 +5074,27 @@
         <v>20</v>
       </c>
       <c r="H149">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>45856</v>
+        <v>45848</v>
       </c>
       <c r="B150" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C150" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D150" s="4">
-        <v>1800</v>
+        <v>6569.5</v>
       </c>
       <c r="E150" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F150" t="s">
         <v>21</v>
@@ -5093,48 +5111,48 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>45858</v>
+        <v>45848</v>
       </c>
       <c r="B151" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C151" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D151" s="4">
-        <v>916.02</v>
+        <v>140.99</v>
       </c>
       <c r="E151" t="s">
         <v>19</v>
       </c>
       <c r="F151" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G151" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H151">
         <v>1</v>
       </c>
       <c r="I151">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>45854</v>
+        <v>45848</v>
       </c>
       <c r="B152" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C152" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D152" s="4">
-        <v>500</v>
+        <v>54.89</v>
       </c>
       <c r="E152" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F152" t="s">
         <v>34</v>
@@ -5151,16 +5169,16 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>45839</v>
+        <v>45848</v>
       </c>
       <c r="B153" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C153" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D153" s="4">
-        <v>6.67</v>
+        <v>22</v>
       </c>
       <c r="E153" t="s">
         <v>19</v>
@@ -5180,16 +5198,16 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
-        <v>45839</v>
+        <v>45853</v>
       </c>
       <c r="B154" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C154" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D154" s="4">
-        <v>6.67</v>
+        <v>1247.24</v>
       </c>
       <c r="E154" t="s">
         <v>19</v>
@@ -5198,7 +5216,7 @@
         <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -5207,15 +5225,160 @@
         <v>1</v>
       </c>
     </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
+        <v>45854</v>
+      </c>
+      <c r="B155" t="s">
+        <v>87</v>
+      </c>
+      <c r="C155" t="s">
+        <v>88</v>
+      </c>
+      <c r="D155" s="4">
+        <v>500</v>
+      </c>
+      <c r="E155" t="s">
+        <v>26</v>
+      </c>
+      <c r="F155" t="s">
+        <v>34</v>
+      </c>
+      <c r="G155" t="s">
+        <v>31</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
+        <v>45856</v>
+      </c>
+      <c r="B156" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" t="s">
+        <v>23</v>
+      </c>
+      <c r="D156" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E156" t="s">
+        <v>19</v>
+      </c>
+      <c r="F156" t="s">
+        <v>21</v>
+      </c>
+      <c r="G156" t="s">
+        <v>20</v>
+      </c>
+      <c r="H156">
+        <v>12</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
+        <v>45858</v>
+      </c>
+      <c r="B157" t="s">
+        <v>85</v>
+      </c>
+      <c r="C157" t="s">
+        <v>36</v>
+      </c>
+      <c r="D157" s="4">
+        <v>916.02</v>
+      </c>
+      <c r="E157" t="s">
+        <v>19</v>
+      </c>
+      <c r="F157" t="s">
+        <v>21</v>
+      </c>
+      <c r="G157" t="s">
+        <v>20</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B158" t="s">
+        <v>105</v>
+      </c>
+      <c r="C158" t="s">
+        <v>106</v>
+      </c>
+      <c r="D158" s="4">
+        <v>220</v>
+      </c>
+      <c r="E158" t="s">
+        <v>19</v>
+      </c>
+      <c r="F158" t="s">
+        <v>34</v>
+      </c>
+      <c r="G158" t="s">
+        <v>31</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>45848</v>
+      </c>
+      <c r="B159" t="s">
+        <v>107</v>
+      </c>
+      <c r="C159" t="s">
+        <v>33</v>
+      </c>
+      <c r="D159" s="4">
+        <v>63</v>
+      </c>
+      <c r="E159" t="s">
+        <v>19</v>
+      </c>
+      <c r="F159" t="s">
+        <v>34</v>
+      </c>
+      <c r="G159" t="s">
+        <v>31</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I154" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <autoFilter ref="A1:I157" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2025" month="7" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:I152">
-      <sortCondition ref="A1:A154"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:I157">
+      <sortCondition ref="A1:A157"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5330,15 +5493,15 @@
       </c>
       <c r="C3" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$985&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$985&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$985="Expense")*(LANCAMENTOS!$D$2:$D$985))</f>
-        <v>6581.59</v>
+        <v>7082.4699999999993</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>1137.9099999999999</v>
+        <v>637.03000000000065</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ref="E3:E13" si="1">E2+D3</f>
-        <v>1283.1900000000014</v>
+        <v>782.31000000000222</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5360,7 +5523,7 @@
       </c>
       <c r="E4" s="4">
         <f t="shared" si="1"/>
-        <v>639.07000000000153</v>
+        <v>138.19000000000233</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5382,7 +5545,7 @@
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>3222.9500000000016</v>
+        <v>2722.0700000000024</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -5404,7 +5567,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>5806.8300000000017</v>
+        <v>5305.9500000000025</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -5426,7 +5589,7 @@
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>8390.7100000000028</v>
+        <v>7889.8300000000027</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -5448,7 +5611,7 @@
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>11124.190000000002</v>
+        <v>10623.310000000003</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5470,7 +5633,7 @@
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>14773.690000000002</v>
+        <v>14272.810000000003</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -5492,7 +5655,7 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>18423.190000000002</v>
+        <v>17922.310000000005</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -5514,7 +5677,7 @@
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>22072.690000000002</v>
+        <v>21571.810000000005</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -5536,7 +5699,7 @@
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>25722.190000000002</v>
+        <v>25221.310000000005</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -5558,7 +5721,7 @@
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>29371.690000000002</v>
+        <v>28870.810000000005</v>
       </c>
     </row>
   </sheetData>

--- a/fluxo_caixa.xlsx
+++ b/fluxo_caixa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandremoreira/Documents/py_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30136C2B-4103-B44E-A383-F8A1A252BC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE1C855-812D-E142-B8EE-AE0952EC0BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="SUMMARY" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANCAMENTOS!$A$1:$I$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANCAMENTOS!$A$1:$I$189</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="125">
   <si>
     <t>Data</t>
   </si>
@@ -410,6 +410,9 @@
   </si>
   <si>
     <t>Divida</t>
+  </si>
+  <si>
+    <t>Recebimento Venda</t>
   </si>
 </sst>
 </file>
@@ -785,10 +788,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+      <selection activeCell="H191" sqref="H191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3642,7 +3645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>45879</v>
       </c>
@@ -3961,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>45910</v>
       </c>
@@ -3990,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>45910</v>
       </c>
@@ -4019,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>45910</v>
       </c>
@@ -4048,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>45910</v>
       </c>
@@ -4077,7 +4080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>45910</v>
       </c>
@@ -4106,7 +4109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="10">
         <v>45910</v>
       </c>
@@ -4135,7 +4138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="10">
         <v>45910</v>
       </c>
@@ -4164,7 +4167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>45915</v>
       </c>
@@ -4222,7 +4225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>45918</v>
       </c>
@@ -4251,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>45940</v>
       </c>
@@ -4280,7 +4283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>45940</v>
       </c>
@@ -4309,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>45940</v>
       </c>
@@ -4338,7 +4341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>45940</v>
       </c>
@@ -4367,7 +4370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>45940</v>
       </c>
@@ -4396,7 +4399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>45940</v>
       </c>
@@ -4425,7 +4428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>45940</v>
       </c>
@@ -4483,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>45945</v>
       </c>
@@ -4512,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>45948</v>
       </c>
@@ -4541,7 +4544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>45971</v>
       </c>
@@ -4570,7 +4573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>45971</v>
       </c>
@@ -4599,7 +4602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>45971</v>
       </c>
@@ -4628,7 +4631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>45971</v>
       </c>
@@ -4657,7 +4660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>45971</v>
       </c>
@@ -4686,7 +4689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="10">
         <v>45971</v>
       </c>
@@ -4744,7 +4747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10">
         <v>45971</v>
       </c>
@@ -4773,7 +4776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>45976</v>
       </c>
@@ -4802,7 +4805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>45979</v>
       </c>
@@ -4831,7 +4834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>46001</v>
       </c>
@@ -4860,7 +4863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>46001</v>
       </c>
@@ -4889,7 +4892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>46001</v>
       </c>
@@ -6083,7 +6086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>46001</v>
       </c>
@@ -6112,7 +6115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>46001</v>
       </c>
@@ -6141,7 +6144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>46001</v>
       </c>
@@ -6170,7 +6173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>46006</v>
       </c>
@@ -6199,7 +6202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>46009</v>
       </c>
@@ -6228,20 +6231,69 @@
         <v>1</v>
       </c>
     </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" s="2">
+        <v>45874</v>
+      </c>
+      <c r="B189" t="s">
+        <v>124</v>
+      </c>
+      <c r="C189" t="s">
+        <v>43</v>
+      </c>
+      <c r="D189" s="4">
+        <v>500</v>
+      </c>
+      <c r="E189" t="s">
+        <v>26</v>
+      </c>
+      <c r="F189" t="s">
+        <v>34</v>
+      </c>
+      <c r="G189" t="s">
+        <v>20</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <v>45879</v>
+      </c>
+      <c r="B190" t="s">
+        <v>61</v>
+      </c>
+      <c r="C190" t="s">
+        <v>41</v>
+      </c>
+      <c r="D190" s="4">
+        <v>300</v>
+      </c>
+      <c r="E190" t="s">
+        <v>19</v>
+      </c>
+      <c r="F190" t="s">
+        <v>34</v>
+      </c>
+      <c r="G190" t="s">
+        <v>20</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I188" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <autoFilter ref="A1:I189" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2025" month="8" dateTimeGrouping="month"/>
-        <dateGroupItem year="2025" month="9" dateTimeGrouping="month"/>
-        <dateGroupItem year="2025" month="10" dateTimeGrouping="month"/>
-        <dateGroupItem year="2025" month="11" dateTimeGrouping="month"/>
-        <dateGroupItem year="2025" month="12" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Expense"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A100:I188">
@@ -6378,19 +6430,19 @@
       </c>
       <c r="B4" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
-        <v>6569.5</v>
+        <v>7069.5</v>
       </c>
       <c r="C4" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
-        <v>4853.96</v>
+        <v>5153.96</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>1715.54</v>
+        <v>1915.54</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="1"/>
-        <v>1767.9800000000014</v>
+        <v>1967.9800000000014</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -6412,7 +6464,7 @@
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>3974.5700000000015</v>
+        <v>4174.5700000000015</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -6434,7 +6486,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>6181.1600000000017</v>
+        <v>6381.1600000000017</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -6456,7 +6508,7 @@
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>8387.7500000000018</v>
+        <v>8587.7500000000018</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -6478,7 +6530,7 @@
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>10743.940000000002</v>
+        <v>10943.940000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -6500,7 +6552,7 @@
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>14393.440000000002</v>
+        <v>14593.440000000002</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -6522,7 +6574,7 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>18042.940000000002</v>
+        <v>18242.940000000002</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -6544,7 +6596,7 @@
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>21692.440000000002</v>
+        <v>21892.440000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -6566,7 +6618,7 @@
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>25341.940000000002</v>
+        <v>25541.940000000002</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -6588,7 +6640,7 @@
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>28991.440000000002</v>
+        <v>29191.440000000002</v>
       </c>
     </row>
   </sheetData>

--- a/fluxo_caixa.xlsx
+++ b/fluxo_caixa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandremoreira/Documents/py_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE1C855-812D-E142-B8EE-AE0952EC0BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75E719C-B50E-014D-8EC4-4E2C1D5BCB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14380" yWindow="1040" windowWidth="23960" windowHeight="18760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LANCAMENTOS" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="SUMMARY" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANCAMENTOS!$A$1:$I$189</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANCAMENTOS!$A$1:$I$190</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="127">
   <si>
     <t>Data</t>
   </si>
@@ -413,6 +413,12 @@
   </si>
   <si>
     <t>Recebimento Venda</t>
+  </si>
+  <si>
+    <t>Reserva de Emergência</t>
+  </si>
+  <si>
+    <t>Savings</t>
   </si>
 </sst>
 </file>
@@ -788,10 +794,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I190"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H191" sqref="H191"/>
+      <selection activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3647,28 +3653,28 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>45879</v>
+        <v>45874</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="C99" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D99" s="4">
-        <v>6569.5</v>
+        <v>500</v>
       </c>
       <c r="E99" t="s">
         <v>26</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
         <v>20</v>
       </c>
       <c r="H99">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -3679,16 +3685,16 @@
         <v>45879</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C100" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D100" s="4">
-        <v>270</v>
+        <v>6569.5</v>
       </c>
       <c r="E100" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F100" t="s">
         <v>21</v>
@@ -3708,13 +3714,13 @@
         <v>45879</v>
       </c>
       <c r="B101" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D101" s="4">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="E101" t="s">
         <v>19</v>
@@ -3737,13 +3743,13 @@
         <v>45879</v>
       </c>
       <c r="B102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D102" s="4">
-        <v>280</v>
+        <v>55</v>
       </c>
       <c r="E102" t="s">
         <v>19</v>
@@ -3766,28 +3772,28 @@
         <v>45879</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D103" s="4">
-        <v>149.6</v>
+        <v>280</v>
       </c>
       <c r="E103" t="s">
         <v>19</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G103" t="s">
         <v>20</v>
       </c>
       <c r="H103">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -3795,28 +3801,28 @@
         <v>45879</v>
       </c>
       <c r="B104" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C104" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="D104" s="4">
-        <v>410</v>
+        <v>149.6</v>
       </c>
       <c r="E104" t="s">
         <v>19</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
         <v>20</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I104">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -3824,13 +3830,13 @@
         <v>45879</v>
       </c>
       <c r="B105" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C105" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D105" s="4">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="E105" t="s">
         <v>19</v>
@@ -3850,22 +3856,22 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>45884</v>
+        <v>45879</v>
       </c>
       <c r="B106" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C106" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D106" s="4">
-        <v>723.34</v>
+        <v>250</v>
       </c>
       <c r="E106" t="s">
         <v>19</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G106" t="s">
         <v>20</v>
@@ -3874,33 +3880,33 @@
         <v>1</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>45887</v>
+        <v>45879</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C107" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D107" s="4">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="E107" t="s">
         <v>19</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
         <v>20</v>
       </c>
       <c r="H107">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -3908,22 +3914,22 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>45889</v>
+        <v>45884</v>
       </c>
       <c r="B108" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D108" s="4">
-        <v>916.02</v>
+        <v>723.34</v>
       </c>
       <c r="E108" t="s">
         <v>19</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
         <v>20</v>
@@ -3932,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="I108">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -6233,28 +6239,28 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>45874</v>
+        <v>45887</v>
       </c>
       <c r="B189" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="C189" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D189" s="4">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="E189" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G189" t="s">
         <v>20</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I189">
         <v>1</v>
@@ -6262,42 +6268,71 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
+        <v>45889</v>
+      </c>
+      <c r="B190" t="s">
+        <v>83</v>
+      </c>
+      <c r="C190" t="s">
+        <v>35</v>
+      </c>
+      <c r="D190" s="4">
+        <v>916.02</v>
+      </c>
+      <c r="E190" t="s">
+        <v>19</v>
+      </c>
+      <c r="F190" t="s">
+        <v>21</v>
+      </c>
+      <c r="G190" t="s">
+        <v>20</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
         <v>45879</v>
       </c>
-      <c r="B190" t="s">
-        <v>61</v>
-      </c>
-      <c r="C190" t="s">
-        <v>41</v>
-      </c>
-      <c r="D190" s="4">
-        <v>300</v>
-      </c>
-      <c r="E190" t="s">
-        <v>19</v>
-      </c>
-      <c r="F190" t="s">
-        <v>34</v>
-      </c>
-      <c r="G190" t="s">
-        <v>20</v>
-      </c>
-      <c r="H190">
-        <v>1</v>
-      </c>
-      <c r="I190">
+      <c r="B191" t="s">
+        <v>125</v>
+      </c>
+      <c r="C191" t="s">
+        <v>82</v>
+      </c>
+      <c r="D191" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E191" t="s">
+        <v>126</v>
+      </c>
+      <c r="F191" t="s">
+        <v>21</v>
+      </c>
+      <c r="G191" t="s">
+        <v>20</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I189" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <autoFilter ref="A1:I190" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2025" month="8" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A100:I188">
-      <sortCondition ref="A1:A188"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A99:I190">
+      <sortCondition ref="A1:A190"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6434,15 +6469,15 @@
       </c>
       <c r="C4" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
-        <v>5153.96</v>
+        <v>5153.9600000000009</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>1915.54</v>
+        <v>1915.5399999999991</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="1"/>
-        <v>1967.9800000000014</v>
+        <v>1967.9800000000005</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -6464,7 +6499,7 @@
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>4174.5700000000015</v>
+        <v>4174.5700000000006</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -6486,7 +6521,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>6381.1600000000017</v>
+        <v>6381.1600000000008</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -6508,7 +6543,7 @@
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>8587.7500000000018</v>
+        <v>8587.75</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -6530,7 +6565,7 @@
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>10943.940000000002</v>
+        <v>10943.94</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -6552,7 +6587,7 @@
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>14593.440000000002</v>
+        <v>14593.44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">

--- a/fluxo_caixa.xlsx
+++ b/fluxo_caixa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandremoreira/Documents/py_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75E719C-B50E-014D-8EC4-4E2C1D5BCB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ECD6361-4838-8343-AF8E-75E2201C453D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14380" yWindow="1040" windowWidth="23960" windowHeight="18760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="500" windowWidth="23220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LANCAMENTOS" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="SUMMARY" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANCAMENTOS!$A$1:$I$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANCAMENTOS!$A$1:$I$184</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="126">
   <si>
     <t>Data</t>
   </si>
@@ -145,12 +146,18 @@
     <t>n</t>
   </si>
   <si>
+    <t>Clube Renovação</t>
+  </si>
+  <si>
     <t>Lazer</t>
   </si>
   <si>
     <t>Vestuário</t>
   </si>
   <si>
+    <t>Anual</t>
+  </si>
+  <si>
     <t>Ingresso The Town</t>
   </si>
   <si>
@@ -410,15 +417,6 @@
   </si>
   <si>
     <t>Divida</t>
-  </si>
-  <si>
-    <t>Recebimento Venda</t>
-  </si>
-  <si>
-    <t>Reserva de Emergência</t>
-  </si>
-  <si>
-    <t>Savings</t>
   </si>
 </sst>
 </file>
@@ -794,10 +792,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I191"/>
+  <dimension ref="A1:I184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191"/>
+      <selection activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -843,10 +841,10 @@
         <v>45812</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="9">
         <v>290</v>
@@ -872,10 +870,10 @@
         <v>45812</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" s="9">
         <v>179.81</v>
@@ -901,10 +899,10 @@
         <v>45813</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" s="9">
         <v>20</v>
@@ -959,10 +957,10 @@
         <v>45814</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" s="9">
         <v>8.99</v>
@@ -988,10 +986,10 @@
         <v>45814</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" s="9">
         <v>6</v>
@@ -1104,10 +1102,10 @@
         <v>45818</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="9">
         <v>149.6</v>
@@ -1133,7 +1131,7 @@
         <v>45818</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>18</v>
@@ -1145,7 +1143,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>31</v>
@@ -1162,10 +1160,10 @@
         <v>45818</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D13" s="9">
         <v>735.01</v>
@@ -1191,10 +1189,10 @@
         <v>45818</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" s="9">
         <v>279</v>
@@ -1249,10 +1247,10 @@
         <v>45818</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" s="9">
         <v>813.65</v>
@@ -1278,10 +1276,10 @@
         <v>45818</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D17" s="9">
         <v>39.799999999999997</v>
@@ -1307,10 +1305,10 @@
         <v>45818</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="9">
         <v>119.98</v>
@@ -1336,10 +1334,10 @@
         <v>45818</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D19" s="9">
         <v>50</v>
@@ -1365,10 +1363,10 @@
         <v>45819</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D20" s="9">
         <v>5</v>
@@ -1394,10 +1392,10 @@
         <v>45819</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D21" s="9">
         <v>165</v>
@@ -1406,7 +1404,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>31</v>
@@ -1423,10 +1421,10 @@
         <v>45819</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="9">
         <v>185</v>
@@ -1452,10 +1450,10 @@
         <v>45820</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D23" s="9">
         <v>65</v>
@@ -1481,10 +1479,10 @@
         <v>45820</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D24" s="9">
         <v>19.8</v>
@@ -1539,10 +1537,10 @@
         <v>45821</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D26" s="9">
         <v>10</v>
@@ -1568,10 +1566,10 @@
         <v>45821</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D27" s="9">
         <v>109.28</v>
@@ -1597,10 +1595,10 @@
         <v>45821</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D28" s="9">
         <v>66.28</v>
@@ -1626,7 +1624,7 @@
         <v>45821</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>33</v>
@@ -1655,10 +1653,10 @@
         <v>45822</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D30" s="9">
         <v>15.98</v>
@@ -1684,10 +1682,10 @@
         <v>45822</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D31" s="9">
         <v>18.98</v>
@@ -1713,10 +1711,10 @@
         <v>45822</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D32" s="9">
         <v>132.93</v>
@@ -1742,10 +1740,10 @@
         <v>45825</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D33" s="9">
         <v>3.59</v>
@@ -1771,10 +1769,10 @@
         <v>45827</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D34" s="9">
         <v>26.09</v>
@@ -1800,7 +1798,7 @@
         <v>45828</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>33</v>
@@ -1829,10 +1827,10 @@
         <v>45828</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D36" s="9">
         <v>7.99</v>
@@ -1858,10 +1856,10 @@
         <v>45828</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D37" s="9">
         <v>2</v>
@@ -1887,7 +1885,7 @@
         <v>45828</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>33</v>
@@ -1916,10 +1914,10 @@
         <v>45828</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D39" s="9">
         <v>50</v>
@@ -1945,10 +1943,10 @@
         <v>45828</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D40" s="9">
         <v>15</v>
@@ -1974,10 +1972,10 @@
         <v>45829</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D41" s="9">
         <v>32.97</v>
@@ -2003,10 +2001,10 @@
         <v>45830</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D42" s="9">
         <v>8.99</v>
@@ -2032,10 +2030,10 @@
         <v>45839</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D43" s="9">
         <v>500</v>
@@ -2061,10 +2059,10 @@
         <v>45839</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D44" s="9">
         <v>12.78</v>
@@ -2090,10 +2088,10 @@
         <v>45839</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D45" s="9">
         <v>3.99</v>
@@ -2119,10 +2117,10 @@
         <v>45839</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D46" s="9">
         <v>50</v>
@@ -2148,10 +2146,10 @@
         <v>45839</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D47" s="9">
         <v>6.67</v>
@@ -2177,10 +2175,10 @@
         <v>45839</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D48" s="9">
         <v>6.67</v>
@@ -2206,10 +2204,10 @@
         <v>45840</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D49" s="9">
         <v>18</v>
@@ -2235,10 +2233,10 @@
         <v>45840</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D50" s="9">
         <v>132</v>
@@ -2264,10 +2262,10 @@
         <v>45841</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D51" s="9">
         <v>60</v>
@@ -2293,10 +2291,10 @@
         <v>45841</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D52" s="9">
         <v>18</v>
@@ -2322,10 +2320,10 @@
         <v>45842</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D53" s="9">
         <v>137.9</v>
@@ -2351,10 +2349,10 @@
         <v>45842</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D54" s="9">
         <v>18</v>
@@ -2380,10 +2378,10 @@
         <v>45842</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D55" s="9">
         <v>50.94</v>
@@ -2409,10 +2407,10 @@
         <v>45842</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D56" s="9">
         <v>100</v>
@@ -2438,10 +2436,10 @@
         <v>45842</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D57" s="9">
         <v>11.4</v>
@@ -2467,7 +2465,7 @@
         <v>45843</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>33</v>
@@ -2496,10 +2494,10 @@
         <v>45843</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D59" s="9">
         <v>5</v>
@@ -2525,10 +2523,10 @@
         <v>45843</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D60" s="9">
         <v>2.99</v>
@@ -2554,10 +2552,10 @@
         <v>45843</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D61" s="9">
         <v>16.579999999999998</v>
@@ -2583,10 +2581,10 @@
         <v>45844</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D62" s="9">
         <v>25</v>
@@ -2612,10 +2610,10 @@
         <v>45845</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D63" s="9">
         <v>13.18</v>
@@ -2728,10 +2726,10 @@
         <v>45848</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D67" s="9">
         <v>149.6</v>
@@ -2757,10 +2755,10 @@
         <v>45848</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D68" s="9">
         <v>405</v>
@@ -2786,10 +2784,10 @@
         <v>45848</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D69" s="9">
         <v>179.81</v>
@@ -2844,10 +2842,10 @@
         <v>45848</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D71" s="9">
         <v>813.65</v>
@@ -2873,7 +2871,7 @@
         <v>45848</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>25</v>
@@ -2902,10 +2900,10 @@
         <v>45848</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D73" s="9">
         <v>1247.24</v>
@@ -2931,10 +2929,10 @@
         <v>45848</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D74" s="9">
         <v>243</v>
@@ -2960,10 +2958,10 @@
         <v>45851</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D75" s="9">
         <v>14</v>
@@ -2972,7 +2970,7 @@
         <v>26</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>31</v>
@@ -2989,10 +2987,10 @@
         <v>45852</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D76" s="9">
         <v>504.49</v>
@@ -3018,10 +3016,10 @@
         <v>45853</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D77" s="9">
         <v>25</v>
@@ -3030,7 +3028,7 @@
         <v>19</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>31</v>
@@ -3047,10 +3045,10 @@
         <v>45853</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D78" s="9">
         <v>244.82</v>
@@ -3059,7 +3057,7 @@
         <v>26</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>31</v>
@@ -3076,10 +3074,10 @@
         <v>45854</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D79" s="9">
         <v>36.07</v>
@@ -3088,7 +3086,7 @@
         <v>26</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>31</v>
@@ -3105,10 +3103,10 @@
         <v>45854</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D80" s="9">
         <v>38</v>
@@ -3117,7 +3115,7 @@
         <v>26</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>31</v>
@@ -3134,10 +3132,10 @@
         <v>45855</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D81" s="9">
         <v>15.19</v>
@@ -3146,7 +3144,7 @@
         <v>19</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>31</v>
@@ -3163,10 +3161,10 @@
         <v>45855</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D82" s="9">
         <v>13.9</v>
@@ -3175,7 +3173,7 @@
         <v>19</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>31</v>
@@ -3192,10 +3190,10 @@
         <v>45855</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D83" s="9">
         <v>7.45</v>
@@ -3204,7 +3202,7 @@
         <v>19</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>31</v>
@@ -3221,10 +3219,10 @@
         <v>45856</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D84" s="9">
         <v>31.8</v>
@@ -3233,7 +3231,7 @@
         <v>19</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>31</v>
@@ -3250,10 +3248,10 @@
         <v>45856</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D85" s="9">
         <v>11.49</v>
@@ -3262,7 +3260,7 @@
         <v>19</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>31</v>
@@ -3279,10 +3277,10 @@
         <v>45856</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D86" s="9">
         <v>4</v>
@@ -3291,7 +3289,7 @@
         <v>19</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>31</v>
@@ -3308,10 +3306,10 @@
         <v>45856</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D87" s="9">
         <v>50</v>
@@ -3320,7 +3318,7 @@
         <v>19</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>31</v>
@@ -3366,10 +3364,10 @@
         <v>45857</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D89" s="9">
         <v>40.28</v>
@@ -3378,7 +3376,7 @@
         <v>19</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>31</v>
@@ -3395,7 +3393,7 @@
         <v>45857</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>33</v>
@@ -3407,7 +3405,7 @@
         <v>19</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>31</v>
@@ -3424,10 +3422,10 @@
         <v>45857</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D91" s="9">
         <v>25</v>
@@ -3436,7 +3434,7 @@
         <v>19</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>31</v>
@@ -3453,10 +3451,10 @@
         <v>45857</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D92" s="9">
         <v>1374.03</v>
@@ -3482,10 +3480,10 @@
         <v>45857</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D93" s="9">
         <v>748</v>
@@ -3494,7 +3492,7 @@
         <v>26</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>31</v>
@@ -3511,10 +3509,10 @@
         <v>45858</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D94" s="9">
         <v>13.99</v>
@@ -3523,7 +3521,7 @@
         <v>19</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>31</v>
@@ -3540,7 +3538,7 @@
         <v>45858</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>33</v>
@@ -3552,7 +3550,7 @@
         <v>19</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>31</v>
@@ -3569,10 +3567,10 @@
         <v>45858</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D96" s="9">
         <v>39.93</v>
@@ -3581,7 +3579,7 @@
         <v>19</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>31</v>
@@ -3598,10 +3596,10 @@
         <v>45858</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D97" s="9">
         <v>14.98</v>
@@ -3610,7 +3608,7 @@
         <v>19</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>31</v>
@@ -3627,10 +3625,10 @@
         <v>45858</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D98" s="9">
         <v>9.09</v>
@@ -3639,7 +3637,7 @@
         <v>19</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>31</v>
@@ -3651,30 +3649,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>45874</v>
+        <v>45879</v>
       </c>
       <c r="B99" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="C99" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D99" s="4">
-        <v>500</v>
+        <v>6569.5</v>
       </c>
       <c r="E99" t="s">
         <v>26</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G99" t="s">
         <v>20</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -3685,16 +3683,16 @@
         <v>45879</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C100" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D100" s="4">
-        <v>6569.5</v>
+        <v>270</v>
       </c>
       <c r="E100" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F100" t="s">
         <v>21</v>
@@ -3714,13 +3712,13 @@
         <v>45879</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D101" s="4">
-        <v>270</v>
+        <v>55</v>
       </c>
       <c r="E101" t="s">
         <v>19</v>
@@ -3743,13 +3741,13 @@
         <v>45879</v>
       </c>
       <c r="B102" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D102" s="4">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E102" t="s">
         <v>19</v>
@@ -3772,28 +3770,28 @@
         <v>45879</v>
       </c>
       <c r="B103" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D103" s="4">
-        <v>280</v>
+        <v>149.6</v>
       </c>
       <c r="E103" t="s">
         <v>19</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>20</v>
       </c>
       <c r="H103">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -3801,28 +3799,28 @@
         <v>45879</v>
       </c>
       <c r="B104" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D104" s="4">
-        <v>149.6</v>
+        <v>410</v>
       </c>
       <c r="E104" t="s">
         <v>19</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G104" t="s">
         <v>20</v>
       </c>
       <c r="H104">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -3830,13 +3828,13 @@
         <v>45879</v>
       </c>
       <c r="B105" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C105" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D105" s="4">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="E105" t="s">
         <v>19</v>
@@ -3856,16 +3854,16 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>45879</v>
+        <v>45882</v>
       </c>
       <c r="B106" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C106" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D106" s="4">
-        <v>250</v>
+        <v>3228</v>
       </c>
       <c r="E106" t="s">
         <v>19</v>
@@ -3874,39 +3872,39 @@
         <v>21</v>
       </c>
       <c r="G106" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="B107" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C107" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D107" s="4">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="E107" t="s">
         <v>19</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G107" t="s">
         <v>20</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -3914,22 +3912,22 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>45884</v>
+        <v>45889</v>
       </c>
       <c r="B108" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C108" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D108" s="4">
-        <v>723.34</v>
+        <v>916.02</v>
       </c>
       <c r="E108" t="s">
         <v>19</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G108" t="s">
         <v>20</v>
@@ -3938,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -3946,16 +3944,16 @@
         <v>45910</v>
       </c>
       <c r="B109" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C109" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D109" s="4">
-        <v>6569.5</v>
+        <v>270</v>
       </c>
       <c r="E109" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F109" t="s">
         <v>21</v>
@@ -3975,16 +3973,16 @@
         <v>45910</v>
       </c>
       <c r="B110" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D110" s="4">
-        <v>270</v>
+        <v>6569.5</v>
       </c>
       <c r="E110" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F110" t="s">
         <v>21</v>
@@ -4039,7 +4037,7 @@
         <v>30</v>
       </c>
       <c r="D112" s="4">
-        <v>280</v>
+        <v>135</v>
       </c>
       <c r="E112" t="s">
         <v>19</v>
@@ -4062,10 +4060,10 @@
         <v>45910</v>
       </c>
       <c r="B113" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D113" s="4">
         <v>149.6</v>
@@ -4091,10 +4089,10 @@
         <v>45910</v>
       </c>
       <c r="B114" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D114" s="4">
         <v>916.02</v>
@@ -4120,10 +4118,10 @@
         <v>45910</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D115" s="12">
         <v>410</v>
@@ -4149,10 +4147,10 @@
         <v>45910</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D116" s="12">
         <v>250</v>
@@ -4175,16 +4173,16 @@
     </row>
     <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="B117" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="C117" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D117" s="4">
-        <v>232.29</v>
+        <v>1800</v>
       </c>
       <c r="E117" t="s">
         <v>19</v>
@@ -4196,7 +4194,7 @@
         <v>20</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -4207,16 +4205,16 @@
         <v>45940</v>
       </c>
       <c r="B118" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C118" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D118" s="4">
-        <v>6569.5</v>
+        <v>270</v>
       </c>
       <c r="E118" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F118" t="s">
         <v>21</v>
@@ -4233,19 +4231,19 @@
     </row>
     <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>45918</v>
+        <v>45940</v>
       </c>
       <c r="B119" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D119" s="4">
-        <v>1800</v>
+        <v>6569.5</v>
       </c>
       <c r="E119" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F119" t="s">
         <v>21</v>
@@ -4265,13 +4263,13 @@
         <v>45940</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D120" s="4">
-        <v>270</v>
+        <v>55</v>
       </c>
       <c r="E120" t="s">
         <v>19</v>
@@ -4294,13 +4292,13 @@
         <v>45940</v>
       </c>
       <c r="B121" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D121" s="4">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E121" t="s">
         <v>19</v>
@@ -4323,28 +4321,28 @@
         <v>45940</v>
       </c>
       <c r="B122" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C122" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D122" s="4">
-        <v>280</v>
+        <v>149.6</v>
       </c>
       <c r="E122" t="s">
         <v>19</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
         <v>20</v>
       </c>
       <c r="H122">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4352,28 +4350,28 @@
         <v>45940</v>
       </c>
       <c r="B123" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D123" s="4">
-        <v>149.6</v>
+        <v>916.02</v>
       </c>
       <c r="E123" t="s">
         <v>19</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G123" t="s">
         <v>20</v>
       </c>
       <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
         <v>6</v>
-      </c>
-      <c r="I123">
-        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4384,10 +4382,10 @@
         <v>83</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D124" s="4">
-        <v>916.02</v>
+        <v>410</v>
       </c>
       <c r="E124" t="s">
         <v>19</v>
@@ -4402,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="I124">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4410,13 +4408,13 @@
         <v>45940</v>
       </c>
       <c r="B125" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C125" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D125" s="4">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="E125" t="s">
         <v>19</v>
@@ -4436,16 +4434,16 @@
     </row>
     <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>45940</v>
+        <v>45948</v>
       </c>
       <c r="B126" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="C126" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D126" s="4">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="E126" t="s">
         <v>19</v>
@@ -4457,10 +4455,10 @@
         <v>20</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I126">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4468,16 +4466,16 @@
         <v>45971</v>
       </c>
       <c r="B127" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C127" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D127" s="4">
-        <v>6569.5</v>
+        <v>270</v>
       </c>
       <c r="E127" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F127" t="s">
         <v>21</v>
@@ -4494,19 +4492,19 @@
     </row>
     <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>45945</v>
+        <v>45971</v>
       </c>
       <c r="B128" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="C128" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D128" s="4">
-        <v>232.29</v>
+        <v>6569.5</v>
       </c>
       <c r="E128" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F128" t="s">
         <v>21</v>
@@ -4515,7 +4513,7 @@
         <v>20</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -4523,16 +4521,16 @@
     </row>
     <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>45948</v>
+        <v>45971</v>
       </c>
       <c r="B129" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C129" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D129" s="4">
-        <v>1800</v>
+        <v>55</v>
       </c>
       <c r="E129" t="s">
         <v>19</v>
@@ -4555,13 +4553,13 @@
         <v>45971</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C130" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D130" s="4">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="E130" t="s">
         <v>19</v>
@@ -4584,28 +4582,28 @@
         <v>45971</v>
       </c>
       <c r="B131" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D131" s="4">
-        <v>55</v>
+        <v>149.6</v>
       </c>
       <c r="E131" t="s">
         <v>19</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
         <v>20</v>
       </c>
       <c r="H131">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4613,13 +4611,13 @@
         <v>45971</v>
       </c>
       <c r="B132" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C132" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D132" s="4">
-        <v>280</v>
+        <v>916.02</v>
       </c>
       <c r="E132" t="s">
         <v>19</v>
@@ -4631,97 +4629,97 @@
         <v>20</v>
       </c>
       <c r="H132">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="2">
+      <c r="A133" s="10">
         <v>45971</v>
       </c>
-      <c r="B133" t="s">
-        <v>37</v>
-      </c>
-      <c r="C133" t="s">
-        <v>35</v>
-      </c>
-      <c r="D133" s="4">
-        <v>149.6</v>
-      </c>
-      <c r="E133" t="s">
-        <v>19</v>
-      </c>
-      <c r="F133" t="s">
-        <v>34</v>
-      </c>
-      <c r="G133" t="s">
-        <v>20</v>
-      </c>
-      <c r="H133">
-        <v>6</v>
-      </c>
-      <c r="I133">
-        <v>6</v>
+      <c r="B133" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D133" s="12">
+        <v>410</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H133" s="11">
+        <v>1</v>
+      </c>
+      <c r="I133" s="11">
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="2">
+      <c r="A134" s="10">
         <v>45971</v>
       </c>
-      <c r="B134" t="s">
-        <v>83</v>
-      </c>
-      <c r="C134" t="s">
-        <v>35</v>
-      </c>
-      <c r="D134" s="4">
-        <v>916.02</v>
-      </c>
-      <c r="E134" t="s">
-        <v>19</v>
-      </c>
-      <c r="F134" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" t="s">
-        <v>20</v>
-      </c>
-      <c r="H134">
-        <v>1</v>
-      </c>
-      <c r="I134">
-        <v>6</v>
+      <c r="B134" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D134" s="12">
+        <v>250</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H134" s="11">
+        <v>1</v>
+      </c>
+      <c r="I134" s="11">
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="10">
-        <v>45971</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D135" s="12">
-        <v>410</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F135" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H135" s="11">
-        <v>1</v>
-      </c>
-      <c r="I135" s="11">
-        <v>12</v>
+      <c r="A135" s="2">
+        <v>45979</v>
+      </c>
+      <c r="B135" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" t="s">
+        <v>23</v>
+      </c>
+      <c r="D135" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E135" t="s">
+        <v>19</v>
+      </c>
+      <c r="F135" t="s">
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
+        <v>20</v>
+      </c>
+      <c r="H135">
+        <v>12</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4729,71 +4727,71 @@
         <v>46001</v>
       </c>
       <c r="B136" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" s="4">
+        <v>270</v>
+      </c>
+      <c r="E136" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136" t="s">
+        <v>21</v>
+      </c>
+      <c r="G136" t="s">
+        <v>20</v>
+      </c>
+      <c r="H136">
+        <v>12</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <v>46001</v>
+      </c>
+      <c r="B137" t="s">
         <v>24</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>25</v>
       </c>
-      <c r="D136" s="4">
+      <c r="D137" s="4">
         <v>6569.5</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E137" t="s">
         <v>26</v>
       </c>
-      <c r="F136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G136" t="s">
-        <v>20</v>
-      </c>
-      <c r="H136">
-        <v>12</v>
-      </c>
-      <c r="I136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="10">
-        <v>45971</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D137" s="12">
-        <v>250</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F137" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G137" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H137" s="11">
-        <v>1</v>
-      </c>
-      <c r="I137" s="11">
-        <v>12</v>
+      <c r="F137" t="s">
+        <v>21</v>
+      </c>
+      <c r="G137" t="s">
+        <v>20</v>
+      </c>
+      <c r="H137">
+        <v>12</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>45976</v>
+        <v>46001</v>
       </c>
       <c r="B138" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="C138" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D138" s="4">
-        <v>232.29</v>
+        <v>55</v>
       </c>
       <c r="E138" t="s">
         <v>19</v>
@@ -4805,7 +4803,7 @@
         <v>20</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I138">
         <v>1</v>
@@ -4813,16 +4811,16 @@
     </row>
     <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>45979</v>
+        <v>46001</v>
       </c>
       <c r="B139" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D139" s="4">
-        <v>1800</v>
+        <v>135</v>
       </c>
       <c r="E139" t="s">
         <v>19</v>
@@ -4845,13 +4843,13 @@
         <v>46001</v>
       </c>
       <c r="B140" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C140" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D140" s="4">
-        <v>270</v>
+        <v>916.02</v>
       </c>
       <c r="E140" t="s">
         <v>19</v>
@@ -4863,10 +4861,10 @@
         <v>20</v>
       </c>
       <c r="H140">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4874,13 +4872,13 @@
         <v>46001</v>
       </c>
       <c r="B141" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="D141" s="4">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="E141" t="s">
         <v>19</v>
@@ -4892,10 +4890,10 @@
         <v>20</v>
       </c>
       <c r="H141">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4903,13 +4901,13 @@
         <v>46001</v>
       </c>
       <c r="B142" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C142" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D142" s="4">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="E142" t="s">
         <v>19</v>
@@ -4921,24 +4919,24 @@
         <v>20</v>
       </c>
       <c r="H142">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>46032</v>
+        <v>46009</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C143" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D143" s="4">
-        <v>270</v>
+        <v>1800</v>
       </c>
       <c r="E143" t="s">
         <v>19</v>
@@ -4961,16 +4959,16 @@
         <v>46032</v>
       </c>
       <c r="B144" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C144" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D144" s="4">
-        <v>6569.5</v>
+        <v>270</v>
       </c>
       <c r="E144" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F144" t="s">
         <v>21</v>
@@ -4990,16 +4988,16 @@
         <v>46032</v>
       </c>
       <c r="B145" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D145" s="4">
-        <v>55</v>
+        <v>6569.5</v>
       </c>
       <c r="E145" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F145" t="s">
         <v>21</v>
@@ -5019,57 +5017,57 @@
         <v>46032</v>
       </c>
       <c r="B146" t="s">
+        <v>27</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" s="4">
+        <v>55</v>
+      </c>
+      <c r="E146" t="s">
+        <v>19</v>
+      </c>
+      <c r="F146" t="s">
+        <v>21</v>
+      </c>
+      <c r="G146" t="s">
+        <v>20</v>
+      </c>
+      <c r="H146">
+        <v>12</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>46032</v>
+      </c>
+      <c r="B147" t="s">
         <v>29</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C147" t="s">
         <v>30</v>
       </c>
-      <c r="D146" s="4">
+      <c r="D147" s="4">
         <v>135</v>
       </c>
-      <c r="E146" t="s">
-        <v>19</v>
-      </c>
-      <c r="F146" t="s">
-        <v>21</v>
-      </c>
-      <c r="G146" t="s">
-        <v>20</v>
-      </c>
-      <c r="H146">
-        <v>12</v>
-      </c>
-      <c r="I146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="10">
-        <v>46032</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D147" s="12">
-        <v>410</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F147" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G147" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H147" s="11">
-        <v>1</v>
-      </c>
-      <c r="I147" s="11">
-        <v>12</v>
+      <c r="E147" t="s">
+        <v>19</v>
+      </c>
+      <c r="F147" t="s">
+        <v>21</v>
+      </c>
+      <c r="G147" t="s">
+        <v>20</v>
+      </c>
+      <c r="H147">
+        <v>12</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -5077,71 +5075,71 @@
         <v>46032</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D148" s="12">
+        <v>410</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H148" s="11">
+        <v>1</v>
+      </c>
+      <c r="I148" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="10">
+        <v>46032</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D149" s="12">
         <v>250</v>
       </c>
-      <c r="E148" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F148" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G148" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H148" s="11">
-        <v>1</v>
-      </c>
-      <c r="I148" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="2">
-        <v>46040</v>
-      </c>
-      <c r="B149" t="s">
-        <v>22</v>
-      </c>
-      <c r="C149" t="s">
-        <v>23</v>
-      </c>
-      <c r="D149" s="4">
-        <v>1800</v>
-      </c>
-      <c r="E149" t="s">
-        <v>19</v>
-      </c>
-      <c r="F149" t="s">
-        <v>21</v>
-      </c>
-      <c r="G149" t="s">
-        <v>20</v>
-      </c>
-      <c r="H149">
-        <v>12</v>
-      </c>
-      <c r="I149">
-        <v>1</v>
+      <c r="E149" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G149" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H149" s="11">
+        <v>1</v>
+      </c>
+      <c r="I149" s="11">
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>46063</v>
+        <v>46040</v>
       </c>
       <c r="B150" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C150" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D150" s="4">
-        <v>270</v>
+        <v>1800</v>
       </c>
       <c r="E150" t="s">
         <v>19</v>
@@ -5164,16 +5162,16 @@
         <v>46063</v>
       </c>
       <c r="B151" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C151" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D151" s="4">
-        <v>6569.5</v>
+        <v>270</v>
       </c>
       <c r="E151" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F151" t="s">
         <v>21</v>
@@ -5193,16 +5191,16 @@
         <v>46063</v>
       </c>
       <c r="B152" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D152" s="4">
-        <v>55</v>
+        <v>6569.5</v>
       </c>
       <c r="E152" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F152" t="s">
         <v>21</v>
@@ -5222,13 +5220,13 @@
         <v>46063</v>
       </c>
       <c r="B153" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C153" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D153" s="4">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="E153" t="s">
         <v>19</v>
@@ -5251,13 +5249,13 @@
         <v>46063</v>
       </c>
       <c r="B154" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C154" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="D154" s="4">
-        <v>410</v>
+        <v>135</v>
       </c>
       <c r="E154" t="s">
         <v>19</v>
@@ -5269,10 +5267,10 @@
         <v>20</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I154">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -5280,13 +5278,13 @@
         <v>46063</v>
       </c>
       <c r="B155" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C155" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D155" s="4">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="E155" t="s">
         <v>19</v>
@@ -5306,91 +5304,103 @@
     </row>
     <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
+        <v>46063</v>
+      </c>
+      <c r="B156" t="s">
+        <v>82</v>
+      </c>
+      <c r="C156" t="s">
+        <v>51</v>
+      </c>
+      <c r="D156" s="4">
+        <v>250</v>
+      </c>
+      <c r="E156" t="s">
+        <v>19</v>
+      </c>
+      <c r="F156" t="s">
+        <v>21</v>
+      </c>
+      <c r="G156" t="s">
+        <v>20</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
         <v>46071</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>22</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C157" t="s">
         <v>23</v>
       </c>
-      <c r="D156" s="4">
+      <c r="D157" s="4">
         <v>1800</v>
       </c>
-      <c r="E156" t="s">
-        <v>19</v>
-      </c>
-      <c r="F156" t="s">
-        <v>21</v>
-      </c>
-      <c r="G156" t="s">
-        <v>20</v>
-      </c>
-      <c r="H156">
-        <v>12</v>
-      </c>
-      <c r="I156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="7">
+      <c r="E157" t="s">
+        <v>19</v>
+      </c>
+      <c r="F157" t="s">
+        <v>21</v>
+      </c>
+      <c r="G157" t="s">
+        <v>20</v>
+      </c>
+      <c r="H157">
+        <v>12</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="7">
         <v>45848</v>
       </c>
-      <c r="B157" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D157" s="9">
+      <c r="B158" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D158" s="9">
         <v>25</v>
       </c>
-      <c r="E157" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F157" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G157" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H157" s="8">
-        <v>1</v>
-      </c>
-      <c r="I157" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="2">
-        <v>45849</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D158" s="4">
-        <v>25</v>
-      </c>
-      <c r="E158" t="s">
-        <v>19</v>
+      <c r="E158" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G158" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H158" s="8">
+        <v>1</v>
+      </c>
+      <c r="I158" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>45850</v>
+        <v>45849</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D159" s="4">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="E159" t="s">
         <v>19</v>
@@ -5398,31 +5408,19 @@
     </row>
     <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>46091</v>
-      </c>
-      <c r="B160" t="s">
-        <v>17</v>
-      </c>
-      <c r="C160" t="s">
-        <v>18</v>
+        <v>45850</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D160" s="4">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="E160" t="s">
         <v>19</v>
-      </c>
-      <c r="F160" t="s">
-        <v>21</v>
-      </c>
-      <c r="G160" t="s">
-        <v>20</v>
-      </c>
-      <c r="H160">
-        <v>12</v>
-      </c>
-      <c r="I160">
-        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -5430,16 +5428,16 @@
         <v>46091</v>
       </c>
       <c r="B161" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C161" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D161" s="4">
-        <v>6569.5</v>
+        <v>270</v>
       </c>
       <c r="E161" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F161" t="s">
         <v>21</v>
@@ -5459,16 +5457,16 @@
         <v>46091</v>
       </c>
       <c r="B162" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D162" s="4">
-        <v>55</v>
+        <v>6569.5</v>
       </c>
       <c r="E162" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F162" t="s">
         <v>21</v>
@@ -5488,57 +5486,57 @@
         <v>46091</v>
       </c>
       <c r="B163" t="s">
+        <v>27</v>
+      </c>
+      <c r="C163" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" s="4">
+        <v>55</v>
+      </c>
+      <c r="E163" t="s">
+        <v>19</v>
+      </c>
+      <c r="F163" t="s">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>20</v>
+      </c>
+      <c r="H163">
+        <v>12</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>46091</v>
+      </c>
+      <c r="B164" t="s">
         <v>29</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C164" t="s">
         <v>30</v>
       </c>
-      <c r="D163" s="4">
+      <c r="D164" s="4">
         <v>135</v>
       </c>
-      <c r="E163" t="s">
-        <v>19</v>
-      </c>
-      <c r="F163" t="s">
-        <v>21</v>
-      </c>
-      <c r="G163" t="s">
-        <v>20</v>
-      </c>
-      <c r="H163">
-        <v>12</v>
-      </c>
-      <c r="I163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="10">
-        <v>46091</v>
-      </c>
-      <c r="B164" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C164" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D164" s="12">
-        <v>410</v>
-      </c>
-      <c r="E164" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F164" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G164" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H164" s="11">
-        <v>1</v>
-      </c>
-      <c r="I164" s="11">
-        <v>12</v>
+      <c r="E164" t="s">
+        <v>19</v>
+      </c>
+      <c r="F164" t="s">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>20</v>
+      </c>
+      <c r="H164">
+        <v>12</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -5546,71 +5544,71 @@
         <v>46091</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D165" s="12">
+        <v>410</v>
+      </c>
+      <c r="E165" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F165" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G165" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H165" s="11">
+        <v>1</v>
+      </c>
+      <c r="I165" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="10">
+        <v>46091</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D166" s="12">
         <v>250</v>
       </c>
-      <c r="E165" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F165" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G165" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H165" s="11">
-        <v>1</v>
-      </c>
-      <c r="I165" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="2">
-        <v>46099</v>
-      </c>
-      <c r="B166" t="s">
-        <v>22</v>
-      </c>
-      <c r="C166" t="s">
-        <v>23</v>
-      </c>
-      <c r="D166" s="4">
-        <v>1800</v>
-      </c>
-      <c r="E166" t="s">
-        <v>19</v>
-      </c>
-      <c r="F166" t="s">
-        <v>21</v>
-      </c>
-      <c r="G166" t="s">
-        <v>20</v>
-      </c>
-      <c r="H166">
-        <v>12</v>
-      </c>
-      <c r="I166">
-        <v>1</v>
+      <c r="E166" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F166" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H166" s="11">
+        <v>1</v>
+      </c>
+      <c r="I166" s="11">
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>46122</v>
+        <v>46099</v>
       </c>
       <c r="B167" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C167" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D167" s="4">
-        <v>270</v>
+        <v>1800</v>
       </c>
       <c r="E167" t="s">
         <v>19</v>
@@ -5633,16 +5631,16 @@
         <v>46122</v>
       </c>
       <c r="B168" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C168" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D168" s="4">
-        <v>6569.5</v>
+        <v>270</v>
       </c>
       <c r="E168" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F168" t="s">
         <v>21</v>
@@ -5662,16 +5660,16 @@
         <v>46122</v>
       </c>
       <c r="B169" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C169" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D169" s="4">
-        <v>55</v>
+        <v>6569.5</v>
       </c>
       <c r="E169" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F169" t="s">
         <v>21</v>
@@ -5691,13 +5689,13 @@
         <v>46122</v>
       </c>
       <c r="B170" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C170" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D170" s="4">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="E170" t="s">
         <v>19</v>
@@ -5720,13 +5718,13 @@
         <v>46122</v>
       </c>
       <c r="B171" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C171" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="D171" s="4">
-        <v>410</v>
+        <v>135</v>
       </c>
       <c r="E171" t="s">
         <v>19</v>
@@ -5738,10 +5736,10 @@
         <v>20</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I171">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -5749,13 +5747,13 @@
         <v>46122</v>
       </c>
       <c r="B172" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C172" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D172" s="4">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="E172" t="s">
         <v>19</v>
@@ -5775,16 +5773,16 @@
     </row>
     <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>46130</v>
+        <v>46122</v>
       </c>
       <c r="B173" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C173" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D173" s="4">
-        <v>1800</v>
+        <v>250</v>
       </c>
       <c r="E173" t="s">
         <v>19</v>
@@ -5796,24 +5794,24 @@
         <v>20</v>
       </c>
       <c r="H173">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>46152</v>
+        <v>46130</v>
       </c>
       <c r="B174" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C174" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D174" s="4">
-        <v>270</v>
+        <v>1800</v>
       </c>
       <c r="E174" t="s">
         <v>19</v>
@@ -5836,16 +5834,16 @@
         <v>46152</v>
       </c>
       <c r="B175" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C175" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D175" s="4">
-        <v>6569.5</v>
+        <v>270</v>
       </c>
       <c r="E175" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F175" t="s">
         <v>21</v>
@@ -5865,16 +5863,16 @@
         <v>46152</v>
       </c>
       <c r="B176" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D176" s="4">
-        <v>55</v>
+        <v>6569.5</v>
       </c>
       <c r="E176" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F176" t="s">
         <v>21</v>
@@ -5894,57 +5892,57 @@
         <v>46152</v>
       </c>
       <c r="B177" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" s="4">
+        <v>55</v>
+      </c>
+      <c r="E177" t="s">
+        <v>19</v>
+      </c>
+      <c r="F177" t="s">
+        <v>21</v>
+      </c>
+      <c r="G177" t="s">
+        <v>20</v>
+      </c>
+      <c r="H177">
+        <v>12</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>46152</v>
+      </c>
+      <c r="B178" t="s">
         <v>29</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C178" t="s">
         <v>30</v>
       </c>
-      <c r="D177" s="4">
+      <c r="D178" s="4">
         <v>135</v>
       </c>
-      <c r="E177" t="s">
-        <v>19</v>
-      </c>
-      <c r="F177" t="s">
-        <v>21</v>
-      </c>
-      <c r="G177" t="s">
-        <v>20</v>
-      </c>
-      <c r="H177">
-        <v>12</v>
-      </c>
-      <c r="I177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="10">
-        <v>46152</v>
-      </c>
-      <c r="B178" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C178" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D178" s="12">
-        <v>410</v>
-      </c>
-      <c r="E178" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F178" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G178" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H178" s="11">
-        <v>1</v>
-      </c>
-      <c r="I178" s="11">
-        <v>12</v>
+      <c r="E178" t="s">
+        <v>19</v>
+      </c>
+      <c r="F178" t="s">
+        <v>21</v>
+      </c>
+      <c r="G178" t="s">
+        <v>20</v>
+      </c>
+      <c r="H178">
+        <v>12</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -5952,114 +5950,114 @@
         <v>46152</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D179" s="12">
+        <v>410</v>
+      </c>
+      <c r="E179" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F179" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G179" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H179" s="11">
+        <v>1</v>
+      </c>
+      <c r="I179" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="10">
+        <v>46152</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D180" s="12">
         <v>250</v>
       </c>
-      <c r="E179" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F179" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G179" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H179" s="11">
-        <v>1</v>
-      </c>
-      <c r="I179" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="2">
-        <v>46160</v>
-      </c>
-      <c r="B180" t="s">
-        <v>22</v>
-      </c>
-      <c r="C180" t="s">
-        <v>23</v>
-      </c>
-      <c r="D180" s="4">
-        <v>1800</v>
-      </c>
-      <c r="E180" t="s">
-        <v>19</v>
-      </c>
-      <c r="F180" t="s">
-        <v>21</v>
-      </c>
-      <c r="G180" t="s">
-        <v>20</v>
-      </c>
-      <c r="H180">
-        <v>12</v>
-      </c>
-      <c r="I180">
-        <v>1</v>
+      <c r="E180" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F180" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G180" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H180" s="11">
+        <v>1</v>
+      </c>
+      <c r="I180" s="11">
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
+        <v>46160</v>
+      </c>
+      <c r="B181" t="s">
+        <v>22</v>
+      </c>
+      <c r="C181" t="s">
+        <v>23</v>
+      </c>
+      <c r="D181" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E181" t="s">
+        <v>19</v>
+      </c>
+      <c r="F181" t="s">
+        <v>21</v>
+      </c>
+      <c r="G181" t="s">
+        <v>20</v>
+      </c>
+      <c r="H181">
+        <v>12</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
         <v>45850</v>
       </c>
-      <c r="B181" t="s">
-        <v>104</v>
-      </c>
-      <c r="C181" t="s">
-        <v>35</v>
-      </c>
-      <c r="D181" s="4">
+      <c r="B182" t="s">
+        <v>106</v>
+      </c>
+      <c r="C182" t="s">
+        <v>36</v>
+      </c>
+      <c r="D182" s="4">
         <v>200</v>
       </c>
-      <c r="E181" t="s">
-        <v>19</v>
-      </c>
-      <c r="F181" t="s">
-        <v>34</v>
-      </c>
-      <c r="G181" t="s">
-        <v>31</v>
-      </c>
-      <c r="H181">
-        <v>1</v>
-      </c>
-      <c r="I181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="7">
-        <v>45848</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D182" s="9">
-        <v>1046.8800000000001</v>
-      </c>
-      <c r="E182" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F182" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G182" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H182" s="8">
-        <v>1</v>
-      </c>
-      <c r="I182" s="8">
+      <c r="E182" t="s">
+        <v>19</v>
+      </c>
+      <c r="F182" t="s">
+        <v>34</v>
+      </c>
+      <c r="G182" t="s">
+        <v>31</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
         <v>1</v>
       </c>
     </row>
@@ -6068,271 +6066,73 @@
         <v>45848</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>123</v>
       </c>
       <c r="D183" s="9">
+        <v>1046.8800000000001</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H183" s="8">
+        <v>1</v>
+      </c>
+      <c r="I183" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="7">
+        <v>45848</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D184" s="9">
         <v>76.94</v>
       </c>
-      <c r="E183" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F183" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G183" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H183" s="8">
-        <v>1</v>
-      </c>
-      <c r="I183" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="2">
-        <v>46001</v>
-      </c>
-      <c r="B184" t="s">
-        <v>83</v>
-      </c>
-      <c r="C184" t="s">
-        <v>35</v>
-      </c>
-      <c r="D184" s="4">
-        <v>916.02</v>
-      </c>
-      <c r="E184" t="s">
-        <v>19</v>
-      </c>
-      <c r="F184" t="s">
-        <v>21</v>
-      </c>
-      <c r="G184" t="s">
-        <v>20</v>
-      </c>
-      <c r="H184">
-        <v>1</v>
-      </c>
-      <c r="I184">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="2">
-        <v>46001</v>
-      </c>
-      <c r="B185" t="s">
-        <v>81</v>
-      </c>
-      <c r="C185" t="s">
-        <v>82</v>
-      </c>
-      <c r="D185" s="4">
-        <v>410</v>
-      </c>
-      <c r="E185" t="s">
-        <v>19</v>
-      </c>
-      <c r="F185" t="s">
-        <v>21</v>
-      </c>
-      <c r="G185" t="s">
-        <v>20</v>
-      </c>
-      <c r="H185">
-        <v>1</v>
-      </c>
-      <c r="I185">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="2">
-        <v>46001</v>
-      </c>
-      <c r="B186" t="s">
-        <v>80</v>
-      </c>
-      <c r="C186" t="s">
-        <v>49</v>
-      </c>
-      <c r="D186" s="4">
-        <v>250</v>
-      </c>
-      <c r="E186" t="s">
-        <v>19</v>
-      </c>
-      <c r="F186" t="s">
-        <v>21</v>
-      </c>
-      <c r="G186" t="s">
-        <v>20</v>
-      </c>
-      <c r="H186">
-        <v>1</v>
-      </c>
-      <c r="I186">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="2">
-        <v>46006</v>
-      </c>
-      <c r="B187" t="s">
-        <v>84</v>
-      </c>
-      <c r="C187" t="s">
-        <v>41</v>
-      </c>
-      <c r="D187" s="4">
-        <v>232.29</v>
-      </c>
-      <c r="E187" t="s">
-        <v>19</v>
-      </c>
-      <c r="F187" t="s">
-        <v>21</v>
-      </c>
-      <c r="G187" t="s">
-        <v>20</v>
-      </c>
-      <c r="H187">
-        <v>1</v>
-      </c>
-      <c r="I187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="2">
-        <v>46009</v>
-      </c>
-      <c r="B188" t="s">
-        <v>22</v>
-      </c>
-      <c r="C188" t="s">
-        <v>23</v>
-      </c>
-      <c r="D188" s="4">
-        <v>1800</v>
-      </c>
-      <c r="E188" t="s">
-        <v>19</v>
-      </c>
-      <c r="F188" t="s">
-        <v>21</v>
-      </c>
-      <c r="G188" t="s">
-        <v>20</v>
-      </c>
-      <c r="H188">
-        <v>12</v>
-      </c>
-      <c r="I188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A189" s="2">
-        <v>45887</v>
-      </c>
-      <c r="B189" t="s">
-        <v>22</v>
-      </c>
-      <c r="C189" t="s">
-        <v>23</v>
-      </c>
-      <c r="D189" s="4">
-        <v>1800</v>
-      </c>
-      <c r="E189" t="s">
-        <v>19</v>
-      </c>
-      <c r="F189" t="s">
-        <v>21</v>
-      </c>
-      <c r="G189" t="s">
-        <v>20</v>
-      </c>
-      <c r="H189">
-        <v>12</v>
-      </c>
-      <c r="I189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A190" s="2">
-        <v>45889</v>
-      </c>
-      <c r="B190" t="s">
-        <v>83</v>
-      </c>
-      <c r="C190" t="s">
-        <v>35</v>
-      </c>
-      <c r="D190" s="4">
-        <v>916.02</v>
-      </c>
-      <c r="E190" t="s">
-        <v>19</v>
-      </c>
-      <c r="F190" t="s">
-        <v>21</v>
-      </c>
-      <c r="G190" t="s">
-        <v>20</v>
-      </c>
-      <c r="H190">
-        <v>1</v>
-      </c>
-      <c r="I190">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A191" s="2">
-        <v>45879</v>
-      </c>
-      <c r="B191" t="s">
-        <v>125</v>
-      </c>
-      <c r="C191" t="s">
-        <v>82</v>
-      </c>
-      <c r="D191" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E191" t="s">
-        <v>126</v>
-      </c>
-      <c r="F191" t="s">
-        <v>21</v>
-      </c>
-      <c r="G191" t="s">
-        <v>20</v>
-      </c>
-      <c r="H191">
-        <v>1</v>
-      </c>
-      <c r="I191">
+      <c r="E184" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F184" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G184" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H184" s="8">
+        <v>1</v>
+      </c>
+      <c r="I184" s="8">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I190" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <autoFilter ref="A1:I184" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2025" month="8" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A99:I190">
-      <sortCondition ref="A1:A190"/>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Expense"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A88:I93">
+      <sortCondition ref="E1:E182"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6420,11 +6220,11 @@
         <v>45838</v>
       </c>
       <c r="B2" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
         <v>6909.5</v>
       </c>
       <c r="C2" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
         <v>6764.2199999999984</v>
       </c>
       <c r="D2" s="4">
@@ -6442,11 +6242,11 @@
         <v>45869</v>
       </c>
       <c r="B3" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
         <v>9266.8799999999992</v>
       </c>
       <c r="C3" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
         <v>9359.7199999999993</v>
       </c>
       <c r="D3" s="4">
@@ -6464,20 +6264,20 @@
         <v>45900</v>
       </c>
       <c r="B4" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
-        <v>7069.5</v>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <v>6569.5</v>
       </c>
       <c r="C4" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
-        <v>5153.9600000000009</v>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <v>7213.6200000000008</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>1915.5399999999991</v>
+        <v>-644.1200000000008</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="1"/>
-        <v>1967.9800000000005</v>
+        <v>-591.67999999999938</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -6486,20 +6286,20 @@
         <v>45930</v>
       </c>
       <c r="B5" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
         <v>6569.5</v>
       </c>
       <c r="C5" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
-        <v>4362.91</v>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <v>3985.62</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>2206.59</v>
+        <v>2583.88</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>4174.5700000000006</v>
+        <v>1992.2000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -6508,20 +6308,20 @@
         <v>45961</v>
       </c>
       <c r="B6" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A6,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A6,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A6,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A6,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
         <v>6569.5</v>
       </c>
       <c r="C6" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A6,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A6,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
-        <v>4362.91</v>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A6,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A6,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <v>3985.62</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>2206.59</v>
+        <v>2583.88</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>6381.1600000000008</v>
+        <v>4576.0800000000008</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -6530,20 +6330,20 @@
         <v>45991</v>
       </c>
       <c r="B7" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A7,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A7,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A7,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A7,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
         <v>6569.5</v>
       </c>
       <c r="C7" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A7,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A7,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
-        <v>4362.91</v>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A7,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A7,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <v>3985.62</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>2206.59</v>
+        <v>2583.88</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>8587.75</v>
+        <v>7159.9600000000009</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -6552,20 +6352,20 @@
         <v>46022</v>
       </c>
       <c r="B8" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A8,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A8,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A8,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A8,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
         <v>6569.5</v>
       </c>
       <c r="C8" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A8,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A8,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
-        <v>4213.3099999999995</v>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A8,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A8,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <v>3836.02</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>2356.1900000000005</v>
+        <v>2733.48</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>10943.94</v>
+        <v>9893.44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -6574,11 +6374,11 @@
         <v>46053</v>
       </c>
       <c r="B9" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A9,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A9,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A9,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A9,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
         <v>6569.5</v>
       </c>
       <c r="C9" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A9,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A9,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A9,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A9,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
         <v>2920</v>
       </c>
       <c r="D9" s="4">
@@ -6587,7 +6387,7 @@
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>14593.44</v>
+        <v>13542.94</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -6596,11 +6396,11 @@
         <v>46081</v>
       </c>
       <c r="B10" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A10,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A10,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A10,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A10,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
         <v>6569.5</v>
       </c>
       <c r="C10" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A10,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A10,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A10,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A10,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
         <v>2920</v>
       </c>
       <c r="D10" s="4">
@@ -6609,7 +6409,7 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>18242.940000000002</v>
+        <v>17192.440000000002</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -6618,11 +6418,11 @@
         <v>46112</v>
       </c>
       <c r="B11" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A11,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A11,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A11,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A11,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
         <v>6569.5</v>
       </c>
       <c r="C11" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A11,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A11,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A11,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A11,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
         <v>2920</v>
       </c>
       <c r="D11" s="4">
@@ -6631,7 +6431,7 @@
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>21892.440000000002</v>
+        <v>20841.940000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -6640,11 +6440,11 @@
         <v>46142</v>
       </c>
       <c r="B12" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A12,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A12,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A12,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A12,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
         <v>6569.5</v>
       </c>
       <c r="C12" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A12,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A12,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A12,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A12,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
         <v>2920</v>
       </c>
       <c r="D12" s="4">
@@ -6653,7 +6453,7 @@
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>25541.940000000002</v>
+        <v>24491.440000000002</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -6662,11 +6462,11 @@
         <v>46173</v>
       </c>
       <c r="B13" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A13,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A13,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A13,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A13,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
         <v>6569.5</v>
       </c>
       <c r="C13" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A13,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A13,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A13,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A13,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
         <v>2920</v>
       </c>
       <c r="D13" s="4">
@@ -6675,7 +6475,7 @@
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>29191.440000000002</v>
+        <v>28140.940000000002</v>
       </c>
     </row>
   </sheetData>

--- a/fluxo_caixa.xlsx
+++ b/fluxo_caixa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandremoreira/Documents/py_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ECD6361-4838-8343-AF8E-75E2201C453D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAEBD37-3420-0742-A654-C3D44A5ED343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="500" windowWidth="23220" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27480" yWindow="0" windowWidth="23720" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LANCAMENTOS" sheetId="2" r:id="rId1"/>
@@ -18,10 +18,9 @@
     <sheet name="SUMMARY" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANCAMENTOS!$A$1:$I$184</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANCAMENTOS!$A$1:$I$185</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="130">
   <si>
     <t>Data</t>
   </si>
@@ -417,6 +416,18 @@
   </si>
   <si>
     <t>Divida</t>
+  </si>
+  <si>
+    <t>Clube Esperia</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Parcelamento Receita</t>
+  </si>
+  <si>
+    <t>Impostos</t>
   </si>
 </sst>
 </file>
@@ -792,10 +803,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I184"/>
+  <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194"/>
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3678,7 +3689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>45879</v>
       </c>
@@ -3707,7 +3718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>45879</v>
       </c>
@@ -3736,7 +3747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>45879</v>
       </c>
@@ -3765,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>45879</v>
       </c>
@@ -3794,7 +3805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>45879</v>
       </c>
@@ -3823,7 +3834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>45879</v>
       </c>
@@ -3852,7 +3863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>45882</v>
       </c>
@@ -3881,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>45887</v>
       </c>
@@ -3910,7 +3921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>45889</v>
       </c>
@@ -3939,7 +3950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>45910</v>
       </c>
@@ -3979,7 +3990,7 @@
         <v>25</v>
       </c>
       <c r="D110" s="4">
-        <v>6569.5</v>
+        <v>7508</v>
       </c>
       <c r="E110" t="s">
         <v>26</v>
@@ -3997,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>45910</v>
       </c>
@@ -4026,7 +4037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>45910</v>
       </c>
@@ -4037,7 +4048,7 @@
         <v>30</v>
       </c>
       <c r="D112" s="4">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="E112" t="s">
         <v>19</v>
@@ -4055,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>45910</v>
       </c>
@@ -4084,7 +4095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>45910</v>
       </c>
@@ -4095,7 +4106,7 @@
         <v>36</v>
       </c>
       <c r="D114" s="4">
-        <v>916.02</v>
+        <v>1500</v>
       </c>
       <c r="E114" t="s">
         <v>19</v>
@@ -4113,7 +4124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="10">
         <v>45910</v>
       </c>
@@ -4142,7 +4153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="10">
         <v>45910</v>
       </c>
@@ -4171,7 +4182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>45918</v>
       </c>
@@ -6119,11 +6130,98 @@
         <v>1</v>
       </c>
     </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B185" t="s">
+        <v>126</v>
+      </c>
+      <c r="C185" t="s">
+        <v>36</v>
+      </c>
+      <c r="D185" s="4">
+        <v>671.4</v>
+      </c>
+      <c r="E185" t="s">
+        <v>19</v>
+      </c>
+      <c r="F185" t="s">
+        <v>127</v>
+      </c>
+      <c r="G185" t="s">
+        <v>20</v>
+      </c>
+      <c r="H185">
+        <v>6</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B186" t="s">
+        <v>128</v>
+      </c>
+      <c r="C186" t="s">
+        <v>129</v>
+      </c>
+      <c r="D186" s="4">
+        <v>305.56</v>
+      </c>
+      <c r="E186" t="s">
+        <v>19</v>
+      </c>
+      <c r="F186" t="s">
+        <v>127</v>
+      </c>
+      <c r="G186" t="s">
+        <v>20</v>
+      </c>
+      <c r="H186">
+        <v>22</v>
+      </c>
+      <c r="I186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B187" t="s">
+        <v>86</v>
+      </c>
+      <c r="C187" t="s">
+        <v>43</v>
+      </c>
+      <c r="D187" s="4">
+        <v>725</v>
+      </c>
+      <c r="E187" t="s">
+        <v>19</v>
+      </c>
+      <c r="F187" t="s">
+        <v>127</v>
+      </c>
+      <c r="G187" t="s">
+        <v>20</v>
+      </c>
+      <c r="H187">
+        <v>12</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I184" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <autoFilter ref="A1:I185" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2025" month="8" dateTimeGrouping="month"/>
+        <dateGroupItem year="2025" month="9" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">
@@ -6287,19 +6385,19 @@
       </c>
       <c r="B5" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
-        <v>6569.5</v>
+        <v>7508</v>
       </c>
       <c r="C5" s="4">
         <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
-        <v>3985.62</v>
+        <v>6406.56</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>2583.88</v>
+        <v>1101.4399999999996</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>1992.2000000000007</v>
+        <v>509.76000000000022</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -6321,7 +6419,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>4576.0800000000008</v>
+        <v>3093.6400000000003</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -6343,7 +6441,7 @@
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>7159.9600000000009</v>
+        <v>5677.52</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -6365,7 +6463,7 @@
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>9893.44</v>
+        <v>8411</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -6387,7 +6485,7 @@
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>13542.94</v>
+        <v>12060.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -6409,7 +6507,7 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>17192.440000000002</v>
+        <v>15710</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -6431,7 +6529,7 @@
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>20841.940000000002</v>
+        <v>19359.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -6453,7 +6551,7 @@
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>24491.440000000002</v>
+        <v>23009</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -6475,7 +6573,7 @@
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>28140.940000000002</v>
+        <v>26658.5</v>
       </c>
     </row>
   </sheetData>

--- a/fluxo_caixa.xlsx
+++ b/fluxo_caixa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandremoreira/Documents/py_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAEBD37-3420-0742-A654-C3D44A5ED343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A580238A-8963-B544-958B-5FA4F39CEEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27480" yWindow="0" windowWidth="23720" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="SUMMARY" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANCAMENTOS!$A$1:$I$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LANCAMENTOS!$A$1:$I$184</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="130">
   <si>
     <t>Data</t>
   </si>
@@ -803,10 +803,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I187"/>
+  <dimension ref="A1:I186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C203" sqref="C203"/>
+      <selection activeCell="E194" sqref="E194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4129,13 +4129,13 @@
         <v>45910</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D115" s="12">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>19</v>
@@ -4154,46 +4154,46 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="10">
-        <v>45910</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D116" s="12">
-        <v>250</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H116" s="11">
-        <v>1</v>
-      </c>
-      <c r="I116" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B116" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E116" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116" t="s">
+        <v>21</v>
+      </c>
+      <c r="G116" t="s">
+        <v>20</v>
+      </c>
+      <c r="H116">
+        <v>12</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>45918</v>
+        <v>45940</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C117" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D117" s="4">
-        <v>1800</v>
+        <v>270</v>
       </c>
       <c r="E117" t="s">
         <v>19</v>
@@ -4216,16 +4216,16 @@
         <v>45940</v>
       </c>
       <c r="B118" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C118" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D118" s="4">
-        <v>270</v>
+        <v>6569.5</v>
       </c>
       <c r="E118" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F118" t="s">
         <v>21</v>
@@ -4245,16 +4245,16 @@
         <v>45940</v>
       </c>
       <c r="B119" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C119" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D119" s="4">
-        <v>6569.5</v>
+        <v>55</v>
       </c>
       <c r="E119" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F119" t="s">
         <v>21</v>
@@ -4274,13 +4274,13 @@
         <v>45940</v>
       </c>
       <c r="B120" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D120" s="4">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E120" t="s">
         <v>19</v>
@@ -4303,28 +4303,28 @@
         <v>45940</v>
       </c>
       <c r="B121" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C121" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D121" s="4">
-        <v>135</v>
+        <v>149.6</v>
       </c>
       <c r="E121" t="s">
         <v>19</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
         <v>20</v>
       </c>
       <c r="H121">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4332,28 +4332,28 @@
         <v>45940</v>
       </c>
       <c r="B122" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C122" t="s">
         <v>36</v>
       </c>
       <c r="D122" s="4">
-        <v>149.6</v>
+        <v>916.02</v>
       </c>
       <c r="E122" t="s">
         <v>19</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G122" t="s">
         <v>20</v>
       </c>
       <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
         <v>6</v>
-      </c>
-      <c r="I122">
-        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4361,13 +4361,13 @@
         <v>45940</v>
       </c>
       <c r="B123" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C123" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D123" s="4">
-        <v>916.02</v>
+        <v>410</v>
       </c>
       <c r="E123" t="s">
         <v>19</v>
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="I123">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4390,13 +4390,13 @@
         <v>45940</v>
       </c>
       <c r="B124" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C124" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D124" s="4">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="E124" t="s">
         <v>19</v>
@@ -4416,16 +4416,16 @@
     </row>
     <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>45940</v>
+        <v>45948</v>
       </c>
       <c r="B125" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="C125" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D125" s="4">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="E125" t="s">
         <v>19</v>
@@ -4437,24 +4437,24 @@
         <v>20</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I125">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>45948</v>
+        <v>45971</v>
       </c>
       <c r="B126" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D126" s="4">
-        <v>1800</v>
+        <v>270</v>
       </c>
       <c r="E126" t="s">
         <v>19</v>
@@ -4477,16 +4477,16 @@
         <v>45971</v>
       </c>
       <c r="B127" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C127" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D127" s="4">
-        <v>270</v>
+        <v>6569.5</v>
       </c>
       <c r="E127" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F127" t="s">
         <v>21</v>
@@ -4506,16 +4506,16 @@
         <v>45971</v>
       </c>
       <c r="B128" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C128" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D128" s="4">
-        <v>6569.5</v>
+        <v>55</v>
       </c>
       <c r="E128" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F128" t="s">
         <v>21</v>
@@ -4535,13 +4535,13 @@
         <v>45971</v>
       </c>
       <c r="B129" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D129" s="4">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E129" t="s">
         <v>19</v>
@@ -4564,28 +4564,28 @@
         <v>45971</v>
       </c>
       <c r="B130" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C130" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D130" s="4">
-        <v>135</v>
+        <v>149.6</v>
       </c>
       <c r="E130" t="s">
         <v>19</v>
       </c>
       <c r="F130" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
         <v>20</v>
       </c>
       <c r="H130">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4593,57 +4593,57 @@
         <v>45971</v>
       </c>
       <c r="B131" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C131" t="s">
         <v>36</v>
       </c>
       <c r="D131" s="4">
-        <v>149.6</v>
+        <v>916.02</v>
       </c>
       <c r="E131" t="s">
         <v>19</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G131" t="s">
         <v>20</v>
       </c>
       <c r="H131">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="2">
+      <c r="A132" s="10">
         <v>45971</v>
       </c>
-      <c r="B132" t="s">
-        <v>85</v>
-      </c>
-      <c r="C132" t="s">
-        <v>36</v>
-      </c>
-      <c r="D132" s="4">
-        <v>916.02</v>
-      </c>
-      <c r="E132" t="s">
-        <v>19</v>
-      </c>
-      <c r="F132" t="s">
-        <v>21</v>
-      </c>
-      <c r="G132" t="s">
-        <v>20</v>
-      </c>
-      <c r="H132">
-        <v>1</v>
-      </c>
-      <c r="I132">
-        <v>6</v>
+      <c r="B132" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D132" s="12">
+        <v>410</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132" s="11">
+        <v>1</v>
+      </c>
+      <c r="I132" s="11">
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4651,13 +4651,13 @@
         <v>45971</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D133" s="12">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>19</v>
@@ -4676,46 +4676,46 @@
       </c>
     </row>
     <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="10">
-        <v>45971</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D134" s="12">
-        <v>250</v>
-      </c>
-      <c r="E134" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F134" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H134" s="11">
-        <v>1</v>
-      </c>
-      <c r="I134" s="11">
-        <v>12</v>
+      <c r="A134" s="2">
+        <v>45979</v>
+      </c>
+      <c r="B134" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E134" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134" t="s">
+        <v>21</v>
+      </c>
+      <c r="G134" t="s">
+        <v>20</v>
+      </c>
+      <c r="H134">
+        <v>12</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>45979</v>
+        <v>46001</v>
       </c>
       <c r="B135" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C135" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D135" s="4">
-        <v>1800</v>
+        <v>270</v>
       </c>
       <c r="E135" t="s">
         <v>19</v>
@@ -4738,16 +4738,16 @@
         <v>46001</v>
       </c>
       <c r="B136" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C136" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D136" s="4">
-        <v>270</v>
+        <v>6569.5</v>
       </c>
       <c r="E136" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F136" t="s">
         <v>21</v>
@@ -4767,16 +4767,16 @@
         <v>46001</v>
       </c>
       <c r="B137" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C137" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D137" s="4">
-        <v>6569.5</v>
+        <v>55</v>
       </c>
       <c r="E137" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F137" t="s">
         <v>21</v>
@@ -4796,13 +4796,13 @@
         <v>46001</v>
       </c>
       <c r="B138" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D138" s="4">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E138" t="s">
         <v>19</v>
@@ -4825,13 +4825,13 @@
         <v>46001</v>
       </c>
       <c r="B139" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C139" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D139" s="4">
-        <v>135</v>
+        <v>916.02</v>
       </c>
       <c r="E139" t="s">
         <v>19</v>
@@ -4843,10 +4843,10 @@
         <v>20</v>
       </c>
       <c r="H139">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4854,13 +4854,13 @@
         <v>46001</v>
       </c>
       <c r="B140" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C140" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D140" s="4">
-        <v>916.02</v>
+        <v>410</v>
       </c>
       <c r="E140" t="s">
         <v>19</v>
@@ -4875,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="I140">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4883,13 +4883,13 @@
         <v>46001</v>
       </c>
       <c r="B141" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C141" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D141" s="4">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="E141" t="s">
         <v>19</v>
@@ -4909,16 +4909,16 @@
     </row>
     <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>46001</v>
+        <v>46009</v>
       </c>
       <c r="B142" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="C142" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D142" s="4">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="E142" t="s">
         <v>19</v>
@@ -4930,24 +4930,24 @@
         <v>20</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I142">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>46009</v>
+        <v>46032</v>
       </c>
       <c r="B143" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C143" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D143" s="4">
-        <v>1800</v>
+        <v>270</v>
       </c>
       <c r="E143" t="s">
         <v>19</v>
@@ -4970,16 +4970,16 @@
         <v>46032</v>
       </c>
       <c r="B144" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C144" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D144" s="4">
-        <v>270</v>
+        <v>6569.5</v>
       </c>
       <c r="E144" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F144" t="s">
         <v>21</v>
@@ -4999,16 +4999,16 @@
         <v>46032</v>
       </c>
       <c r="B145" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C145" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D145" s="4">
-        <v>6569.5</v>
+        <v>55</v>
       </c>
       <c r="E145" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F145" t="s">
         <v>21</v>
@@ -5028,13 +5028,13 @@
         <v>46032</v>
       </c>
       <c r="B146" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D146" s="4">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E146" t="s">
         <v>19</v>
@@ -5053,32 +5053,32 @@
       </c>
     </row>
     <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="2">
+      <c r="A147" s="10">
         <v>46032</v>
       </c>
-      <c r="B147" t="s">
-        <v>29</v>
-      </c>
-      <c r="C147" t="s">
-        <v>30</v>
-      </c>
-      <c r="D147" s="4">
-        <v>135</v>
-      </c>
-      <c r="E147" t="s">
-        <v>19</v>
-      </c>
-      <c r="F147" t="s">
-        <v>21</v>
-      </c>
-      <c r="G147" t="s">
-        <v>20</v>
-      </c>
-      <c r="H147">
-        <v>12</v>
-      </c>
-      <c r="I147">
-        <v>1</v>
+      <c r="B147" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D147" s="12">
+        <v>410</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H147" s="11">
+        <v>1</v>
+      </c>
+      <c r="I147" s="11">
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -5086,13 +5086,13 @@
         <v>46032</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D148" s="12">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="E148" s="11" t="s">
         <v>19</v>
@@ -5111,46 +5111,46 @@
       </c>
     </row>
     <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="10">
-        <v>46032</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D149" s="12">
-        <v>250</v>
-      </c>
-      <c r="E149" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F149" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G149" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H149" s="11">
-        <v>1</v>
-      </c>
-      <c r="I149" s="11">
-        <v>12</v>
+      <c r="A149" s="2">
+        <v>46040</v>
+      </c>
+      <c r="B149" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" t="s">
+        <v>23</v>
+      </c>
+      <c r="D149" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E149" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" t="s">
+        <v>21</v>
+      </c>
+      <c r="G149" t="s">
+        <v>20</v>
+      </c>
+      <c r="H149">
+        <v>12</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>46040</v>
+        <v>46063</v>
       </c>
       <c r="B150" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C150" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D150" s="4">
-        <v>1800</v>
+        <v>270</v>
       </c>
       <c r="E150" t="s">
         <v>19</v>
@@ -5173,16 +5173,16 @@
         <v>46063</v>
       </c>
       <c r="B151" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C151" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D151" s="4">
-        <v>270</v>
+        <v>6569.5</v>
       </c>
       <c r="E151" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F151" t="s">
         <v>21</v>
@@ -5202,16 +5202,16 @@
         <v>46063</v>
       </c>
       <c r="B152" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C152" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D152" s="4">
-        <v>6569.5</v>
+        <v>55</v>
       </c>
       <c r="E152" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F152" t="s">
         <v>21</v>
@@ -5231,13 +5231,13 @@
         <v>46063</v>
       </c>
       <c r="B153" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D153" s="4">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E153" t="s">
         <v>19</v>
@@ -5260,13 +5260,13 @@
         <v>46063</v>
       </c>
       <c r="B154" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C154" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D154" s="4">
-        <v>135</v>
+        <v>410</v>
       </c>
       <c r="E154" t="s">
         <v>19</v>
@@ -5278,10 +5278,10 @@
         <v>20</v>
       </c>
       <c r="H154">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -5289,13 +5289,13 @@
         <v>46063</v>
       </c>
       <c r="B155" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C155" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D155" s="4">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="E155" t="s">
         <v>19</v>
@@ -5315,16 +5315,16 @@
     </row>
     <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>46063</v>
+        <v>46071</v>
       </c>
       <c r="B156" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="C156" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D156" s="4">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="E156" t="s">
         <v>19</v>
@@ -5336,82 +5336,70 @@
         <v>20</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I156">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="2">
-        <v>46071</v>
-      </c>
-      <c r="B157" t="s">
-        <v>22</v>
-      </c>
-      <c r="C157" t="s">
-        <v>23</v>
-      </c>
-      <c r="D157" s="4">
-        <v>1800</v>
-      </c>
-      <c r="E157" t="s">
-        <v>19</v>
-      </c>
-      <c r="F157" t="s">
-        <v>21</v>
-      </c>
-      <c r="G157" t="s">
-        <v>20</v>
-      </c>
-      <c r="H157">
-        <v>12</v>
-      </c>
-      <c r="I157">
+      <c r="A157" s="7">
+        <v>45848</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D157" s="9">
+        <v>25</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H157" s="8">
+        <v>1</v>
+      </c>
+      <c r="I157" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="7">
-        <v>45848</v>
+      <c r="A158" s="2">
+        <v>45849</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D158" s="9">
+        <v>36</v>
+      </c>
+      <c r="D158" s="4">
         <v>25</v>
       </c>
-      <c r="E158" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F158" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G158" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H158" s="8">
-        <v>1</v>
-      </c>
-      <c r="I158" s="8">
-        <v>1</v>
+      <c r="E158" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D159" s="4">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="E159" t="s">
         <v>19</v>
@@ -5419,19 +5407,31 @@
     </row>
     <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>45850</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>36</v>
+        <v>46091</v>
+      </c>
+      <c r="B160" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" t="s">
+        <v>18</v>
       </c>
       <c r="D160" s="4">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="E160" t="s">
         <v>19</v>
+      </c>
+      <c r="F160" t="s">
+        <v>21</v>
+      </c>
+      <c r="G160" t="s">
+        <v>20</v>
+      </c>
+      <c r="H160">
+        <v>12</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -5439,16 +5439,16 @@
         <v>46091</v>
       </c>
       <c r="B161" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C161" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D161" s="4">
-        <v>270</v>
+        <v>6569.5</v>
       </c>
       <c r="E161" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F161" t="s">
         <v>21</v>
@@ -5468,16 +5468,16 @@
         <v>46091</v>
       </c>
       <c r="B162" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C162" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D162" s="4">
-        <v>6569.5</v>
+        <v>55</v>
       </c>
       <c r="E162" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F162" t="s">
         <v>21</v>
@@ -5497,13 +5497,13 @@
         <v>46091</v>
       </c>
       <c r="B163" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D163" s="4">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E163" t="s">
         <v>19</v>
@@ -5522,32 +5522,32 @@
       </c>
     </row>
     <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="2">
+      <c r="A164" s="10">
         <v>46091</v>
       </c>
-      <c r="B164" t="s">
-        <v>29</v>
-      </c>
-      <c r="C164" t="s">
-        <v>30</v>
-      </c>
-      <c r="D164" s="4">
-        <v>135</v>
-      </c>
-      <c r="E164" t="s">
-        <v>19</v>
-      </c>
-      <c r="F164" t="s">
-        <v>21</v>
-      </c>
-      <c r="G164" t="s">
-        <v>20</v>
-      </c>
-      <c r="H164">
-        <v>12</v>
-      </c>
-      <c r="I164">
-        <v>1</v>
+      <c r="B164" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D164" s="12">
+        <v>410</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H164" s="11">
+        <v>1</v>
+      </c>
+      <c r="I164" s="11">
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -5555,13 +5555,13 @@
         <v>46091</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D165" s="12">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="E165" s="11" t="s">
         <v>19</v>
@@ -5580,46 +5580,46 @@
       </c>
     </row>
     <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="10">
-        <v>46091</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D166" s="12">
-        <v>250</v>
-      </c>
-      <c r="E166" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F166" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G166" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H166" s="11">
-        <v>1</v>
-      </c>
-      <c r="I166" s="11">
-        <v>12</v>
+      <c r="A166" s="2">
+        <v>46099</v>
+      </c>
+      <c r="B166" t="s">
+        <v>22</v>
+      </c>
+      <c r="C166" t="s">
+        <v>23</v>
+      </c>
+      <c r="D166" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E166" t="s">
+        <v>19</v>
+      </c>
+      <c r="F166" t="s">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>20</v>
+      </c>
+      <c r="H166">
+        <v>12</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>46099</v>
+        <v>46122</v>
       </c>
       <c r="B167" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C167" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D167" s="4">
-        <v>1800</v>
+        <v>270</v>
       </c>
       <c r="E167" t="s">
         <v>19</v>
@@ -5642,16 +5642,16 @@
         <v>46122</v>
       </c>
       <c r="B168" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C168" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D168" s="4">
-        <v>270</v>
+        <v>6569.5</v>
       </c>
       <c r="E168" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F168" t="s">
         <v>21</v>
@@ -5671,16 +5671,16 @@
         <v>46122</v>
       </c>
       <c r="B169" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C169" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D169" s="4">
-        <v>6569.5</v>
+        <v>55</v>
       </c>
       <c r="E169" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F169" t="s">
         <v>21</v>
@@ -5700,13 +5700,13 @@
         <v>46122</v>
       </c>
       <c r="B170" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D170" s="4">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E170" t="s">
         <v>19</v>
@@ -5729,13 +5729,13 @@
         <v>46122</v>
       </c>
       <c r="B171" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C171" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D171" s="4">
-        <v>135</v>
+        <v>410</v>
       </c>
       <c r="E171" t="s">
         <v>19</v>
@@ -5747,10 +5747,10 @@
         <v>20</v>
       </c>
       <c r="H171">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -5758,13 +5758,13 @@
         <v>46122</v>
       </c>
       <c r="B172" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C172" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D172" s="4">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="E172" t="s">
         <v>19</v>
@@ -5784,16 +5784,16 @@
     </row>
     <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>46122</v>
+        <v>46130</v>
       </c>
       <c r="B173" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="C173" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D173" s="4">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="E173" t="s">
         <v>19</v>
@@ -5805,24 +5805,24 @@
         <v>20</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I173">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>46130</v>
+        <v>46152</v>
       </c>
       <c r="B174" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C174" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D174" s="4">
-        <v>1800</v>
+        <v>270</v>
       </c>
       <c r="E174" t="s">
         <v>19</v>
@@ -5845,16 +5845,16 @@
         <v>46152</v>
       </c>
       <c r="B175" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C175" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D175" s="4">
-        <v>270</v>
+        <v>6569.5</v>
       </c>
       <c r="E175" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F175" t="s">
         <v>21</v>
@@ -5874,16 +5874,16 @@
         <v>46152</v>
       </c>
       <c r="B176" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C176" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D176" s="4">
-        <v>6569.5</v>
+        <v>55</v>
       </c>
       <c r="E176" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F176" t="s">
         <v>21</v>
@@ -5903,13 +5903,13 @@
         <v>46152</v>
       </c>
       <c r="B177" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C177" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D177" s="4">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E177" t="s">
         <v>19</v>
@@ -5928,32 +5928,32 @@
       </c>
     </row>
     <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="2">
+      <c r="A178" s="10">
         <v>46152</v>
       </c>
-      <c r="B178" t="s">
-        <v>29</v>
-      </c>
-      <c r="C178" t="s">
-        <v>30</v>
-      </c>
-      <c r="D178" s="4">
-        <v>135</v>
-      </c>
-      <c r="E178" t="s">
-        <v>19</v>
-      </c>
-      <c r="F178" t="s">
-        <v>21</v>
-      </c>
-      <c r="G178" t="s">
-        <v>20</v>
-      </c>
-      <c r="H178">
-        <v>12</v>
-      </c>
-      <c r="I178">
-        <v>1</v>
+      <c r="B178" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D178" s="12">
+        <v>410</v>
+      </c>
+      <c r="E178" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F178" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G178" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H178" s="11">
+        <v>1</v>
+      </c>
+      <c r="I178" s="11">
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -5961,13 +5961,13 @@
         <v>46152</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D179" s="12">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="E179" s="11" t="s">
         <v>19</v>
@@ -5986,89 +5986,89 @@
       </c>
     </row>
     <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="10">
-        <v>46152</v>
-      </c>
-      <c r="B180" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C180" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D180" s="12">
-        <v>250</v>
-      </c>
-      <c r="E180" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F180" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G180" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H180" s="11">
-        <v>1</v>
-      </c>
-      <c r="I180" s="11">
-        <v>12</v>
+      <c r="A180" s="2">
+        <v>46160</v>
+      </c>
+      <c r="B180" t="s">
+        <v>22</v>
+      </c>
+      <c r="C180" t="s">
+        <v>23</v>
+      </c>
+      <c r="D180" s="4">
+        <v>1800</v>
+      </c>
+      <c r="E180" t="s">
+        <v>19</v>
+      </c>
+      <c r="F180" t="s">
+        <v>21</v>
+      </c>
+      <c r="G180" t="s">
+        <v>20</v>
+      </c>
+      <c r="H180">
+        <v>12</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>46160</v>
+        <v>45850</v>
       </c>
       <c r="B181" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="C181" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D181" s="4">
-        <v>1800</v>
+        <v>200</v>
       </c>
       <c r="E181" t="s">
         <v>19</v>
       </c>
       <c r="F181" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H181">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I181">
         <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="2">
-        <v>45850</v>
-      </c>
-      <c r="B182" t="s">
-        <v>106</v>
-      </c>
-      <c r="C182" t="s">
-        <v>36</v>
-      </c>
-      <c r="D182" s="4">
-        <v>200</v>
-      </c>
-      <c r="E182" t="s">
-        <v>19</v>
-      </c>
-      <c r="F182" t="s">
-        <v>34</v>
-      </c>
-      <c r="G182" t="s">
-        <v>31</v>
-      </c>
-      <c r="H182">
-        <v>1</v>
-      </c>
-      <c r="I182">
+      <c r="A182" s="7">
+        <v>45848</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D182" s="9">
+        <v>1046.8800000000001</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G182" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H182" s="8">
+        <v>1</v>
+      </c>
+      <c r="I182" s="8">
         <v>1</v>
       </c>
     </row>
@@ -6077,13 +6077,13 @@
         <v>45848</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D183" s="9">
-        <v>1046.8800000000001</v>
+        <v>76.94</v>
       </c>
       <c r="E183" s="8" t="s">
         <v>19</v>
@@ -6101,47 +6101,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="7">
-        <v>45848</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D184" s="9">
-        <v>76.94</v>
-      </c>
-      <c r="E184" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F184" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G184" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H184" s="8">
-        <v>1</v>
-      </c>
-      <c r="I184" s="8">
-        <v>1</v>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B184" t="s">
+        <v>126</v>
+      </c>
+      <c r="C184" t="s">
+        <v>36</v>
+      </c>
+      <c r="D184" s="4">
+        <v>671.4</v>
+      </c>
+      <c r="E184" t="s">
+        <v>19</v>
+      </c>
+      <c r="F184" t="s">
+        <v>127</v>
+      </c>
+      <c r="G184" t="s">
+        <v>20</v>
+      </c>
+      <c r="H184">
+        <v>6</v>
+      </c>
+      <c r="I184">
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>45915</v>
+        <v>45929</v>
       </c>
       <c r="B185" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C185" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="D185" s="4">
-        <v>671.4</v>
+        <v>305.56</v>
       </c>
       <c r="E185" t="s">
         <v>19</v>
@@ -6153,7 +6153,7 @@
         <v>20</v>
       </c>
       <c r="H185">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I185">
         <v>2</v>
@@ -6161,16 +6161,16 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>45929</v>
+        <v>45915</v>
       </c>
       <c r="B186" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="C186" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="D186" s="4">
-        <v>305.56</v>
+        <v>725</v>
       </c>
       <c r="E186" t="s">
         <v>19</v>
@@ -6182,43 +6182,14 @@
         <v>20</v>
       </c>
       <c r="H186">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I186">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A187" s="2">
-        <v>45915</v>
-      </c>
-      <c r="B187" t="s">
-        <v>86</v>
-      </c>
-      <c r="C187" t="s">
-        <v>43</v>
-      </c>
-      <c r="D187" s="4">
-        <v>725</v>
-      </c>
-      <c r="E187" t="s">
-        <v>19</v>
-      </c>
-      <c r="F187" t="s">
-        <v>127</v>
-      </c>
-      <c r="G187" t="s">
-        <v>20</v>
-      </c>
-      <c r="H187">
-        <v>12</v>
-      </c>
-      <c r="I187">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I185" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <autoFilter ref="A1:I184" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="0">
       <filters>
         <dateGroupItem year="2025" month="9" dateTimeGrouping="month"/>
@@ -6230,7 +6201,7 @@
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A88:I93">
-      <sortCondition ref="E1:E182"/>
+      <sortCondition ref="E1:E181"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6318,11 +6289,11 @@
         <v>45838</v>
       </c>
       <c r="B2" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
         <v>6909.5</v>
       </c>
       <c r="C2" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A2,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A2,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
         <v>6764.2199999999984</v>
       </c>
       <c r="D2" s="4">
@@ -6340,11 +6311,11 @@
         <v>45869</v>
       </c>
       <c r="B3" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
         <v>9266.8799999999992</v>
       </c>
       <c r="C3" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A3,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A3,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
         <v>9359.7199999999993</v>
       </c>
       <c r="D3" s="4">
@@ -6362,11 +6333,11 @@
         <v>45900</v>
       </c>
       <c r="B4" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
         <v>6569.5</v>
       </c>
       <c r="C4" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A4,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A4,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
         <v>7213.6200000000008</v>
       </c>
       <c r="D4" s="4">
@@ -6384,20 +6355,20 @@
         <v>45930</v>
       </c>
       <c r="B5" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
         <v>7508</v>
       </c>
       <c r="C5" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
-        <v>6406.56</v>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A5,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A5,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
+        <v>5996.56</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>1101.4399999999996</v>
+        <v>1511.4399999999996</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>509.76000000000022</v>
+        <v>919.76000000000022</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -6406,11 +6377,11 @@
         <v>45961</v>
       </c>
       <c r="B6" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A6,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A6,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A6,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A6,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
         <v>6569.5</v>
       </c>
       <c r="C6" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A6,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A6,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A6,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A6,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
         <v>3985.62</v>
       </c>
       <c r="D6" s="4">
@@ -6419,7 +6390,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>3093.6400000000003</v>
+        <v>3503.6400000000003</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -6428,11 +6399,11 @@
         <v>45991</v>
       </c>
       <c r="B7" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A7,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A7,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A7,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A7,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
         <v>6569.5</v>
       </c>
       <c r="C7" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A7,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A7,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A7,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A7,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
         <v>3985.62</v>
       </c>
       <c r="D7" s="4">
@@ -6441,7 +6412,7 @@
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>5677.52</v>
+        <v>6087.52</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -6450,11 +6421,11 @@
         <v>46022</v>
       </c>
       <c r="B8" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A8,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A8,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A8,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A8,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
         <v>6569.5</v>
       </c>
       <c r="C8" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A8,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A8,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A8,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A8,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
         <v>3836.02</v>
       </c>
       <c r="D8" s="4">
@@ -6463,7 +6434,7 @@
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>8411</v>
+        <v>8821</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -6472,11 +6443,11 @@
         <v>46053</v>
       </c>
       <c r="B9" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A9,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A9,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A9,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A9,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
         <v>6569.5</v>
       </c>
       <c r="C9" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A9,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A9,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A9,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A9,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
         <v>2920</v>
       </c>
       <c r="D9" s="4">
@@ -6485,7 +6456,7 @@
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>12060.5</v>
+        <v>12470.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -6494,11 +6465,11 @@
         <v>46081</v>
       </c>
       <c r="B10" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A10,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A10,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A10,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A10,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
         <v>6569.5</v>
       </c>
       <c r="C10" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A10,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A10,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A10,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A10,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
         <v>2920</v>
       </c>
       <c r="D10" s="4">
@@ -6507,7 +6478,7 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>15710</v>
+        <v>16120</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -6516,11 +6487,11 @@
         <v>46112</v>
       </c>
       <c r="B11" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A11,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A11,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A11,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A11,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
         <v>6569.5</v>
       </c>
       <c r="C11" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A11,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A11,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A11,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A11,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
         <v>2920</v>
       </c>
       <c r="D11" s="4">
@@ -6529,7 +6500,7 @@
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>19359.5</v>
+        <v>19769.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -6538,11 +6509,11 @@
         <v>46142</v>
       </c>
       <c r="B12" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A12,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A12,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A12,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A12,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
         <v>6569.5</v>
       </c>
       <c r="C12" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A12,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A12,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A12,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A12,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
         <v>2920</v>
       </c>
       <c r="D12" s="4">
@@ -6551,7 +6522,7 @@
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>23009</v>
+        <v>23419</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -6560,11 +6531,11 @@
         <v>46173</v>
       </c>
       <c r="B13" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A13,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A13,0))*(LANCAMENTOS!$E$2:$E$978="Income")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A13,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A13,0))*(LANCAMENTOS!$E$2:$E$977="Income")*(LANCAMENTOS!$D$2:$D$977))</f>
         <v>6569.5</v>
       </c>
       <c r="C13" s="4">
-        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$978&gt;=EOMONTH($A13,-1)+1)*(LANCAMENTOS!$A$2:$A$978&lt;=EOMONTH($A13,0))*(LANCAMENTOS!$E$2:$E$978="Expense")*(LANCAMENTOS!$D$2:$D$978))</f>
+        <f>SUMPRODUCT((LANCAMENTOS!$A$2:$A$977&gt;=EOMONTH($A13,-1)+1)*(LANCAMENTOS!$A$2:$A$977&lt;=EOMONTH($A13,0))*(LANCAMENTOS!$E$2:$E$977="Expense")*(LANCAMENTOS!$D$2:$D$977))</f>
         <v>2920</v>
       </c>
       <c r="D13" s="4">
@@ -6573,7 +6544,7 @@
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>26658.5</v>
+        <v>27068.5</v>
       </c>
     </row>
   </sheetData>
